--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740B0CD-C1F4-48B5-BAE7-20BFD17F2AC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C5EA3-78A9-4EE8-B4C8-595B1AA37D3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
+    <sheet name="Cost" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -564,14 +565,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,15 +580,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,29 +604,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,9 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,6 +701,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,7 +1056,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,111 +1070,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="H1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="H1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
         <v>200</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>2500</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>1000</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>250</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="53" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="39">
         <f>B3/$I$11</f>
         <v>0</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="39">
         <f t="shared" ref="J3:M3" si="0">C3/$I$11</f>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="39">
         <f t="shared" si="0"/>
         <v>0.25773195876288657</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="39">
         <f t="shared" si="0"/>
         <v>0.10309278350515463</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="40">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>250</v>
       </c>
       <c r="C4" s="1">
@@ -1179,34 +1189,34 @@
       <c r="F4" s="1">
         <v>50</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="54" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="38">
         <f t="shared" ref="I4:I7" si="1">B4/$I$11</f>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="38">
         <f t="shared" ref="J4:J7" si="2">C4/$I$11</f>
         <v>0</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="38">
         <f t="shared" ref="K4:K7" si="3">D4/$I$11</f>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="38">
         <f t="shared" ref="L4:L7" si="4">E4/$I$11</f>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="41">
         <f t="shared" ref="M4:M7" si="5">F4/$I$11</f>
         <v>5.1546391752577319E-3</v>
       </c>
-      <c r="N4" s="31"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -1224,33 +1234,33 @@
       <c r="F5" s="1">
         <v>250</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="38">
         <f t="shared" si="1"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="38">
         <f t="shared" si="2"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="38">
         <f t="shared" si="4"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="41">
         <f t="shared" si="5"/>
         <v>2.5773195876288658E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1268,36 +1278,36 @@
       <c r="F6" s="1">
         <v>250</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="54" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="38">
         <f t="shared" si="1"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="38">
         <f t="shared" si="2"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="38">
         <f t="shared" si="3"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="41">
         <f t="shared" si="5"/>
         <v>2.5773195876288658E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>250</v>
       </c>
       <c r="C7" s="1">
@@ -1306,71 +1316,71 @@
       <c r="D7" s="1">
         <v>250</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1000</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="42">
         <f t="shared" si="1"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="42">
         <f t="shared" si="2"/>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="42">
         <f t="shared" si="3"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="42">
         <f t="shared" si="4"/>
         <v>0.10309278350515463</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="43">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="H8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="H10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="15">
         <v>20000</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1378,58 +1388,58 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="1">
         <f>SUM(B3:F7)</f>
         <v>9700</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
         <v>5400</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>14000</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>7900</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>12000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>5400</v>
       </c>
       <c r="C13" s="1">
@@ -1444,14 +1454,14 @@
       <c r="F13" s="1">
         <v>8200</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1">
@@ -1469,13 +1479,13 @@
       <c r="F14" s="1">
         <v>4600</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="5"/>
       <c r="H14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1">
@@ -1493,16 +1503,16 @@
       <c r="F15" s="1">
         <v>6600</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="H15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>12000</v>
       </c>
       <c r="C16" s="1">
@@ -1511,164 +1521,164 @@
       <c r="D16" s="1">
         <v>4600</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>6600</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6"/>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
       <c r="H17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="33">
         <v>20</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="57" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="29">
         <v>20</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="58" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="30">
         <v>5</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="30">
         <v>15.52</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="32">
         <v>15.52</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="32">
         <v>4.4736000000000002</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="29">
         <v>4.4736000000000002</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1693,11 +1703,12 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:AB1"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1705,887 +1716,899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="34">
-        <v>0</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="34">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="34">
-        <v>0</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="34">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="34">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="34">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="34">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="34">
-        <v>0</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="34">
-        <v>0</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
     </row>
     <row r="17" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="34">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
     </row>
     <row r="18" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="34">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
     </row>
     <row r="20" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="34">
-        <v>0</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="34">
-        <v>0</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
     </row>
     <row r="22" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="25">
         <f>SUM(E2:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
     </row>
     <row r="23" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
     </row>
     <row r="24" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
     </row>
     <row r="25" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
     </row>
     <row r="26" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF21285-1765-4785-86EB-0D6D62A76163}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C5EA3-78A9-4EE8-B4C8-595B1AA37D3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27EF34-97C2-4567-8ABB-4D443DFFA31C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t>Source</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Ramstein --&gt; Langley</t>
+  </si>
+  <si>
+    <t>Mean bandwidth requirement (Mbps)</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -556,6 +559,19 @@
       </right>
       <top/>
       <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -565,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,6 +718,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,14 +760,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB38BFA3-7B04-4BCC-A14E-F4FC4BDCFA79}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,30 +1094,35 @@
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="H1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="H1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="O1" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="55"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1150,27 +1183,30 @@
         <v>2</v>
       </c>
       <c r="I3" s="39">
-        <f>B3/$I$11</f>
+        <f>B3/$I$20</f>
         <v>0</v>
       </c>
       <c r="J3" s="39">
-        <f t="shared" ref="J3:M3" si="0">C3/$I$11</f>
+        <f>C3/$I$20</f>
         <v>2.0618556701030927E-2</v>
       </c>
       <c r="K3" s="39">
-        <f t="shared" si="0"/>
+        <f>D3/$I$20</f>
         <v>0.25773195876288657</v>
       </c>
       <c r="L3" s="39">
-        <f t="shared" si="0"/>
+        <f>E3/$I$20</f>
         <v>0.10309278350515463</v>
       </c>
       <c r="M3" s="40">
-        <f t="shared" si="0"/>
+        <f>F3/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,28 +1230,31 @@
         <v>3</v>
       </c>
       <c r="I4" s="38">
-        <f t="shared" ref="I4:I7" si="1">B4/$I$11</f>
+        <f>B4/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J4" s="38">
-        <f t="shared" ref="J4:J7" si="2">C4/$I$11</f>
+        <f>C4/$I$20</f>
         <v>0</v>
       </c>
       <c r="K4" s="38">
-        <f t="shared" ref="K4:K7" si="3">D4/$I$11</f>
+        <f>D4/$I$20</f>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="L4" s="38">
-        <f t="shared" ref="L4:L7" si="4">E4/$I$11</f>
+        <f>E4/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="M4" s="41">
-        <f t="shared" ref="M4:M7" si="5">F4/$I$11</f>
+        <f>F4/$I$20</f>
         <v>5.1546391752577319E-3</v>
       </c>
       <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -1239,27 +1278,30 @@
         <v>4</v>
       </c>
       <c r="I5" s="38">
-        <f t="shared" si="1"/>
+        <f>B5/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J5" s="38">
-        <f t="shared" si="2"/>
+        <f>C5/$I$20</f>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="K5" s="38">
-        <f t="shared" si="3"/>
+        <f>D5/$I$20</f>
         <v>0</v>
       </c>
       <c r="L5" s="38">
-        <f t="shared" si="4"/>
+        <f>E5/$I$20</f>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="M5" s="41">
-        <f t="shared" si="5"/>
+        <f>F5/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -1283,27 +1325,27 @@
         <v>5</v>
       </c>
       <c r="I6" s="38">
-        <f t="shared" si="1"/>
+        <f>B6/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J6" s="38">
-        <f t="shared" si="2"/>
+        <f>C6/$I$20</f>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="K6" s="38">
-        <f t="shared" si="3"/>
+        <f>D6/$I$20</f>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="L6" s="38">
-        <f t="shared" si="4"/>
+        <f>E6/$I$20</f>
         <v>0</v>
       </c>
       <c r="M6" s="41">
-        <f t="shared" si="5"/>
+        <f>F6/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1327,68 +1369,69 @@
         <v>6</v>
       </c>
       <c r="I7" s="42">
-        <f t="shared" si="1"/>
+        <f>B7/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J7" s="42">
-        <f t="shared" si="2"/>
+        <f>C7/$I$20</f>
         <v>2.0618556701030927E-2</v>
       </c>
       <c r="K7" s="42">
-        <f t="shared" si="3"/>
+        <f>D7/$I$20</f>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="L7" s="42">
-        <f t="shared" si="4"/>
+        <f>E7/$I$20</f>
         <v>0.10309278350515463</v>
       </c>
       <c r="M7" s="43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+        <f>F7/$I$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="H8" s="51" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="H8" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="48" t="s">
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="H10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="15">
-        <v>20000</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="H10" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -1404,181 +1447,323 @@
       <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="60"/>
+      <c r="I11" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D12" s="8">
+        <v>14000</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7900</v>
+      </c>
+      <c r="F12" s="9">
+        <v>12000</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="48">
+        <f>B3*$I$19/(1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="48">
+        <f t="shared" ref="J12:M12" si="0">C3*$I$19/(1000000)</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L12" s="48">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8200</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="48">
+        <f t="shared" ref="I13:I16" si="1">B4*$I$19/(1000000)</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="48">
+        <f t="shared" ref="J13:J16" si="2">C4*$I$19/(1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="48">
+        <f t="shared" ref="K13:K16" si="3">D4*$I$19/(1000000)</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="48">
+        <f t="shared" ref="L13:L16" si="4">E4*$I$19/(1000000)</f>
+        <v>5</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13:M16" si="5">F4*$I$19/(1000000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4600</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="48">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="48">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4600</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J16" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="48">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="48">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="H17" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="H19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="15">
+        <v>20000</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+    </row>
+    <row r="20" spans="1:13" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="33">
+        <v>20</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I20" s="1">
         <f>SUM(B3:F7)</f>
         <v>9700</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J20" s="47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>5400</v>
-      </c>
-      <c r="D12" s="8">
-        <v>14000</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7900</v>
-      </c>
-      <c r="F12" s="9">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12500</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8200</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>14000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12500</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>11200</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4600</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7900</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11200</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11">
-        <v>12000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8200</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4600</v>
-      </c>
-      <c r="E16" s="4">
-        <v>6600</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="33">
-        <v>20</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
@@ -1591,11 +1776,11 @@
       <c r="D21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>14</v>
       </c>
@@ -1608,12 +1793,13 @@
       <c r="D22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="52" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
@@ -1641,7 +1827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
@@ -1655,7 +1841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
@@ -1670,21 +1856,21 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+    <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="B1:F1"/>
@@ -1693,6 +1879,9 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="A17:F17"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="H17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1702,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B68A0B9-5B5C-42F3-A19F-72934DE22F63}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27EF34-97C2-4567-8ABB-4D443DFFA31C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2028B1EA-3632-4910-88B5-774A51C105F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
@@ -733,6 +733,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,9 +752,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,9 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:M11"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,34 +1095,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="H1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="53" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="H1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-      <c r="O1" s="58" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
+      <c r="O1" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1183,23 +1183,23 @@
         <v>2</v>
       </c>
       <c r="I3" s="39">
-        <f>B3/$I$20</f>
+        <f t="shared" ref="I3:M7" si="0">B3/$I$20</f>
         <v>0</v>
       </c>
       <c r="J3" s="39">
-        <f>C3/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.0618556701030927E-2</v>
       </c>
       <c r="K3" s="39">
-        <f>D3/$I$20</f>
+        <f t="shared" si="0"/>
         <v>0.25773195876288657</v>
       </c>
       <c r="L3" s="39">
-        <f>E3/$I$20</f>
+        <f t="shared" si="0"/>
         <v>0.10309278350515463</v>
       </c>
       <c r="M3" s="40">
-        <f>F3/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="O3" t="s">
@@ -1230,23 +1230,23 @@
         <v>3</v>
       </c>
       <c r="I4" s="38">
-        <f>B4/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J4" s="38">
-        <f>C4/$I$20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="38">
-        <f>D4/$I$20</f>
+        <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="L4" s="38">
-        <f>E4/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="M4" s="41">
-        <f>F4/$I$20</f>
+        <f t="shared" si="0"/>
         <v>5.1546391752577319E-3</v>
       </c>
       <c r="N4" s="23"/>
@@ -1278,23 +1278,23 @@
         <v>4</v>
       </c>
       <c r="I5" s="38">
-        <f>B5/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J5" s="38">
-        <f>C5/$I$20</f>
+        <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="K5" s="38">
-        <f>D5/$I$20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="38">
-        <f>E5/$I$20</f>
+        <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="M5" s="41">
-        <f>F5/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="O5" t="s">
@@ -1325,23 +1325,23 @@
         <v>5</v>
       </c>
       <c r="I6" s="38">
-        <f>B6/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J6" s="38">
-        <f>C6/$I$20</f>
+        <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="K6" s="38">
-        <f>D6/$I$20</f>
+        <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
       <c r="L6" s="38">
-        <f>E6/$I$20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="41">
-        <f>F6/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
     </row>
@@ -1369,69 +1369,69 @@
         <v>6</v>
       </c>
       <c r="I7" s="42">
-        <f>B7/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="J7" s="42">
-        <f>C7/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.0618556701030927E-2</v>
       </c>
       <c r="K7" s="42">
-        <f>D7/$I$20</f>
+        <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="L7" s="42">
-        <f>E7/$I$20</f>
+        <f t="shared" si="0"/>
         <v>0.10309278350515463</v>
       </c>
       <c r="M7" s="43">
-        <f>F7/$I$20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="H8" s="56" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="H8" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="H10" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="53" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="H10" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -1447,8 +1447,8 @@
       <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="62" t="s">
+      <c r="H11" s="61"/>
+      <c r="I11" s="53" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="48">
-        <f t="shared" ref="J12:M12" si="0">C3*$I$19/(1000000)</f>
+        <f t="shared" ref="J12:M12" si="1">C3*$I$19/(1000000)</f>
         <v>4</v>
       </c>
       <c r="K12" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="L12" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1531,23 +1531,23 @@
         <v>3</v>
       </c>
       <c r="I13" s="48">
-        <f t="shared" ref="I13:I16" si="1">B4*$I$19/(1000000)</f>
+        <f t="shared" ref="I13:I16" si="2">B4*$I$19/(1000000)</f>
         <v>5</v>
       </c>
       <c r="J13" s="48">
-        <f t="shared" ref="J13:J16" si="2">C4*$I$19/(1000000)</f>
+        <f t="shared" ref="J13:J16" si="3">C4*$I$19/(1000000)</f>
         <v>0</v>
       </c>
       <c r="K13" s="48">
-        <f t="shared" ref="K13:K16" si="3">D4*$I$19/(1000000)</f>
+        <f t="shared" ref="K13:K16" si="4">D4*$I$19/(1000000)</f>
         <v>10</v>
       </c>
       <c r="L13" s="48">
-        <f t="shared" ref="L13:L16" si="4">E4*$I$19/(1000000)</f>
+        <f t="shared" ref="L13:L16" si="5">E4*$I$19/(1000000)</f>
         <v>5</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" ref="M13:M16" si="5">F4*$I$19/(1000000)</f>
+        <f t="shared" ref="M13:M16" si="6">F4*$I$19/(1000000)</f>
         <v>1</v>
       </c>
     </row>
@@ -1575,23 +1575,23 @@
         <v>4</v>
       </c>
       <c r="I14" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J14" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K14" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -1619,23 +1619,23 @@
         <v>5</v>
       </c>
       <c r="I15" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J15" s="48">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K15" s="48">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
+      <c r="K15" s="48">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="L15" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -1663,43 +1663,43 @@
         <v>6</v>
       </c>
       <c r="I16" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J16" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K16" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L16" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="H17" s="56" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="H17" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="48"/>
@@ -1857,12 +1857,12 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>

--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,26 +8,83 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2028B1EA-3632-4910-88B5-774A51C105F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DDF60B-EB68-4123-9A2B-96E0BF5F4423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Links" sheetId="2" r:id="rId2"/>
-    <sheet name="Cost" sheetId="3" r:id="rId3"/>
+    <sheet name="PacketDelay" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">PacketDelay!$K$2:$L$21</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">PacketDelay!$R$2:$R$21</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">PacketDelay!$U$22</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">PacketDelay!$U$3:$U$4</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">PacketDelay!$V$2:$V$22</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">PacketDelay!$K$31</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.0000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">PacketDelay!$Q$2:$Q$21</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">0.7</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">0.5</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
   <si>
     <t>Source</t>
   </si>
@@ -152,30 +209,12 @@
     <t>D</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Hops</t>
-  </si>
-  <si>
-    <t>In-Use:</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Utilization</t>
   </si>
   <si>
     <t>Num_Sys</t>
   </si>
   <si>
-    <t>Avg. Delay</t>
-  </si>
-  <si>
     <t>Total packet rate:</t>
   </si>
   <si>
@@ -201,12 +240,117 @@
   </si>
   <si>
     <t>Mean bandwidth requirement (Mbps)</t>
+  </si>
+  <si>
+    <t>intel. Sat</t>
+  </si>
+  <si>
+    <t>bent-pipe</t>
+  </si>
+  <si>
+    <t>leased bp sat.</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Leased T3</t>
+  </si>
+  <si>
+    <t>Average Delay</t>
+  </si>
+  <si>
+    <t>Sat Install</t>
+  </si>
+  <si>
+    <t>Hickam Trenching</t>
+  </si>
+  <si>
+    <t>Cheyenne Trenching</t>
+  </si>
+  <si>
+    <t>Qatar Trenching</t>
+  </si>
+  <si>
+    <t>Langley Trenching</t>
+  </si>
+  <si>
+    <t>Ramstein Trenching</t>
+  </si>
+  <si>
+    <t>Total Install:</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Server Cost:</t>
+  </si>
+  <si>
+    <t>Hickam Link:</t>
+  </si>
+  <si>
+    <t>Costs:</t>
+  </si>
+  <si>
+    <t>Cheyenne Link:</t>
+  </si>
+  <si>
+    <t>Qatar Link</t>
+  </si>
+  <si>
+    <t>Langley Link</t>
+  </si>
+  <si>
+    <t>Ramstein Link</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Monthly Cost:</t>
+  </si>
+  <si>
+    <t>Total Connections:</t>
+  </si>
+  <si>
+    <t>Expected Delay (s):</t>
+  </si>
+  <si>
+    <t>Expected Delay (ms):</t>
+  </si>
+  <si>
+    <t>Cost Function Parameters:</t>
+  </si>
+  <si>
+    <t>10 Year Cost/$6M:</t>
+  </si>
+  <si>
+    <t>K-Connectedness:</t>
+  </si>
+  <si>
+    <t>Weighted Delay (ms):</t>
+  </si>
+  <si>
+    <t>Score:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,15 +375,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -576,12 +726,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,111 +917,174 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,8 +1094,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1080,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB38BFA3-7B04-4BCC-A14E-F4FC4BDCFA79}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,34 +1430,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="H1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="55" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="H1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
-      <c r="O1" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+      <c r="O1" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
+      <c r="A2" s="84"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="61"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1179,31 +1514,31 @@
         <v>250</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="36">
         <f t="shared" ref="I3:M7" si="0">B3/$I$20</f>
         <v>0</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="36">
         <f t="shared" si="0"/>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="36">
         <f t="shared" si="0"/>
         <v>0.25773195876288657</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="36">
         <f t="shared" si="0"/>
         <v>0.10309278350515463</v>
       </c>
-      <c r="M3" s="40">
+      <c r="M3" s="37">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1226,32 +1561,32 @@
         <v>50</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="35">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="35">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="38">
         <f t="shared" si="0"/>
         <v>5.1546391752577319E-3</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1274,31 +1609,31 @@
         <v>250</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="35">
         <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="38">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1321,26 +1656,26 @@
         <v>250</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="35">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <f t="shared" si="0"/>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="38">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
@@ -1365,73 +1700,73 @@
         <v>0</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="39">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="39">
         <f t="shared" si="0"/>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="39">
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="39">
         <f t="shared" si="0"/>
         <v>0.10309278350515463</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="H8" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="H8" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="H10" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="55" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="H10" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -1447,8 +1782,8 @@
       <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="53" t="s">
+      <c r="H11" s="84"/>
+      <c r="I11" s="50" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -1486,19 +1821,19 @@
       <c r="H12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="45">
         <f>B3*$I$19/(1000000)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="45">
         <f t="shared" ref="J12:M12" si="1">C3*$I$19/(1000000)</f>
         <v>4</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="45">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1530,19 +1865,19 @@
       <c r="H13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="45">
         <f t="shared" ref="I13:I16" si="2">B4*$I$19/(1000000)</f>
         <v>5</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="45">
         <f t="shared" ref="J13:J16" si="3">C4*$I$19/(1000000)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="45">
         <f t="shared" ref="K13:K16" si="4">D4*$I$19/(1000000)</f>
         <v>10</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="45">
         <f t="shared" ref="L13:L16" si="5">E4*$I$19/(1000000)</f>
         <v>5</v>
       </c>
@@ -1574,19 +1909,19 @@
       <c r="H14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="45">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="45">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="45">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -1618,19 +1953,19 @@
       <c r="H15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="45">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="45">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="45">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1662,19 +1997,19 @@
       <c r="H16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="45">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="45">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="45">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="45">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -1684,42 +2019,42 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="H17" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="H17" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="5"/>
@@ -1732,51 +2067,51 @@
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>20</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="47" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I20" s="1">
         <f>SUM(B3:F7)</f>
         <v>9700</v>
       </c>
-      <c r="J20" s="47" t="s">
-        <v>51</v>
+      <c r="J20" s="44" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>20</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="48" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1784,32 +2119,32 @@
       <c r="A22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <v>5</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="49" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="I22" s="49"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="29">
         <v>15.52</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1817,13 +2152,13 @@
       <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>15.52</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1831,13 +2166,13 @@
       <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>4.4736000000000002</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1845,24 +2180,24 @@
       <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>4.4736000000000002</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
@@ -1888,916 +2223,2122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B68A0B9-5B5C-42F3-A19F-72934DE22F63}">
-  <dimension ref="A1:AB26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A0AE5-F8AA-4CEF-B4FC-912B3D42E77B}">
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="28" width="4" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:32" s="53" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="31"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="V1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="57"/>
+      <c r="H2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="25">
-        <v>0</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="J2" s="70">
+        <v>0</v>
+      </c>
+      <c r="K2" s="70">
+        <v>0</v>
+      </c>
+      <c r="L2" s="70">
+        <v>0</v>
+      </c>
+      <c r="M2" s="70">
+        <v>0</v>
+      </c>
+      <c r="N2" s="70">
+        <v>0</v>
+      </c>
+      <c r="O2" s="70">
+        <v>0</v>
+      </c>
+      <c r="P2" s="70">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="71">
+        <v>200</v>
+      </c>
+      <c r="R2" s="71">
+        <f t="array" ref="R2">SUMPRODUCT(J2:P2,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S2" s="58">
+        <f>Q2/(R2-Q2)</f>
+        <v>0.42459239130434784</v>
+      </c>
+      <c r="T2" s="59">
+        <f>1/(R2-Q2)</f>
+        <v>2.1229619565217395E-3</v>
+      </c>
+      <c r="U2" s="60">
+        <f>Q2/R2</f>
+        <v>0.29804482594182169</v>
+      </c>
+      <c r="V2" s="57">
+        <f>IF(Q2=R2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="57">
+        <f>Q2/$Q$22</f>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="D3" s="57"/>
+      <c r="H3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="I3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="J3" s="62">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62">
+        <v>0</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0</v>
+      </c>
+      <c r="M3" s="62">
+        <v>2</v>
+      </c>
+      <c r="N3" s="62">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62">
+        <v>0</v>
+      </c>
+      <c r="P3" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>2500</v>
+      </c>
+      <c r="R3" s="71">
+        <f t="array" ref="R3">SUMPRODUCT(J3:P3,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>5103.9999999999991</v>
+      </c>
+      <c r="S3" s="61">
+        <f t="shared" ref="S3:S22" si="0">Q3/(R3-Q3)</f>
+        <v>0.960061443932412</v>
+      </c>
+      <c r="T3" s="62">
+        <f>1/(R3-Q3)</f>
+        <v>3.8402457757296478E-4</v>
+      </c>
+      <c r="U3" s="63">
+        <f t="shared" ref="U3:U22" si="1">Q3/R3</f>
+        <v>0.48981191222570541</v>
+      </c>
+      <c r="V3" s="57">
+        <f t="shared" ref="V3:V22" si="2">IF(Q3=R3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="57">
+        <f t="shared" ref="W3:W21" si="3">Q3/$Q$22</f>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>200</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>250</v>
+      </c>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
+      <c r="D4" s="57"/>
+      <c r="H4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="I4" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="J4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="L4" s="62">
+        <v>0</v>
+      </c>
+      <c r="M4" s="62">
+        <v>0</v>
+      </c>
+      <c r="N4" s="62">
+        <v>1</v>
+      </c>
+      <c r="O4" s="62">
+        <v>2</v>
+      </c>
+      <c r="P4" s="62">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R4" s="71">
+        <f t="array" ref="R4">SUMPRODUCT(J4:P4,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>2118.0799999999995</v>
+      </c>
+      <c r="S4" s="61">
+        <f t="shared" si="0"/>
+        <v>0.89439038351459688</v>
+      </c>
+      <c r="T4" s="62">
+        <f t="shared" ref="T4:T22" si="4">1/(R4-Q4)</f>
+        <v>8.9439038351459682E-4</v>
+      </c>
+      <c r="U4" s="63">
+        <f t="shared" si="1"/>
+        <v>0.47212569874603427</v>
+      </c>
+      <c r="V4" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="57">
+        <f t="shared" si="3"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>250</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>500</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>250</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="57"/>
+      <c r="H5" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="I5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="J5" s="62">
+        <v>0</v>
+      </c>
+      <c r="K5" s="62">
+        <v>0</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0</v>
+      </c>
+      <c r="M5" s="62">
+        <v>0</v>
+      </c>
+      <c r="N5" s="62">
+        <v>0</v>
+      </c>
+      <c r="O5" s="62">
+        <v>0</v>
+      </c>
+      <c r="P5" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>250</v>
+      </c>
+      <c r="R5" s="71">
+        <f t="array" ref="R5">SUMPRODUCT(J5:P5,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S5" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T5" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U5" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V5" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="D6" s="57"/>
+      <c r="H6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="I6" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="J6" s="62">
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
+        <v>0</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0</v>
+      </c>
+      <c r="M6" s="62">
+        <v>0</v>
+      </c>
+      <c r="N6" s="62">
+        <v>1</v>
+      </c>
+      <c r="O6" s="62">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>250</v>
+      </c>
+      <c r="R6" s="71">
+        <f t="array" ref="R6">SUMPRODUCT(J6:P6,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S6" s="61">
+        <f t="shared" si="0"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T6" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="U6" s="63">
+        <f t="shared" si="1"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="V6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+    </row>
+    <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="57"/>
+      <c r="H7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="I7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
+        <v>0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0</v>
+      </c>
+      <c r="M7" s="62">
+        <v>0</v>
+      </c>
+      <c r="N7" s="62">
+        <v>0</v>
+      </c>
+      <c r="O7" s="62">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>500</v>
+      </c>
+      <c r="R7" s="71">
+        <f t="array" ref="R7">SUMPRODUCT(J7:P7,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S7" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T7" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U7" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V7" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>250</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="I8" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
+      <c r="J8" s="62">
+        <v>0</v>
+      </c>
+      <c r="K8" s="62">
+        <v>0</v>
+      </c>
+      <c r="L8" s="62">
+        <v>0</v>
+      </c>
+      <c r="M8" s="62">
+        <v>0</v>
+      </c>
+      <c r="N8" s="62">
+        <v>1</v>
+      </c>
+      <c r="O8" s="62">
+        <v>0</v>
+      </c>
+      <c r="P8" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>250</v>
+      </c>
+      <c r="R8" s="71">
+        <f t="array" ref="R8">SUMPRODUCT(J8:P8,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S8" s="61">
+        <f t="shared" si="0"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T8" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="U8" s="63">
+        <f t="shared" si="1"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="V8" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="I9" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
+      <c r="J9" s="62">
+        <v>0</v>
+      </c>
+      <c r="K9" s="62">
+        <v>0</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0</v>
+      </c>
+      <c r="M9" s="62">
+        <v>0</v>
+      </c>
+      <c r="N9" s="62">
+        <v>1</v>
+      </c>
+      <c r="O9" s="62">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>50</v>
+      </c>
+      <c r="R9" s="71">
+        <f t="array" ref="R9">SUMPRODUCT(J9:P9,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S9" s="61">
+        <f t="shared" si="0"/>
+        <v>6.8870523415977963E-2</v>
+      </c>
+      <c r="T9" s="62">
+        <f t="shared" si="4"/>
+        <v>1.3774104683195593E-3</v>
+      </c>
+      <c r="U9" s="63">
+        <f t="shared" si="1"/>
+        <v>6.4432989690721643E-2</v>
+      </c>
+      <c r="V9" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577319E-3</v>
+      </c>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25" t="s">
+      <c r="J10" s="62">
+        <v>0</v>
+      </c>
+      <c r="K10" s="62">
+        <v>0</v>
+      </c>
+      <c r="L10" s="62">
+        <v>0</v>
+      </c>
+      <c r="M10" s="62">
+        <v>0</v>
+      </c>
+      <c r="N10" s="62">
+        <v>0</v>
+      </c>
+      <c r="O10" s="62">
+        <v>0</v>
+      </c>
+      <c r="P10" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>250</v>
+      </c>
+      <c r="R10" s="71">
+        <f t="array" ref="R10">SUMPRODUCT(J10:P10,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S10" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T10" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U10" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V10" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="54">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="I11" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
+      <c r="J11" s="62">
+        <v>0</v>
+      </c>
+      <c r="K11" s="62">
+        <v>0</v>
+      </c>
+      <c r="L11" s="62">
+        <v>0</v>
+      </c>
+      <c r="M11" s="62">
+        <v>0</v>
+      </c>
+      <c r="N11" s="62">
+        <v>0</v>
+      </c>
+      <c r="O11" s="62">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>500</v>
+      </c>
+      <c r="R11" s="71">
+        <f t="array" ref="R11">SUMPRODUCT(J11:P11,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S11" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T11" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U11" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V11" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="54">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>15.52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="I12" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
+      <c r="J12" s="62">
+        <v>0</v>
+      </c>
+      <c r="K12" s="62">
+        <v>0</v>
+      </c>
+      <c r="L12" s="62">
+        <v>0</v>
+      </c>
+      <c r="M12" s="62">
+        <v>0</v>
+      </c>
+      <c r="N12" s="62">
+        <v>0</v>
+      </c>
+      <c r="O12" s="62">
+        <v>0</v>
+      </c>
+      <c r="P12" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="71">
+        <v>500</v>
+      </c>
+      <c r="R12" s="71">
+        <f t="array" ref="R12">SUMPRODUCT(J12:P12,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S12" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T12" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U12" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V12" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="54">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>15.52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="I13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="J13" s="62">
+        <v>0</v>
+      </c>
+      <c r="K13" s="62">
+        <v>0</v>
+      </c>
+      <c r="L13" s="62">
+        <v>0</v>
+      </c>
+      <c r="M13" s="62">
+        <v>0</v>
+      </c>
+      <c r="N13" s="62">
+        <v>1</v>
+      </c>
+      <c r="O13" s="62">
+        <v>0</v>
+      </c>
+      <c r="P13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="71">
+        <v>250</v>
+      </c>
+      <c r="R13" s="71">
+        <f t="array" ref="R13">SUMPRODUCT(J13:P13,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S13" s="61">
+        <f t="shared" si="0"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T13" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="U13" s="63">
+        <f t="shared" si="1"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="V13" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="I14" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
+      <c r="J14" s="62">
+        <v>0</v>
+      </c>
+      <c r="K14" s="62">
+        <v>0</v>
+      </c>
+      <c r="L14" s="62">
+        <v>0</v>
+      </c>
+      <c r="M14" s="62">
+        <v>0</v>
+      </c>
+      <c r="N14" s="62">
+        <v>1</v>
+      </c>
+      <c r="O14" s="62">
+        <v>0</v>
+      </c>
+      <c r="P14" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="71">
+        <v>250</v>
+      </c>
+      <c r="R14" s="71">
+        <f t="array" ref="R14">SUMPRODUCT(J14:P14,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S14" s="61">
+        <f t="shared" si="0"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T14" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="U14" s="63">
+        <f t="shared" si="1"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="V14" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="I15" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="J15" s="62">
+        <v>0</v>
+      </c>
+      <c r="K15" s="62">
+        <v>0</v>
+      </c>
+      <c r="L15" s="62">
+        <v>0</v>
+      </c>
+      <c r="M15" s="62">
+        <v>0</v>
+      </c>
+      <c r="N15" s="62">
+        <v>1</v>
+      </c>
+      <c r="O15" s="62">
+        <v>0</v>
+      </c>
+      <c r="P15" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="71">
+        <v>500</v>
+      </c>
+      <c r="R15" s="71">
+        <f t="array" ref="R15">SUMPRODUCT(J15:P15,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S15" s="61">
+        <f t="shared" si="0"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="T15" s="62">
+        <f t="shared" si="4"/>
+        <v>3.6231884057971015E-3</v>
+      </c>
+      <c r="U15" s="63">
+        <f t="shared" si="1"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="V15" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D16" s="57"/>
+      <c r="H16" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="I16" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-    </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
+      <c r="J16" s="62">
+        <v>0</v>
+      </c>
+      <c r="K16" s="62">
+        <v>0</v>
+      </c>
+      <c r="L16" s="62">
+        <v>0</v>
+      </c>
+      <c r="M16" s="62">
+        <v>0</v>
+      </c>
+      <c r="N16" s="62">
+        <v>0</v>
+      </c>
+      <c r="O16" s="62">
+        <v>0</v>
+      </c>
+      <c r="P16" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="71">
+        <v>500</v>
+      </c>
+      <c r="R16" s="71">
+        <f t="array" ref="R16">SUMPRODUCT(J16:P16,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S16" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T16" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U16" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V16" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+    </row>
+    <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="57"/>
+      <c r="H17" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="I17" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-    </row>
-    <row r="18" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="J17" s="62">
+        <v>0</v>
+      </c>
+      <c r="K17" s="62">
+        <v>0</v>
+      </c>
+      <c r="L17" s="62">
+        <v>0</v>
+      </c>
+      <c r="M17" s="62">
+        <v>0</v>
+      </c>
+      <c r="N17" s="62">
+        <v>1</v>
+      </c>
+      <c r="O17" s="62">
+        <v>0</v>
+      </c>
+      <c r="P17" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="71">
+        <v>250</v>
+      </c>
+      <c r="R17" s="71">
+        <f t="array" ref="R17">SUMPRODUCT(J17:P17,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S17" s="61">
+        <f t="shared" si="0"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T17" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="U17" s="63">
+        <f t="shared" si="1"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="V17" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+    </row>
+    <row r="18" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="I18" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-    </row>
-    <row r="19" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
+      <c r="J18" s="62">
+        <v>0</v>
+      </c>
+      <c r="K18" s="62">
+        <v>0</v>
+      </c>
+      <c r="L18" s="62">
+        <v>0</v>
+      </c>
+      <c r="M18" s="62">
+        <v>0</v>
+      </c>
+      <c r="N18" s="62">
+        <v>0</v>
+      </c>
+      <c r="O18" s="62">
+        <v>0</v>
+      </c>
+      <c r="P18" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="71">
+        <v>250</v>
+      </c>
+      <c r="R18" s="71">
+        <f t="array" ref="R18">SUMPRODUCT(J18:P18,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S18" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T18" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U18" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V18" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+    </row>
+    <row r="19" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="I19" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-    </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
+      <c r="J19" s="62">
+        <v>0</v>
+      </c>
+      <c r="K19" s="62">
+        <v>0</v>
+      </c>
+      <c r="L19" s="62">
+        <v>0</v>
+      </c>
+      <c r="M19" s="62">
+        <v>0</v>
+      </c>
+      <c r="N19" s="62">
+        <v>0</v>
+      </c>
+      <c r="O19" s="62">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>200</v>
+      </c>
+      <c r="R19" s="71">
+        <f t="array" ref="R19">SUMPRODUCT(J19:P19,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>223.68</v>
+      </c>
+      <c r="S19" s="61">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459438</v>
+      </c>
+      <c r="T19" s="62">
+        <f t="shared" si="4"/>
+        <v>4.2229729729729715E-2</v>
+      </c>
+      <c r="U19" s="63">
+        <f t="shared" si="1"/>
+        <v>0.89413447782546496</v>
+      </c>
+      <c r="V19" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="57">
+        <f t="shared" si="3"/>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D20" s="8">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="I20" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="25">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-    </row>
-    <row r="21" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
+      <c r="J20" s="62">
+        <v>0</v>
+      </c>
+      <c r="K20" s="62">
+        <v>0</v>
+      </c>
+      <c r="L20" s="62">
+        <v>0</v>
+      </c>
+      <c r="M20" s="62">
+        <v>0</v>
+      </c>
+      <c r="N20" s="62">
+        <v>0</v>
+      </c>
+      <c r="O20" s="62">
+        <v>0</v>
+      </c>
+      <c r="P20" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="71">
+        <v>250</v>
+      </c>
+      <c r="R20" s="71">
+        <f t="array" ref="R20">SUMPRODUCT(J20:P20,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S20" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T20" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U20" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V20" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8200</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="I21" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-    </row>
-    <row r="22" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="25">
-        <f>SUM(E2:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-    </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D23" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-    </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-    </row>
-    <row r="25" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D25" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-    </row>
-    <row r="26" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
+      <c r="J21" s="62">
+        <v>0</v>
+      </c>
+      <c r="K21" s="62">
+        <v>0</v>
+      </c>
+      <c r="L21" s="62">
+        <v>0</v>
+      </c>
+      <c r="M21" s="62">
+        <v>0</v>
+      </c>
+      <c r="N21" s="62">
+        <v>0</v>
+      </c>
+      <c r="O21" s="62">
+        <v>2</v>
+      </c>
+      <c r="P21" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R21" s="71">
+        <f t="array" ref="R21">SUMPRODUCT(J21:P21,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>1118.4000000000001</v>
+      </c>
+      <c r="S21" s="61">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459403</v>
+      </c>
+      <c r="T21" s="62">
+        <f t="shared" si="4"/>
+        <v>8.4459459459459395E-3</v>
+      </c>
+      <c r="U21" s="63">
+        <f t="shared" si="1"/>
+        <v>0.89413447782546485</v>
+      </c>
+      <c r="V21" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="57">
+        <f t="shared" si="3"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="72">
+        <f>SUM(Q2:Q21)</f>
+        <v>9700</v>
+      </c>
+      <c r="R22" s="72">
+        <f>SUM(R2:R21)</f>
+        <v>19140.800000000007</v>
+      </c>
+      <c r="S22" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0274553003982707</v>
+      </c>
+      <c r="T22" s="65">
+        <f t="shared" si="4"/>
+        <v>1.0592322684518254E-4</v>
+      </c>
+      <c r="U22" s="66">
+        <f t="shared" si="1"/>
+        <v>0.50677087687035005</v>
+      </c>
+      <c r="V22" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="57">
+        <f>SUM(J2:J21)</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="57">
+        <f t="shared" ref="K23:P23" si="5">SUM(K2:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="57">
+        <f>SUM(L2:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="57">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N23" s="57">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="57">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P23" s="57">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8200</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+    </row>
+    <row r="25" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="U25" s="57">
+        <f>SUMPRODUCT(W2:W21,T2:T21)</f>
+        <v>4.1430804880583181E-3</v>
+      </c>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="74">
+        <f>SUM(J2:J21)*60000000+SUM(K2:K21)*40000000</f>
+        <v>120000000</v>
+      </c>
+      <c r="J26" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="74">
+        <f>J23*8000+K23*8000+L23*500000+M23*5000+N23*700000+O23*5000+P23*500000</f>
+        <v>22546000</v>
+      </c>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" s="57">
+        <f>U25*1000</f>
+        <v>4.1430804880583185</v>
+      </c>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H27" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="74">
+        <f>IF(AND(M2=0, O2=0), 0, C20*10000)+IF( AND(M3=0, O3=0), 0, D20*10000)+IF(AND(M4=0, O4=0), 0, E20*10000)+IF(AND(M5=0, O5=0), 0, F20*10000)</f>
+        <v>219000000</v>
+      </c>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="74">
+        <f>IF(AND(M6=0, O6=0), 0, B21*10000)+IF(AND(M7=0, O7=0),0, D21*10000)+IF(AND(M8=0, O8=0), 0, E21*10000)+IF(AND(M9=0, O9=0), 0, F21*10000)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="75">
+        <f>SUM(J2:P21)*20000</f>
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H29" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="74">
+        <f>IF(AND(M10=0, O10=0), 0, B22*10000)+IF(AND(M11=0, O11=0),0, C22*10000)+IF(AND(M12=0, O12=0), 0, E22*10000)+IF(AND(M13=0, O13=0), 0, F22*10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H30" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="74">
+        <f>IF(AND(M14=0, O14=0), 0, B23*10000)+IF(AND(M15=0, O15=0),0, C23*10000)+IF(AND(M16=0, O16=0), 0, D23*10000)+IF(AND(M17=0, O17=0), 0, F23*10000)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H31" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="74">
+        <f>IF(AND(M18=0, O18=0), 0, B24*10000)+IF(AND(M19=0, O19=0),0, C24*10000)+IF(AND(M20=0, O20=0), 0, D24*10000)+IF(AND(M21=0, O21=0), 0, E24*10000)</f>
+        <v>66000000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="75">
+        <f>(I37+K28+K26*120)</f>
+        <v>3396500000</v>
+      </c>
+      <c r="T31" t="s">
+        <v>82</v>
+      </c>
+      <c r="U31" s="76">
+        <f>K31/6000000</f>
+        <v>566.08333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H32" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="74">
+        <f>((M2+O2)*C20+(M3+O3)*D20+(M4+O4)*E20+(M5+O5)*F20)*5000</f>
+        <v>219000000</v>
+      </c>
+      <c r="T32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="74">
+        <f>((M6+O6)*B21+(M7+O7)*D21+(M8+O8)*E21+(M9+O9)*F21)*5000</f>
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+      <c r="U33">
+        <f>U26*0.1</f>
+        <v>0.41430804880583189</v>
+      </c>
+    </row>
+    <row r="34" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="74">
+        <f>((M10+O10)*B22+(M11+O11)*C22+(M12+O12)*E22+(M13+O13)*F22)*5000</f>
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H35" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="74">
+        <f>((M14+O14)*B23+(M15+O15)*C23+(M16+O16)*D23+(M17+O17)*F23)*5000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H36" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="74">
+        <f>((M18+O18)*B24+(M19+O19)*C24+(M20+O20)*D24+(M21+O21)*E24)*5000</f>
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="37" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H37" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="75">
+        <f>SUM(I26:I36)</f>
+        <v>690000000</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF21285-1765-4785-86EB-0D6D62A76163}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <mergeCells count="3">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H25:L25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,66 +8,222 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DDF60B-EB68-4123-9A2B-96E0BF5F4423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1BB131-0A76-4A10-B133-5C23DA29BF26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="PacketDelay" sheetId="4" r:id="rId2"/>
+    <sheet name="PacketDelay Ryan" sheetId="6" r:id="rId3"/>
+    <sheet name="Optimal" sheetId="8" r:id="rId4"/>
+    <sheet name="Working_EditThis" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Optimal!$J$2:$P$11</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Working_EditThis!$J$2:$P$11</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.00001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.00001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Optimal!$J$2:$P$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Working_EditThis!$J$2:$P$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Optimal!$R$2:$R$11</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Working_EditThis!$R$2:$R$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Optimal!$X$2:$X$11</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Working_EditThis!$X$2:$X$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">PacketDelay!$K$2:$L$21</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'PacketDelay Ryan'!$K$2:$L$21</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">PacketDelay!$R$2:$R$21</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'PacketDelay Ryan'!$R$2:$R$21</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">PacketDelay!$U$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'PacketDelay Ryan'!$U$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">PacketDelay!$U$3:$U$4</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'PacketDelay Ryan'!$U$3:$U$4</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">PacketDelay!$V$2:$V$22</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'PacketDelay Ryan'!$V$2:$V$22</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Optimal!$X$21</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">PacketDelay!$K$31</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'PacketDelay Ryan'!$K$31</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Working_EditThis!$X$21</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.00001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.0000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.0000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.00001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">integer</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Optimal!$Q$2:$Q$11</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Working_EditThis!$Q$2:$Q$11</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0.8</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0.8</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">PacketDelay!$Q$2:$Q$21</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'PacketDelay Ryan'!$Q$2:$Q$21</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">0.7</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0.7</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">0.5</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">0.5</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">415</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">3700000000</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">415</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -84,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="127">
   <si>
     <t>Source</t>
   </si>
@@ -342,16 +498,140 @@
   </si>
   <si>
     <t>Score:</t>
+  </si>
+  <si>
+    <t>Trenched</t>
+  </si>
+  <si>
+    <t>A&lt;-&gt;B</t>
+  </si>
+  <si>
+    <t>Trenching Cost</t>
+  </si>
+  <si>
+    <t>A&lt;-&gt;C</t>
+  </si>
+  <si>
+    <t>A&lt;-&gt;D</t>
+  </si>
+  <si>
+    <t>A&lt;-&gt;E</t>
+  </si>
+  <si>
+    <t>B&lt;-&gt;C</t>
+  </si>
+  <si>
+    <t>B&lt;-&gt;D</t>
+  </si>
+  <si>
+    <t>B&lt;-&gt;E</t>
+  </si>
+  <si>
+    <t>C&lt;-&gt;D</t>
+  </si>
+  <si>
+    <t>C&lt;-&gt;E</t>
+  </si>
+  <si>
+    <t>D&lt;-&gt;E</t>
+  </si>
+  <si>
+    <t>Owned Land Link Cost</t>
+  </si>
+  <si>
+    <t>21° 20' N</t>
+  </si>
+  <si>
+    <t>157° 55' W</t>
+  </si>
+  <si>
+    <t>38° 49' N</t>
+  </si>
+  <si>
+    <t>104° 43' W</t>
+  </si>
+  <si>
+    <t>25° 18' N</t>
+  </si>
+  <si>
+    <t>51° 31' E</t>
+  </si>
+  <si>
+    <t>36° 54' N</t>
+  </si>
+  <si>
+    <t>76° 12' W</t>
+  </si>
+  <si>
+    <t>49° 34' N</t>
+  </si>
+  <si>
+    <t>8° 28' E</t>
+  </si>
+  <si>
+    <t>See iSAT @ 100</t>
+  </si>
+  <si>
+    <t>See iSAT @ 21</t>
+  </si>
+  <si>
+    <t>Dprop_gnd</t>
+  </si>
+  <si>
+    <t>Dprop_sat</t>
+  </si>
+  <si>
+    <t>Percent Ground</t>
+  </si>
+  <si>
+    <t>B&lt;-&gt;A</t>
+  </si>
+  <si>
+    <t>D&lt;-&gt;B</t>
+  </si>
+  <si>
+    <t>E&lt;-&gt;B</t>
+  </si>
+  <si>
+    <t>E&lt;-&gt;D</t>
+  </si>
+  <si>
+    <t>Owned Link Cost:</t>
+  </si>
+  <si>
+    <t>Install Cost:</t>
+  </si>
+  <si>
+    <t>Leased Monthly Cost:</t>
+  </si>
+  <si>
+    <t>Owned Monthly Cost:</t>
+  </si>
+  <si>
+    <t>&lt;-- bidirectional links</t>
+  </si>
+  <si>
+    <t>Used/Owned:</t>
+  </si>
+  <si>
+    <t>Dprop_ground</t>
+  </si>
+  <si>
+    <t>Avg Delay</t>
+  </si>
+  <si>
+    <t>Weighted Delay:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +654,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -389,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -843,13 +1129,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1067,6 +1427,60 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB38BFA3-7B04-4BCC-A14E-F4FC4BDCFA79}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
@@ -1430,34 +1844,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="H1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="80"/>
-      <c r="O1" s="77" t="s">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="H1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
+      <c r="O1" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="84"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1725,48 +2139,48 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="H8" s="81" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="H8" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="H10" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="A10" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="H10" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +2196,7 @@
       <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="84"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="50" t="s">
         <v>2</v>
       </c>
@@ -2019,22 +2433,22 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="H17" s="81" t="s">
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="H17" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="45"/>
@@ -2192,12 +2606,12 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
@@ -2226,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A0AE5-F8AA-4CEF-B4FC-912B3D42E77B}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2676,7 @@
     <col min="31" max="32" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="53" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="53" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
@@ -3609,16 +4023,16 @@
       <c r="AF17" s="57"/>
     </row>
     <row r="18" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
+      <c r="A18" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="55"/>
       <c r="H18" s="61" t="s">
         <v>37</v>
@@ -3685,7 +4099,7 @@
       <c r="AF18" s="57"/>
     </row>
     <row r="19" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -4118,13 +4532,13 @@
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
       <c r="M25" s="57"/>
       <c r="N25" s="57"/>
       <c r="O25" s="57"/>
@@ -4341,4 +4755,7559 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DB1F4E-F21C-41E1-967C-33228DEFDE08}">
+  <dimension ref="A1:AF64"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="53" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="H2" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="70">
+        <v>0</v>
+      </c>
+      <c r="K2" s="70">
+        <v>0</v>
+      </c>
+      <c r="L2" s="70">
+        <v>0</v>
+      </c>
+      <c r="M2" s="70">
+        <v>0</v>
+      </c>
+      <c r="N2" s="70">
+        <v>0</v>
+      </c>
+      <c r="O2" s="70">
+        <v>0</v>
+      </c>
+      <c r="P2" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="71">
+        <v>200</v>
+      </c>
+      <c r="R2" s="71">
+        <f t="array" ref="R2">SUMPRODUCT(J2:P2,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S2" s="58">
+        <f>Q2/(R2-Q2)</f>
+        <v>0.80853816300129366</v>
+      </c>
+      <c r="T2" s="59">
+        <f>1/(R2-Q2)</f>
+        <v>4.0426908150064684E-3</v>
+      </c>
+      <c r="U2" s="60">
+        <f>Q2/R2</f>
+        <v>0.44706723891273248</v>
+      </c>
+      <c r="V2" s="57">
+        <f>IF(Q2=R2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="57">
+        <f>Q2/$Q$22</f>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="H3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="62">
+        <v>1</v>
+      </c>
+      <c r="K3" s="62">
+        <v>0</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0</v>
+      </c>
+      <c r="M3" s="62">
+        <v>2</v>
+      </c>
+      <c r="N3" s="62">
+        <v>3</v>
+      </c>
+      <c r="O3" s="62">
+        <v>0</v>
+      </c>
+      <c r="P3" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>2500</v>
+      </c>
+      <c r="R3" s="71">
+        <f t="array" ref="R3">SUMPRODUCT(J3:P3,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>5103.68</v>
+      </c>
+      <c r="S3" s="61">
+        <f t="shared" ref="S3:S22" si="0">Q3/(R3-Q3)</f>
+        <v>0.96017943833343566</v>
+      </c>
+      <c r="T3" s="62">
+        <f>1/(R3-Q3)</f>
+        <v>3.8407177533337426E-4</v>
+      </c>
+      <c r="U3" s="63">
+        <f t="shared" ref="U3:U22" si="1">Q3/R3</f>
+        <v>0.48984262336196621</v>
+      </c>
+      <c r="V3" s="57">
+        <f t="shared" ref="V3:V22" si="2">IF(Q3=R3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="57">
+        <f t="shared" ref="W3:W21" si="3">Q3/$Q$22</f>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>200</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>250</v>
+      </c>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="H4" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="L4" s="62">
+        <v>1</v>
+      </c>
+      <c r="M4" s="62">
+        <v>1</v>
+      </c>
+      <c r="N4" s="62">
+        <v>0</v>
+      </c>
+      <c r="O4" s="62">
+        <v>1</v>
+      </c>
+      <c r="P4" s="62">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R4" s="71">
+        <f t="array" ref="R4">SUMPRODUCT(J4:P4,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>2144.4000000000005</v>
+      </c>
+      <c r="S4" s="61">
+        <f t="shared" si="0"/>
+        <v>0.8738203425375739</v>
+      </c>
+      <c r="T4" s="62">
+        <f t="shared" ref="T4:T22" si="4">1/(R4-Q4)</f>
+        <v>8.738203425375738E-4</v>
+      </c>
+      <c r="U4" s="63">
+        <f t="shared" si="1"/>
+        <v>0.46633090841260949</v>
+      </c>
+      <c r="V4" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="57">
+        <f t="shared" si="3"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>250</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>500</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>250</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="H5" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="62">
+        <v>0</v>
+      </c>
+      <c r="K5" s="62">
+        <v>0</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0</v>
+      </c>
+      <c r="M5" s="62">
+        <v>0</v>
+      </c>
+      <c r="N5" s="62">
+        <v>0</v>
+      </c>
+      <c r="O5" s="62">
+        <v>2</v>
+      </c>
+      <c r="P5" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>250</v>
+      </c>
+      <c r="R5" s="71">
+        <f t="array" ref="R5">SUMPRODUCT(J5:P5,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S5" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T5" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U5" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V5" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="H6" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
+        <v>0</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0</v>
+      </c>
+      <c r="M6" s="62">
+        <v>0</v>
+      </c>
+      <c r="N6" s="62">
+        <v>0</v>
+      </c>
+      <c r="O6" s="62">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>250</v>
+      </c>
+      <c r="R6" s="71">
+        <f t="array" ref="R6">SUMPRODUCT(J6:P6,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S6" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T6" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U6" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+    </row>
+    <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="57"/>
+      <c r="H7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
+        <v>0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0</v>
+      </c>
+      <c r="M7" s="62">
+        <v>0</v>
+      </c>
+      <c r="N7" s="62">
+        <v>0</v>
+      </c>
+      <c r="O7" s="62">
+        <v>3</v>
+      </c>
+      <c r="P7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>500</v>
+      </c>
+      <c r="R7" s="71">
+        <f t="array" ref="R7">SUMPRODUCT(J7:P7,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S7" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T7" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U7" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V7" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>250</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="62">
+        <v>0</v>
+      </c>
+      <c r="K8" s="62">
+        <v>0</v>
+      </c>
+      <c r="L8" s="62">
+        <v>0</v>
+      </c>
+      <c r="M8" s="62">
+        <v>0</v>
+      </c>
+      <c r="N8" s="62">
+        <v>0</v>
+      </c>
+      <c r="O8" s="62">
+        <v>0</v>
+      </c>
+      <c r="P8" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>250</v>
+      </c>
+      <c r="R8" s="71">
+        <f t="array" ref="R8">SUMPRODUCT(J8:P8,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S8" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T8" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U8" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V8" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="62">
+        <v>0</v>
+      </c>
+      <c r="K9" s="62">
+        <v>0</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0</v>
+      </c>
+      <c r="M9" s="62">
+        <v>0</v>
+      </c>
+      <c r="N9" s="62">
+        <v>0</v>
+      </c>
+      <c r="O9" s="62">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>50</v>
+      </c>
+      <c r="R9" s="71">
+        <f t="array" ref="R9">SUMPRODUCT(J9:P9,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>223.68</v>
+      </c>
+      <c r="S9" s="61">
+        <f t="shared" si="0"/>
+        <v>0.28788576692768308</v>
+      </c>
+      <c r="T9" s="62">
+        <f t="shared" si="4"/>
+        <v>5.7577153385536617E-3</v>
+      </c>
+      <c r="U9" s="63">
+        <f t="shared" si="1"/>
+        <v>0.22353361945636624</v>
+      </c>
+      <c r="V9" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577319E-3</v>
+      </c>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0</v>
+      </c>
+      <c r="K10" s="62">
+        <v>0</v>
+      </c>
+      <c r="L10" s="62">
+        <v>0</v>
+      </c>
+      <c r="M10" s="62">
+        <v>0</v>
+      </c>
+      <c r="N10" s="62">
+        <v>0</v>
+      </c>
+      <c r="O10" s="62">
+        <v>2</v>
+      </c>
+      <c r="P10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>250</v>
+      </c>
+      <c r="R10" s="71">
+        <f t="array" ref="R10">SUMPRODUCT(J10:P10,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S10" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T10" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U10" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V10" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="54">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="62">
+        <v>0</v>
+      </c>
+      <c r="K11" s="62">
+        <v>0</v>
+      </c>
+      <c r="L11" s="62">
+        <v>0</v>
+      </c>
+      <c r="M11" s="62">
+        <v>0</v>
+      </c>
+      <c r="N11" s="62">
+        <v>0</v>
+      </c>
+      <c r="O11" s="62">
+        <v>3</v>
+      </c>
+      <c r="P11" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>500</v>
+      </c>
+      <c r="R11" s="71">
+        <f t="array" ref="R11">SUMPRODUCT(J11:P11,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S11" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T11" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U11" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V11" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="54">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>15.52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="62">
+        <v>0</v>
+      </c>
+      <c r="K12" s="62">
+        <v>0</v>
+      </c>
+      <c r="L12" s="62">
+        <v>0</v>
+      </c>
+      <c r="M12" s="62">
+        <v>0</v>
+      </c>
+      <c r="N12" s="62">
+        <v>0</v>
+      </c>
+      <c r="O12" s="62">
+        <v>3</v>
+      </c>
+      <c r="P12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="71">
+        <v>500</v>
+      </c>
+      <c r="R12" s="71">
+        <f t="array" ref="R12">SUMPRODUCT(J12:P12,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S12" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T12" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U12" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V12" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="54">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>15.52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="62">
+        <v>0</v>
+      </c>
+      <c r="K13" s="62">
+        <v>0</v>
+      </c>
+      <c r="L13" s="62">
+        <v>0</v>
+      </c>
+      <c r="M13" s="62">
+        <v>0</v>
+      </c>
+      <c r="N13" s="62">
+        <v>0</v>
+      </c>
+      <c r="O13" s="62">
+        <v>0</v>
+      </c>
+      <c r="P13" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="71">
+        <v>250</v>
+      </c>
+      <c r="R13" s="71">
+        <f t="array" ref="R13">SUMPRODUCT(J13:P13,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S13" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T13" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U13" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V13" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="62">
+        <v>0</v>
+      </c>
+      <c r="K14" s="62">
+        <v>0</v>
+      </c>
+      <c r="L14" s="62">
+        <v>0</v>
+      </c>
+      <c r="M14" s="62">
+        <v>0</v>
+      </c>
+      <c r="N14" s="62">
+        <v>0</v>
+      </c>
+      <c r="O14" s="62">
+        <v>0</v>
+      </c>
+      <c r="P14" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="71">
+        <v>250</v>
+      </c>
+      <c r="R14" s="71">
+        <f t="array" ref="R14">SUMPRODUCT(J14:P14,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S14" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T14" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U14" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V14" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="62">
+        <v>0</v>
+      </c>
+      <c r="K15" s="62">
+        <v>0</v>
+      </c>
+      <c r="L15" s="62">
+        <v>0</v>
+      </c>
+      <c r="M15" s="62">
+        <v>0</v>
+      </c>
+      <c r="N15" s="62">
+        <v>0</v>
+      </c>
+      <c r="O15" s="62">
+        <v>1</v>
+      </c>
+      <c r="P15" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="71">
+        <v>500</v>
+      </c>
+      <c r="R15" s="71">
+        <f t="array" ref="R15">SUMPRODUCT(J15:P15,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S15" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T15" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U15" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V15" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D16" s="57"/>
+      <c r="H16" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="62">
+        <v>0</v>
+      </c>
+      <c r="K16" s="62">
+        <v>0</v>
+      </c>
+      <c r="L16" s="62">
+        <v>0</v>
+      </c>
+      <c r="M16" s="62">
+        <v>0</v>
+      </c>
+      <c r="N16" s="62">
+        <v>0</v>
+      </c>
+      <c r="O16" s="62">
+        <v>3</v>
+      </c>
+      <c r="P16" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="71">
+        <v>500</v>
+      </c>
+      <c r="R16" s="71">
+        <f t="array" ref="R16">SUMPRODUCT(J16:P16,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>671.04</v>
+      </c>
+      <c r="S16" s="61">
+        <f t="shared" si="0"/>
+        <v>2.9232927970065488</v>
+      </c>
+      <c r="T16" s="62">
+        <f t="shared" si="4"/>
+        <v>5.8465855940130979E-3</v>
+      </c>
+      <c r="U16" s="63">
+        <f t="shared" si="1"/>
+        <v>0.74511206485455417</v>
+      </c>
+      <c r="V16" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+    </row>
+    <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="57"/>
+      <c r="H17" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="62">
+        <v>0</v>
+      </c>
+      <c r="K17" s="62">
+        <v>0</v>
+      </c>
+      <c r="L17" s="62">
+        <v>0</v>
+      </c>
+      <c r="M17" s="62">
+        <v>0</v>
+      </c>
+      <c r="N17" s="62">
+        <v>0</v>
+      </c>
+      <c r="O17" s="62">
+        <v>0</v>
+      </c>
+      <c r="P17" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="71">
+        <v>250</v>
+      </c>
+      <c r="R17" s="71">
+        <f t="array" ref="R17">SUMPRODUCT(J17:P17,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S17" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T17" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U17" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V17" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+    </row>
+    <row r="18" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="62">
+        <v>0</v>
+      </c>
+      <c r="K18" s="62">
+        <v>0</v>
+      </c>
+      <c r="L18" s="62">
+        <v>0</v>
+      </c>
+      <c r="M18" s="62">
+        <v>0</v>
+      </c>
+      <c r="N18" s="62">
+        <v>0</v>
+      </c>
+      <c r="O18" s="62">
+        <v>2</v>
+      </c>
+      <c r="P18" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="71">
+        <v>250</v>
+      </c>
+      <c r="R18" s="71">
+        <f t="array" ref="R18">SUMPRODUCT(J18:P18,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S18" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T18" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U18" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V18" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+    </row>
+    <row r="19" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
+      <c r="B19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="62">
+        <v>0</v>
+      </c>
+      <c r="K19" s="62">
+        <v>0</v>
+      </c>
+      <c r="L19" s="62">
+        <v>0</v>
+      </c>
+      <c r="M19" s="62">
+        <v>0</v>
+      </c>
+      <c r="N19" s="62">
+        <v>0</v>
+      </c>
+      <c r="O19" s="62">
+        <v>1</v>
+      </c>
+      <c r="P19" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>200</v>
+      </c>
+      <c r="R19" s="71">
+        <f t="array" ref="R19">SUMPRODUCT(J19:P19,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>223.68</v>
+      </c>
+      <c r="S19" s="61">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459438</v>
+      </c>
+      <c r="T19" s="62">
+        <f t="shared" si="4"/>
+        <v>4.2229729729729715E-2</v>
+      </c>
+      <c r="U19" s="63">
+        <f t="shared" si="1"/>
+        <v>0.89413447782546496</v>
+      </c>
+      <c r="V19" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="57">
+        <f t="shared" si="3"/>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D20" s="8">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="77"/>
+      <c r="H20" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="62">
+        <v>0</v>
+      </c>
+      <c r="K20" s="62">
+        <v>0</v>
+      </c>
+      <c r="L20" s="62">
+        <v>0</v>
+      </c>
+      <c r="M20" s="62">
+        <v>0</v>
+      </c>
+      <c r="N20" s="62">
+        <v>0</v>
+      </c>
+      <c r="O20" s="62">
+        <v>2</v>
+      </c>
+      <c r="P20" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="71">
+        <v>250</v>
+      </c>
+      <c r="R20" s="71">
+        <f t="array" ref="R20">SUMPRODUCT(J20:P20,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S20" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T20" s="62">
+        <f t="shared" si="4"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="U20" s="63">
+        <f t="shared" si="1"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="V20" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8200</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="62">
+        <v>0</v>
+      </c>
+      <c r="K21" s="62">
+        <v>0</v>
+      </c>
+      <c r="L21" s="62">
+        <v>0</v>
+      </c>
+      <c r="M21" s="62">
+        <v>0</v>
+      </c>
+      <c r="N21" s="62">
+        <v>0</v>
+      </c>
+      <c r="O21" s="62">
+        <v>1</v>
+      </c>
+      <c r="P21" s="62">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R21" s="71">
+        <f t="array" ref="R21">SUMPRODUCT(J21:P21,TRANSPOSE($Z$10:$Z$16))*1000000/20000</f>
+        <v>1118.4000000000001</v>
+      </c>
+      <c r="S21" s="61">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459403</v>
+      </c>
+      <c r="T21" s="62">
+        <f t="shared" si="4"/>
+        <v>8.4459459459459395E-3</v>
+      </c>
+      <c r="U21" s="63">
+        <f t="shared" si="1"/>
+        <v>0.89413447782546485</v>
+      </c>
+      <c r="V21" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="57">
+        <f t="shared" si="3"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="72">
+        <f>SUM(Q2:Q21)</f>
+        <v>9700</v>
+      </c>
+      <c r="R22" s="72">
+        <f>SUM(R2:R21)</f>
+        <v>16642.64000000001</v>
+      </c>
+      <c r="S22" s="64">
+        <f t="shared" si="0"/>
+        <v>1.3971630388440111</v>
+      </c>
+      <c r="T22" s="65">
+        <f t="shared" si="4"/>
+        <v>1.440374266849496E-4</v>
+      </c>
+      <c r="U22" s="66">
+        <f t="shared" si="1"/>
+        <v>0.58284022246470479</v>
+      </c>
+      <c r="V22" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA22" s="57">
+        <f>IF(OR(OR(M2&gt;0, O2&gt;0),OR(M6&gt;0, O6&gt;0)), 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="57">
+        <f>SUM(J2:J21)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="57">
+        <f t="shared" ref="K23:P23" si="5">SUM(K2:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="57">
+        <f>SUM(L2:L21)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="57">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N23" s="57">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O23" s="57">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="P23" s="57">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA23" s="57">
+        <f>IF(OR(OR(M3&gt;0, O3&gt;0),OR(M10&gt;0, O10&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8200</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="77"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA24" s="57">
+        <f>IF(OR(OR(M4&gt;0, O4&gt;0),OR(M14&gt;0, O14&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+    </row>
+    <row r="25" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="U25" s="57">
+        <f>SUMPRODUCT(W2:W21,T2:T21)</f>
+        <v>4.7256975266472736E-3</v>
+      </c>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA25" s="57">
+        <f>IF(OR(OR(M5&gt;0, O5&gt;0),OR(M18&gt;0, O18&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="74">
+        <f>IF(SUM(J2:J21)&lt;4, 0, SUM(J2:J21)*60000000)+SUM(K2:K21)*40000000</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="74">
+        <f>J23*8000+K23*8000+L23*500000+M23*5000+N23*700000+O23*5000+P23*500000</f>
+        <v>14743000</v>
+      </c>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" s="57">
+        <f>U25*1000</f>
+        <v>4.7256975266472736</v>
+      </c>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA26" s="57">
+        <f>IF(OR(OR(M7&gt;0, O7&gt;0),OR(M11&gt;0, O11&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+    </row>
+    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="74">
+        <f>IF(AND(M2=0, O2=0), 0, C20*10000)+IF( AND(M3=0, O3=0), 0, D20*10000)+IF(AND(M4=0, O4=0), 0, E20*10000)+IF(AND(M5=0, O5=0), 0, F20*10000)</f>
+        <v>339000000</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="Z27" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA27" s="57">
+        <f>IF(OR(OR(M8&gt;0, O8&gt;0),OR(M15&gt;0, O15&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>21.33</v>
+      </c>
+      <c r="E28">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="74">
+        <f>IF(AND(M6=0, O6=0), 0, B21*10000)+IF(AND(M7=0, O7=0),0, D21*10000)+IF(AND(M8=0, O8=0), 0, E21*10000)+IF(AND(M9=0, O9=0), 0, F21*10000)</f>
+        <v>125000000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="75">
+        <f>SUM(J2:P21)*20000</f>
+        <v>1120000</v>
+      </c>
+      <c r="Z28" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA28" s="57">
+        <f>IF(OR(OR(M9&gt;0, O9&gt;0),OR(M19&gt;0, O19&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>38.82</v>
+      </c>
+      <c r="E29">
+        <v>104.72</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="74">
+        <f>IF(AND(M10=0, O10=0), 0, B22*10000)+IF(AND(M11=0, O11=0),0, C22*10000)+IF(AND(M12=0, O12=0), 0, E22*10000)+IF(AND(M13=0, O13=0), 0, F22*10000)</f>
+        <v>377000000</v>
+      </c>
+      <c r="Z29" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA29" s="57">
+        <f>IF(OR(OR(M12&gt;0, O12&gt;0),OR(M16&gt;0, O16&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>25.3</v>
+      </c>
+      <c r="E30">
+        <v>51.52</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="74">
+        <f>IF(AND(M14=0, O14=0), 0, B23*10000)+IF(AND(M15=0, O15=0),0, C23*10000)+IF(AND(M16=0, O16=0), 0, D23*10000)+IF(AND(M17=0, O17=0), 0, F23*10000)</f>
+        <v>137000000</v>
+      </c>
+      <c r="T30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z30" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA30" s="57">
+        <f>IF(OR(OR(M13&gt;0, O13&gt;0),OR(M20&gt;0, O20&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>36.9</v>
+      </c>
+      <c r="E31">
+        <v>76.2</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="74">
+        <f>IF(AND(M18=0, O18=0), 0, B24*10000)+IF(AND(M19=0, O19=0),0, C24*10000)+IF(AND(M20=0, O20=0), 0, D24*10000)+IF(AND(M21=0, O21=0), 0, E24*10000)</f>
+        <v>314000000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="75">
+        <f>(I37+K28+K26*120)</f>
+        <v>4504780000</v>
+      </c>
+      <c r="T31" t="s">
+        <v>82</v>
+      </c>
+      <c r="U31" s="76">
+        <f>K31/6000000</f>
+        <v>750.79666666666662</v>
+      </c>
+      <c r="Z31" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA31" s="57">
+        <f>IF(OR(OR(M17&gt;0, O17&gt;0),OR(M21&gt;0, O21&gt;0)), 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>49.57</v>
+      </c>
+      <c r="E32">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="74">
+        <f>((M2+O2)*C20+(M3+O3)*D20+(M4+O4)*E20+(M5+O5)*F20)*5000</f>
+        <v>339000000</v>
+      </c>
+      <c r="T32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="74">
+        <f>((M6+O6)*B21+(M7+O7)*D21+(M8+O8)*E21+(M9+O9)*F21)*5000</f>
+        <v>187500000</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+      <c r="U33">
+        <f>U26*0.1</f>
+        <v>0.47256975266472739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="74">
+        <f>((M10+O10)*B22+(M11+O11)*C22+(M12+O12)*E22+(M13+O13)*F22)*5000</f>
+        <v>495500000</v>
+      </c>
+      <c r="T34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="74">
+        <f>((M14+O14)*B23+(M15+O15)*C23+(M16+O16)*D23+(M17+O17)*F23)*5000</f>
+        <v>180500000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="74">
+        <f>((M18+O18)*B24+(M19+O19)*C24+(M20+O20)*D24+(M21+O21)*E24)*5000</f>
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="75">
+        <f>SUM(I26:I36)</f>
+        <v>2734500000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H43" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="78">
+        <f>IF(AA22=1, C20*10000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H44" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="78">
+        <f>IF(AA23=1, D20*10000,0)</f>
+        <v>140000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H45" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="78">
+        <f>IF(AA24=1, E20*10000,0)</f>
+        <v>79000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H46" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="78">
+        <f>IF(AA25=1, F20*10000,0)</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H47" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="78">
+        <f>IF(AA26=1, B21*10000,0)</f>
+        <v>54000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H48" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="78">
+        <f>IF(AA27=1, D21*10000,0)</f>
+        <v>125000000</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="78">
+        <f>IF(AA28=1, F21*10000,0)</f>
+        <v>82000000</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="78">
+        <f>IF(AA29=1, E22*10000,0)</f>
+        <v>112000000</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="78">
+        <f>IF(AA30=1, F22*10000,0)</f>
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="78">
+        <f>IF(AA31=1, F23*10000,0)</f>
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55">
+        <f>(M2+M6)*C20*5000 + (O2+O6)*C20*2000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56">
+        <f>(M3+M10)*D20*5000 + (O3+O10)*D20*2000</f>
+        <v>196000000</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57">
+        <f>(M4+M14)*E20*5000 + (O4+O14)*E20*2000</f>
+        <v>55300000</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58">
+        <f>(M5+M18)*F20*5000 + (O5+O18)*F20*2000</f>
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59">
+        <f>(M7+M11)*B21*5000 + (O7+O11)*B21*2000</f>
+        <v>64800000</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60">
+        <f>(M8+M15)*D21*5000 + (O8+O15)*D21*2000</f>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61">
+        <f>(M9+M19)*F21*5000 + (O9+O19)*F21*2000</f>
+        <v>16400000</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62">
+        <f>(M12+M16)*E22*5000 + (O12+O16)*E22*2000</f>
+        <v>134400000</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63">
+        <f>(M13+M20)*F22*5000 + (O13+O20)*F22*2000</f>
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64">
+        <f>(M17+M21)*F23*5000 + (O17+O21)*F23*2000</f>
+        <v>13200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H25:L25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025FA4D1-28BF-4BFA-BF7E-C5DDB25D9CE5}">
+  <dimension ref="A1:AJ51"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4" customWidth="1"/>
+    <col min="28" max="28" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="53" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="H2" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="62">
+        <v>0</v>
+      </c>
+      <c r="K2" s="62">
+        <v>0</v>
+      </c>
+      <c r="L2" s="62">
+        <v>0</v>
+      </c>
+      <c r="M2" s="62">
+        <v>3</v>
+      </c>
+      <c r="N2" s="62">
+        <v>0</v>
+      </c>
+      <c r="O2" s="62">
+        <v>1</v>
+      </c>
+      <c r="P2" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="71">
+        <v>2500</v>
+      </c>
+      <c r="R2" s="71">
+        <f t="array" ref="R2">SUMPRODUCT(J2:P2,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="S2" s="61">
+        <f>Q2/(R2-Q2)</f>
+        <v>48.37461300309613</v>
+      </c>
+      <c r="T2" s="62">
+        <f>D20*1000/(3*10^8)</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="U2" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V2" s="62">
+        <f t="array" ref="V2">SUMPRODUCT(M2:P2, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R2</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="62">
+        <f>1/(R2-Q2)+V2*T2+(1-V2)*U2</f>
+        <v>6.6016511867905123E-2</v>
+      </c>
+      <c r="X2" s="63">
+        <f t="shared" ref="X2:X12" si="0">Q2/R2</f>
+        <v>0.97974667669927273</v>
+      </c>
+      <c r="Y2" s="57">
+        <f t="shared" ref="Y2:Y12" si="1">IF(Q2=R2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="57">
+        <f>Q2/($Q$12+$J$51)</f>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="H3" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="62">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62">
+        <v>0</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0</v>
+      </c>
+      <c r="M3" s="62">
+        <v>0</v>
+      </c>
+      <c r="N3" s="62">
+        <v>0</v>
+      </c>
+      <c r="O3" s="62">
+        <v>0</v>
+      </c>
+      <c r="P3" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R3" s="71">
+        <f t="array" ref="R3">SUMPRODUCT(J3:P3,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>2000</v>
+      </c>
+      <c r="S3" s="61">
+        <f t="shared" ref="S3:S12" si="2">Q3/(R3-Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="62">
+        <f>E20*1000/(3*10^8)</f>
+        <v>2.6333333333333334E-2</v>
+      </c>
+      <c r="U3" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V3" s="62">
+        <f t="array" ref="V3">SUMPRODUCT(M3:P3, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="62">
+        <f t="shared" ref="W3:W11" si="3">1/(R3-Q3)+V3*T3+(1-V3)*U3</f>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="X3" s="63">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y3" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="57">
+        <f t="shared" ref="Z3:Z11" si="4">Q3/($Q$12+$J$51)</f>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>250</v>
+      </c>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="H4" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="L4" s="62">
+        <v>0</v>
+      </c>
+      <c r="M4" s="62">
+        <v>0</v>
+      </c>
+      <c r="N4" s="62">
+        <v>0</v>
+      </c>
+      <c r="O4" s="62">
+        <v>0</v>
+      </c>
+      <c r="P4" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>250</v>
+      </c>
+      <c r="R4" s="71">
+        <f t="array" ref="R4">SUMPRODUCT(J4:P4,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S4" s="61">
+        <f t="shared" si="2"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T4" s="62">
+        <f>F20*1000/(3*10^8)</f>
+        <v>0.04</v>
+      </c>
+      <c r="U4" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V4" s="62">
+        <f t="array" ref="V4">SUMPRODUCT(M4:P4, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R4</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="62">
+        <f t="shared" si="3"/>
+        <v>4.5066882853668423E-2</v>
+      </c>
+      <c r="X4" s="63">
+        <f t="shared" si="0"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="Y4" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="57">
+        <f t="shared" si="4"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>250</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>500</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="H5" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="62">
+        <v>0</v>
+      </c>
+      <c r="K5" s="62">
+        <v>0</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0</v>
+      </c>
+      <c r="M5" s="62">
+        <v>0</v>
+      </c>
+      <c r="N5" s="62">
+        <v>0</v>
+      </c>
+      <c r="O5" s="62">
+        <v>2</v>
+      </c>
+      <c r="P5" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>250</v>
+      </c>
+      <c r="R5" s="71">
+        <f t="array" ref="R5">SUMPRODUCT(J5:P5,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S5" s="61">
+        <f t="shared" si="2"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T5" s="62">
+        <f>B21*1000/(3*10^8)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U5" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V5" s="62">
+        <f t="array" ref="V5">SUMPRODUCT(M5:P5, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R5</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="62">
+        <f t="shared" si="3"/>
+        <v>2.3066882853668421E-2</v>
+      </c>
+      <c r="X5" s="63">
+        <f t="shared" si="0"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="Y5" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="57">
+        <f t="shared" si="4"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="H6" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
+        <v>0</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0</v>
+      </c>
+      <c r="M6" s="62">
+        <v>2</v>
+      </c>
+      <c r="N6" s="62">
+        <v>0</v>
+      </c>
+      <c r="O6" s="62">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>500</v>
+      </c>
+      <c r="R6" s="71">
+        <f t="array" ref="R6">SUMPRODUCT(J6:P6,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>1552</v>
+      </c>
+      <c r="S6" s="61">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T6" s="62">
+        <f>D21*1000/(3*10^8)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U6" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V6" s="62">
+        <f t="array" ref="V6">SUMPRODUCT(M6:P6, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R6</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="62">
+        <f t="shared" si="3"/>
+        <v>4.2617237008871989E-2</v>
+      </c>
+      <c r="X6" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="Y6" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="57">
+        <f t="shared" si="4"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+    </row>
+    <row r="7" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="57"/>
+      <c r="H7" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
+        <v>0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0</v>
+      </c>
+      <c r="M7" s="62">
+        <v>2</v>
+      </c>
+      <c r="N7" s="62">
+        <v>0</v>
+      </c>
+      <c r="O7" s="62">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>500</v>
+      </c>
+      <c r="R7" s="71">
+        <f t="array" ref="R7">SUMPRODUCT(J7:P7,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>1552</v>
+      </c>
+      <c r="S7" s="61">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T7" s="62">
+        <f>E22*1000/(3*10^8)</f>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="U7" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V7" s="62">
+        <f t="array" ref="V7">SUMPRODUCT(M7:P7, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R7</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="62">
+        <f t="shared" si="3"/>
+        <v>3.8283903675538661E-2</v>
+      </c>
+      <c r="X7" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="Y7" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="57">
+        <f t="shared" si="4"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>250</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="62">
+        <v>0</v>
+      </c>
+      <c r="K8" s="62">
+        <v>0</v>
+      </c>
+      <c r="L8" s="62">
+        <v>0</v>
+      </c>
+      <c r="M8" s="62">
+        <v>1</v>
+      </c>
+      <c r="N8" s="62">
+        <v>0</v>
+      </c>
+      <c r="O8" s="62">
+        <v>0</v>
+      </c>
+      <c r="P8" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>250</v>
+      </c>
+      <c r="R8" s="71">
+        <f t="array" ref="R8">SUMPRODUCT(J8:P8,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S8" s="61">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T8" s="62">
+        <f>F22*1000/(3*10^8)</f>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="U8" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V8" s="62">
+        <f t="array" ref="V8">SUMPRODUCT(M8:P8, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R8</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="62">
+        <f t="shared" si="3"/>
+        <v>1.723447401774398E-2</v>
+      </c>
+      <c r="X8" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="Y8" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="57">
+        <f t="shared" si="4"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="62">
+        <v>0</v>
+      </c>
+      <c r="K9" s="62">
+        <v>0</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0</v>
+      </c>
+      <c r="M9" s="62">
+        <v>1</v>
+      </c>
+      <c r="N9" s="62">
+        <v>0</v>
+      </c>
+      <c r="O9" s="62">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>500</v>
+      </c>
+      <c r="R9" s="71">
+        <f t="array" ref="R9">SUMPRODUCT(J9:P9,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S9" s="61">
+        <f t="shared" si="2"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="T9" s="62">
+        <f>C23*1000/(3*10^8)</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="U9" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V9" s="62">
+        <f t="array" ref="V9">SUMPRODUCT(M9:P9, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R9</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="62">
+        <f t="shared" si="3"/>
+        <v>1.1956521739130435E-2</v>
+      </c>
+      <c r="X9" s="63">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="Y9" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="57">
+        <f t="shared" si="4"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0</v>
+      </c>
+      <c r="K10" s="62">
+        <v>0</v>
+      </c>
+      <c r="L10" s="62">
+        <v>1</v>
+      </c>
+      <c r="M10" s="62">
+        <v>0</v>
+      </c>
+      <c r="N10" s="62">
+        <v>0</v>
+      </c>
+      <c r="O10" s="62">
+        <v>0</v>
+      </c>
+      <c r="P10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>200</v>
+      </c>
+      <c r="R10" s="71">
+        <f t="array" ref="R10">SUMPRODUCT(J10:P10,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>250</v>
+      </c>
+      <c r="S10" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T10" s="62">
+        <f>C24*1000/(3*10^8)</f>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="U10" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V10" s="62">
+        <f t="array" ref="V10">SUMPRODUCT(M10:P10, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="62">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X10" s="63">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y10" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="57">
+        <f t="shared" si="4"/>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="54">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="62">
+        <v>0</v>
+      </c>
+      <c r="K11" s="62">
+        <v>0</v>
+      </c>
+      <c r="L11" s="62">
+        <v>0</v>
+      </c>
+      <c r="M11" s="62">
+        <v>2</v>
+      </c>
+      <c r="N11" s="62">
+        <v>0</v>
+      </c>
+      <c r="O11" s="62">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R11" s="71">
+        <f t="array" ref="R11">SUMPRODUCT(J11:P11,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>1552</v>
+      </c>
+      <c r="S11" s="61">
+        <f t="shared" si="2"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="T11" s="62">
+        <f>E24*1000/(3*10^8)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U11" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V11" s="62">
+        <f t="array" ref="V11">SUMPRODUCT(M11:P11, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R11</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="62">
+        <f t="shared" si="3"/>
+        <v>2.3811594202898551E-2</v>
+      </c>
+      <c r="X11" s="63">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="Y11" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="57">
+        <f t="shared" si="4"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="54">
+        <v>20</v>
+      </c>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>15.52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="72">
+        <f>SUM(Q2:Q11)</f>
+        <v>6950</v>
+      </c>
+      <c r="R12" s="72">
+        <f>SUM(R2:R11)</f>
+        <v>11904.4</v>
+      </c>
+      <c r="S12" s="64">
+        <f t="shared" si="2"/>
+        <v>1.4027934765057324</v>
+      </c>
+      <c r="T12" s="62"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="65">
+        <f>1/(R12-Q12)</f>
+        <v>2.0184078798643631E-4</v>
+      </c>
+      <c r="X12" s="66">
+        <f t="shared" si="0"/>
+        <v>0.58381774805954101</v>
+      </c>
+      <c r="Y12" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="54">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>15.52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="57">
+        <f t="shared" ref="J13:P13" si="5">SUM(J2:J11)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="57">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="57">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P13" s="57">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="X15" s="57">
+        <f>SUMPRODUCT(Z2:Z11,W2:W11)+SUMPRODUCT(P41:P50,R41:R50)</f>
+        <v>0.31721022682936489</v>
+      </c>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC15" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D16" s="57"/>
+      <c r="H16" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="74">
+        <f>SUM(J2:J11)*60000000*0+SUM(K2:K11)*40000000</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="74">
+        <f>J13*8000+K13*8000+L13*500000+M13*5000+N13*700000+O13*5000+P13*500000</f>
+        <v>1586000</v>
+      </c>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="57">
+        <f>X15*1000</f>
+        <v>317.2102268293649</v>
+      </c>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="74"/>
+      <c r="L17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+    </row>
+    <row r="18" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="55"/>
+      <c r="I18" s="74"/>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="75">
+        <f>SUM(J2:P11)*20000</f>
+        <v>380000</v>
+      </c>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+    </row>
+    <row r="19" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
+      <c r="B19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="74"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D20" s="8">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="74"/>
+      <c r="W20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8200</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="74"/>
+      <c r="K21" s="75"/>
+      <c r="W21" t="s">
+        <v>82</v>
+      </c>
+      <c r="X21" s="96">
+        <f>L35/6000000</f>
+        <v>197.59333333333333</v>
+      </c>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="W22" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="L23" s="95"/>
+      <c r="W23" t="s">
+        <v>126</v>
+      </c>
+      <c r="X23">
+        <f>X16*0.1</f>
+        <v>31.721022682936493</v>
+      </c>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8200</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="75">
+        <f>N13*700000+P13*500000</f>
+        <v>1000000</v>
+      </c>
+      <c r="W24" t="s">
+        <v>85</v>
+      </c>
+      <c r="X24" s="76">
+        <f>SUM(X21:X23)</f>
+        <v>229.31435601626981</v>
+      </c>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="57">
+        <f>IF(NOT((M2+O2)=0), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="78">
+        <f>10000*$D$20*I25</f>
+        <v>140000000</v>
+      </c>
+      <c r="K25" s="78">
+        <f>((M2*4000+O2*2000)*$D$20)</f>
+        <v>196000000</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="75">
+        <f>M13*5000+O13*5000</f>
+        <v>70000</v>
+      </c>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="57">
+        <f t="shared" ref="I26:I34" si="6">IF(NOT((M3+O3)=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="78">
+        <f>I26*10000*$E$20</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="78">
+        <f>((M3*4000+O3*2000)*E20)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="75">
+        <f>SUM(J13:P13)*2*20000</f>
+        <v>760000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+    </row>
+    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="78">
+        <f>I27*10000*$F$20</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="78">
+        <f>((M4*4000+O4*2000)*F20)</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+    </row>
+    <row r="28" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>21.33</v>
+      </c>
+      <c r="E28">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="78">
+        <f>I28*10000*$B$21</f>
+        <v>54000000</v>
+      </c>
+      <c r="K28" s="78">
+        <f>((M5*4000+O5*2000)*$B$21)</f>
+        <v>21600000</v>
+      </c>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+    </row>
+    <row r="29" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>38.82</v>
+      </c>
+      <c r="E29">
+        <v>104.72</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="78">
+        <f>I29*10000*$D$21</f>
+        <v>125000000</v>
+      </c>
+      <c r="K29" s="78">
+        <f>(M6*4000+O6*2000)*$D$21</f>
+        <v>100000000</v>
+      </c>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+    </row>
+    <row r="30" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>25.3</v>
+      </c>
+      <c r="E30">
+        <v>51.52</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="78">
+        <f>I30*10000*$E$22</f>
+        <v>112000000</v>
+      </c>
+      <c r="K30" s="78">
+        <f>(M7*4000+O7*2000)*$E$22</f>
+        <v>89600000</v>
+      </c>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+    </row>
+    <row r="31" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>36.9</v>
+      </c>
+      <c r="E31">
+        <v>76.2</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="78">
+        <f>I31*10000*$F$22</f>
+        <v>46000000</v>
+      </c>
+      <c r="K31" s="78">
+        <f>(M8*4000+O8*2000)*$F$22</f>
+        <v>18400000</v>
+      </c>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+    </row>
+    <row r="32" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>49.57</v>
+      </c>
+      <c r="E32">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="78">
+        <f>I32*10000*$C$23</f>
+        <v>25000000</v>
+      </c>
+      <c r="K32" s="78">
+        <f>(M9*4000+O9*2000)*$C$23</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="78">
+        <f>I33*10000*$C$24</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="78">
+        <f>(M10*4000+O10*2000)*$C$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="78">
+        <f>I34*10000*$E$24</f>
+        <v>66000000</v>
+      </c>
+      <c r="K34" s="78">
+        <f>(M11*4000+O11*2000)*$E$24</f>
+        <v>52800000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="78">
+        <f>I37+SUM(M24:M25)*120+M26</f>
+        <v>1185560000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="78">
+        <f>SUM(J25:K34)+I16</f>
+        <v>1056400000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" t="s">
+        <v>112</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H41" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <v>250</v>
+      </c>
+      <c r="K41">
+        <f>R2</f>
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="L41">
+        <f>1/(K41-J41)</f>
+        <v>4.3446526015779779E-4</v>
+      </c>
+      <c r="M41">
+        <f>T2</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:O51" si="7">U2</f>
+        <v>0.54</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f>J41/(K41-J41)+O41*M41+(1-O41)*N41</f>
+        <v>0.15528298170611612</v>
+      </c>
+      <c r="Q41">
+        <f>J41/K41</f>
+        <v>9.7974667669927268E-2</v>
+      </c>
+      <c r="R41">
+        <f>J41/(J451+$Q$12)</f>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H42" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>250</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K50" si="8">R3</f>
+        <v>2000</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L51" si="9">1/(K42-J42)</f>
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42:M51" si="10">T3</f>
+        <v>2.6333333333333334E-2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:P51" si="11">J42/(K42-J42)+O42*M42+(1-O42)*N42</f>
+        <v>0.68285714285714283</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42:Q51" si="12">J42/K42</f>
+        <v>0.125</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:R50" si="13">J42/(J452+$Q$12)</f>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H43" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>447.36</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="11"/>
+        <v>1.3067207134171057</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="12"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H44" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44">
+        <v>200</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>447.36</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>4.0426908150064684E-3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="10"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="11"/>
+        <v>0.82653816300129368</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="12"/>
+        <v>0.44706723891273248</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="13"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H45" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45">
+        <v>500</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>1552</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>9.5057034220532319E-4</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="11"/>
+        <v>0.51695183776932829</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H46" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>1552</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>9.5057034220532319E-4</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="11"/>
+        <v>0.51261850443599499</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H47" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47">
+        <v>250</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="10"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="11"/>
+        <v>0.49061850443599492</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H48" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48">
+        <v>250</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="11"/>
+        <v>0.48361850443599497</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H49" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="11"/>
+        <v>0.79</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165471E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H50" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50">
+        <v>250</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>1552</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>7.6804915514592934E-4</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="10"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="11"/>
+        <v>0.21401228878648232</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="12"/>
+        <v>0.16108247422680413</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f>SUM(J41:J50)</f>
+        <v>2750</v>
+      </c>
+      <c r="K51">
+        <f>SUM(K41:K50)</f>
+        <v>11904.4</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>1.0923708817617758E-4</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="11"/>
+        <v>0.30040199248448834</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="12"/>
+        <v>0.23100702261348746</v>
+      </c>
+      <c r="R51">
+        <f>SUM(R41:R50)</f>
+        <v>0.39568345323741005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A92723E-BA3C-4FD0-82AD-CD7446255BB3}">
+  <dimension ref="A1:AJ51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4" customWidth="1"/>
+    <col min="28" max="28" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="53" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="H2" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="62">
+        <v>0</v>
+      </c>
+      <c r="K2" s="62">
+        <v>0</v>
+      </c>
+      <c r="L2" s="62">
+        <v>0</v>
+      </c>
+      <c r="M2" s="62">
+        <v>3</v>
+      </c>
+      <c r="N2" s="62">
+        <v>0</v>
+      </c>
+      <c r="O2" s="62">
+        <v>1</v>
+      </c>
+      <c r="P2" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="71">
+        <v>2500</v>
+      </c>
+      <c r="R2" s="71">
+        <f t="array" ref="R2">SUMPRODUCT(J2:P2,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="S2" s="61">
+        <f>Q2/(R2-Q2)</f>
+        <v>48.37461300309613</v>
+      </c>
+      <c r="T2" s="62">
+        <f>D20*1000/(3*10^8)</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="U2" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V2" s="62">
+        <f t="array" ref="V2">SUMPRODUCT(M2:P2, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R2</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="62">
+        <f>1/(R2-Q2)+V2*T2+(1-V2)*U2</f>
+        <v>6.6016511867905123E-2</v>
+      </c>
+      <c r="X2" s="63">
+        <f t="shared" ref="X2:X12" si="0">Q2/R2</f>
+        <v>0.97974667669927273</v>
+      </c>
+      <c r="Y2" s="57">
+        <f t="shared" ref="Y2:Y12" si="1">IF(Q2=R2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="57">
+        <f>Q2/($Q$12+$J$51)</f>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="H3" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="62">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62">
+        <v>0</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0</v>
+      </c>
+      <c r="M3" s="62">
+        <v>0</v>
+      </c>
+      <c r="N3" s="62">
+        <v>0</v>
+      </c>
+      <c r="O3" s="62">
+        <v>0</v>
+      </c>
+      <c r="P3" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R3" s="71">
+        <f t="array" ref="R3">SUMPRODUCT(J3:P3,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>2000</v>
+      </c>
+      <c r="S3" s="61">
+        <f t="shared" ref="S3:S12" si="2">Q3/(R3-Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="62">
+        <f>E20*1000/(3*10^8)</f>
+        <v>2.6333333333333334E-2</v>
+      </c>
+      <c r="U3" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V3" s="62">
+        <f t="array" ref="V3">SUMPRODUCT(M3:P3, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="62">
+        <f t="shared" ref="W3:W11" si="3">1/(R3-Q3)+V3*T3+(1-V3)*U3</f>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="X3" s="63">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y3" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="57">
+        <f t="shared" ref="Z3:Z11" si="4">Q3/($Q$12+$J$51)</f>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>250</v>
+      </c>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="H4" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="L4" s="62">
+        <v>0</v>
+      </c>
+      <c r="M4" s="62">
+        <v>0</v>
+      </c>
+      <c r="N4" s="62">
+        <v>0</v>
+      </c>
+      <c r="O4" s="62">
+        <v>0</v>
+      </c>
+      <c r="P4" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>250</v>
+      </c>
+      <c r="R4" s="71">
+        <f t="array" ref="R4">SUMPRODUCT(J4:P4,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S4" s="61">
+        <f t="shared" si="2"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T4" s="62">
+        <f>F20*1000/(3*10^8)</f>
+        <v>0.04</v>
+      </c>
+      <c r="U4" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V4" s="62">
+        <f t="array" ref="V4">SUMPRODUCT(M4:P4, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R4</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="62">
+        <f t="shared" si="3"/>
+        <v>4.5066882853668423E-2</v>
+      </c>
+      <c r="X4" s="63">
+        <f t="shared" si="0"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="Y4" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="57">
+        <f t="shared" si="4"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>250</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>500</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="H5" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="62">
+        <v>0</v>
+      </c>
+      <c r="K5" s="62">
+        <v>0</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0</v>
+      </c>
+      <c r="M5" s="62">
+        <v>0</v>
+      </c>
+      <c r="N5" s="62">
+        <v>0</v>
+      </c>
+      <c r="O5" s="62">
+        <v>2</v>
+      </c>
+      <c r="P5" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>250</v>
+      </c>
+      <c r="R5" s="71">
+        <f t="array" ref="R5">SUMPRODUCT(J5:P5,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>447.36</v>
+      </c>
+      <c r="S5" s="61">
+        <f t="shared" si="2"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="T5" s="62">
+        <f>B21*1000/(3*10^8)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U5" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V5" s="62">
+        <f t="array" ref="V5">SUMPRODUCT(M5:P5, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R5</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="62">
+        <f t="shared" si="3"/>
+        <v>2.3066882853668421E-2</v>
+      </c>
+      <c r="X5" s="63">
+        <f t="shared" si="0"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="Y5" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="57">
+        <f t="shared" si="4"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="H6" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="62">
+        <v>2</v>
+      </c>
+      <c r="K6" s="62">
+        <v>0</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0</v>
+      </c>
+      <c r="M6" s="62">
+        <v>0</v>
+      </c>
+      <c r="N6" s="62">
+        <v>0</v>
+      </c>
+      <c r="O6" s="62">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>500</v>
+      </c>
+      <c r="R6" s="71">
+        <f t="array" ref="R6">SUMPRODUCT(J6:P6,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>2000</v>
+      </c>
+      <c r="S6" s="61">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T6" s="62">
+        <f>D21*1000/(3*10^8)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U6" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V6" s="62">
+        <f t="array" ref="V6">SUMPRODUCT(M6:P6, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R6</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="62">
+        <f t="shared" si="3"/>
+        <v>0.54066666666666674</v>
+      </c>
+      <c r="X6" s="63">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y6" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="57">
+        <f t="shared" si="4"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+    </row>
+    <row r="7" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="57"/>
+      <c r="H7" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
+        <v>0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0</v>
+      </c>
+      <c r="M7" s="62">
+        <v>2</v>
+      </c>
+      <c r="N7" s="62">
+        <v>0</v>
+      </c>
+      <c r="O7" s="62">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>500</v>
+      </c>
+      <c r="R7" s="71">
+        <f t="array" ref="R7">SUMPRODUCT(J7:P7,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>1552</v>
+      </c>
+      <c r="S7" s="61">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T7" s="62">
+        <f>E22*1000/(3*10^8)</f>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="U7" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V7" s="62">
+        <f t="array" ref="V7">SUMPRODUCT(M7:P7, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R7</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="62">
+        <f t="shared" si="3"/>
+        <v>3.8283903675538661E-2</v>
+      </c>
+      <c r="X7" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="Y7" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="57">
+        <f t="shared" si="4"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>250</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="62">
+        <v>0</v>
+      </c>
+      <c r="K8" s="62">
+        <v>0</v>
+      </c>
+      <c r="L8" s="62">
+        <v>0</v>
+      </c>
+      <c r="M8" s="62">
+        <v>1</v>
+      </c>
+      <c r="N8" s="62">
+        <v>0</v>
+      </c>
+      <c r="O8" s="62">
+        <v>0</v>
+      </c>
+      <c r="P8" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>250</v>
+      </c>
+      <c r="R8" s="71">
+        <f t="array" ref="R8">SUMPRODUCT(J8:P8,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S8" s="61">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="T8" s="62">
+        <f>F22*1000/(3*10^8)</f>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="U8" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V8" s="62">
+        <f t="array" ref="V8">SUMPRODUCT(M8:P8, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R8</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="62">
+        <f t="shared" si="3"/>
+        <v>1.723447401774398E-2</v>
+      </c>
+      <c r="X8" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="Y8" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="57">
+        <f t="shared" si="4"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="62">
+        <v>0</v>
+      </c>
+      <c r="K9" s="62">
+        <v>0</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0</v>
+      </c>
+      <c r="M9" s="62">
+        <v>1</v>
+      </c>
+      <c r="N9" s="62">
+        <v>0</v>
+      </c>
+      <c r="O9" s="62">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>500</v>
+      </c>
+      <c r="R9" s="71">
+        <f t="array" ref="R9">SUMPRODUCT(J9:P9,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="S9" s="61">
+        <f t="shared" si="2"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="T9" s="62">
+        <f>C23*1000/(3*10^8)</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="U9" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V9" s="62">
+        <f t="array" ref="V9">SUMPRODUCT(M9:P9, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R9</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="62">
+        <f t="shared" si="3"/>
+        <v>1.1956521739130435E-2</v>
+      </c>
+      <c r="X9" s="63">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="Y9" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="57">
+        <f t="shared" si="4"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0</v>
+      </c>
+      <c r="K10" s="62">
+        <v>0</v>
+      </c>
+      <c r="L10" s="62">
+        <v>1</v>
+      </c>
+      <c r="M10" s="62">
+        <v>0</v>
+      </c>
+      <c r="N10" s="62">
+        <v>0</v>
+      </c>
+      <c r="O10" s="62">
+        <v>0</v>
+      </c>
+      <c r="P10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>200</v>
+      </c>
+      <c r="R10" s="71">
+        <f t="array" ref="R10">SUMPRODUCT(J10:P10,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>250</v>
+      </c>
+      <c r="S10" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T10" s="62">
+        <f>C24*1000/(3*10^8)</f>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="U10" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V10" s="62">
+        <f t="array" ref="V10">SUMPRODUCT(M10:P10, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="62">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X10" s="63">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y10" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="57">
+        <f t="shared" si="4"/>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="54">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="62">
+        <v>0</v>
+      </c>
+      <c r="K11" s="62">
+        <v>0</v>
+      </c>
+      <c r="L11" s="62">
+        <v>0</v>
+      </c>
+      <c r="M11" s="62">
+        <v>2</v>
+      </c>
+      <c r="N11" s="62">
+        <v>0</v>
+      </c>
+      <c r="O11" s="62">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>1000</v>
+      </c>
+      <c r="R11" s="71">
+        <f t="array" ref="R11">SUMPRODUCT(J11:P11,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+        <v>1552</v>
+      </c>
+      <c r="S11" s="61">
+        <f t="shared" si="2"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="T11" s="62">
+        <f>E24*1000/(3*10^8)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U11" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="V11" s="62">
+        <f t="array" ref="V11">SUMPRODUCT(M11:P11, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R11</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="62">
+        <f t="shared" si="3"/>
+        <v>2.3811594202898551E-2</v>
+      </c>
+      <c r="X11" s="63">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="Y11" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="57">
+        <f t="shared" si="4"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="54">
+        <v>20</v>
+      </c>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>15.52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="72">
+        <f>SUM(Q2:Q11)</f>
+        <v>6950</v>
+      </c>
+      <c r="R12" s="72">
+        <f>SUM(R2:R11)</f>
+        <v>12352.4</v>
+      </c>
+      <c r="S12" s="64">
+        <f t="shared" si="2"/>
+        <v>1.2864652746927292</v>
+      </c>
+      <c r="T12" s="62"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="65">
+        <f>1/(R12-Q12)</f>
+        <v>1.8510291722197543E-4</v>
+      </c>
+      <c r="X12" s="66">
+        <f t="shared" si="0"/>
+        <v>0.56264369677147763</v>
+      </c>
+      <c r="Y12" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="54">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>15.52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="57">
+        <f t="shared" ref="J13:P13" si="5">SUM(J2:J11)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="57">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="57">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P13" s="57">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="54">
+        <v>15.52</v>
+      </c>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="X15" s="57">
+        <f>SUMPRODUCT(Z2:Z11,W2:W11)+SUMPRODUCT(P41:P50,R41:R50)</f>
+        <v>0.36852183435804931</v>
+      </c>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC15" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D16" s="57"/>
+      <c r="H16" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="74">
+        <f>SUM(J2:J11)*60000000*0+SUM(K2:K11)*40000000</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="74">
+        <f>J13*8000+K13*8000+L13*500000+M13*5000+N13*700000+O13*5000+P13*500000</f>
+        <v>1592000</v>
+      </c>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="57">
+        <f>X15*1000</f>
+        <v>368.52183435804932</v>
+      </c>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="54">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="74"/>
+      <c r="L17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+    </row>
+    <row r="18" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="55"/>
+      <c r="I18" s="74"/>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="75">
+        <f>SUM(J2:P11)*20000</f>
+        <v>380000</v>
+      </c>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+    </row>
+    <row r="19" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
+      <c r="B19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="74"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D20" s="8">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="74"/>
+      <c r="W20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8200</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="74"/>
+      <c r="K21" s="75"/>
+      <c r="W21" t="s">
+        <v>82</v>
+      </c>
+      <c r="X21" s="96">
+        <f>L35/6000000</f>
+        <v>159.89333333333335</v>
+      </c>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="W22" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="L23" s="95"/>
+      <c r="W23" t="s">
+        <v>126</v>
+      </c>
+      <c r="X23">
+        <f>X16*0.1</f>
+        <v>36.852183435804932</v>
+      </c>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8200</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="75">
+        <f>N13*700000+P13*500000</f>
+        <v>1000000</v>
+      </c>
+      <c r="W24" t="s">
+        <v>85</v>
+      </c>
+      <c r="X24" s="76">
+        <f>SUM(X21:X23)</f>
+        <v>196.74551676913828</v>
+      </c>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="57">
+        <f>IF(NOT((M2+O2)=0), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="78">
+        <f>10000*$D$20*I25</f>
+        <v>140000000</v>
+      </c>
+      <c r="K25" s="78">
+        <f>((M2*4000+O2*2000)*$D$20)</f>
+        <v>196000000</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="75">
+        <f>M13*5000+O13*5000</f>
+        <v>60000</v>
+      </c>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="57">
+        <f t="shared" ref="I26:I34" si="6">IF(NOT((M3+O3)=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="78">
+        <f>I26*10000*$E$20</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="78">
+        <f>((M3*4000+O3*2000)*E20)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="75">
+        <f>SUM(J13:P13)*2*20000</f>
+        <v>760000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+    </row>
+    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="78">
+        <f>I27*10000*$F$20</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="78">
+        <f>((M4*4000+O4*2000)*F20)</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+    </row>
+    <row r="28" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>21.33</v>
+      </c>
+      <c r="E28">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="78">
+        <f>I28*10000*$B$21</f>
+        <v>54000000</v>
+      </c>
+      <c r="K28" s="78">
+        <f>((M5*4000+O5*2000)*$B$21)</f>
+        <v>21600000</v>
+      </c>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+    </row>
+    <row r="29" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>38.82</v>
+      </c>
+      <c r="E29">
+        <v>104.72</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="78">
+        <f>I29*10000*$D$21</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="78">
+        <f>(M6*4000+O6*2000)*$D$21</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+    </row>
+    <row r="30" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>25.3</v>
+      </c>
+      <c r="E30">
+        <v>51.52</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="78">
+        <f>I30*10000*$E$22</f>
+        <v>112000000</v>
+      </c>
+      <c r="K30" s="78">
+        <f>(M7*4000+O7*2000)*$E$22</f>
+        <v>89600000</v>
+      </c>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+    </row>
+    <row r="31" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>36.9</v>
+      </c>
+      <c r="E31">
+        <v>76.2</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="78">
+        <f>I31*10000*$F$22</f>
+        <v>46000000</v>
+      </c>
+      <c r="K31" s="78">
+        <f>(M8*4000+O8*2000)*$F$22</f>
+        <v>18400000</v>
+      </c>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+    </row>
+    <row r="32" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>49.57</v>
+      </c>
+      <c r="E32">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="78">
+        <f>I32*10000*$C$23</f>
+        <v>25000000</v>
+      </c>
+      <c r="K32" s="78">
+        <f>(M9*4000+O9*2000)*$C$23</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="78">
+        <f>I33*10000*$C$24</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="78">
+        <f>(M10*4000+O10*2000)*$C$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="78">
+        <f>I34*10000*$E$24</f>
+        <v>66000000</v>
+      </c>
+      <c r="K34" s="78">
+        <f>(M11*4000+O11*2000)*$E$24</f>
+        <v>52800000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="78">
+        <f>I37+SUM(M24:M25)*120+M26</f>
+        <v>959360000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="78">
+        <f>SUM(J25:K34)+I16</f>
+        <v>831400000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" t="s">
+        <v>112</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H41" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <v>250</v>
+      </c>
+      <c r="K41">
+        <f>R2</f>
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="L41">
+        <f>1/(K41-J41)</f>
+        <v>4.3446526015779779E-4</v>
+      </c>
+      <c r="M41">
+        <f>T2</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:O51" si="7">U2</f>
+        <v>0.54</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f>J41/(K41-J41)+O41*M41+(1-O41)*N41</f>
+        <v>0.15528298170611612</v>
+      </c>
+      <c r="Q41">
+        <f>J41/K41</f>
+        <v>9.7974667669927268E-2</v>
+      </c>
+      <c r="R41">
+        <f>J41/(J451+$Q$12)</f>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H42" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>250</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K50" si="8">R3</f>
+        <v>2000</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L51" si="9">1/(K42-J42)</f>
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42:M51" si="10">T3</f>
+        <v>2.6333333333333334E-2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:P51" si="11">J42/(K42-J42)+O42*M42+(1-O42)*N42</f>
+        <v>0.68285714285714283</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42:Q51" si="12">J42/K42</f>
+        <v>0.125</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:R50" si="13">J42/(J452+$Q$12)</f>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H43" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>447.36</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>5.0668828536684233E-3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="11"/>
+        <v>1.3067207134171057</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="12"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H44" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44">
+        <v>200</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>447.36</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>4.0426908150064684E-3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="10"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="11"/>
+        <v>0.82653816300129368</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="12"/>
+        <v>0.44706723891273248</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="13"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H45" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45">
+        <v>500</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="11"/>
+        <v>0.87333333333333329</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H46" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>1552</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>9.5057034220532319E-4</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="11"/>
+        <v>0.51261850443599499</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H47" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47">
+        <v>250</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="10"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="11"/>
+        <v>0.49061850443599492</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H48" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48">
+        <v>250</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="11"/>
+        <v>0.48361850443599497</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H49" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="11"/>
+        <v>0.79</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165471E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H50" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50">
+        <v>250</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>1552</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>7.6804915514592934E-4</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="10"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="11"/>
+        <v>0.21401228878648232</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="12"/>
+        <v>0.16108247422680413</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f>SUM(J41:J50)</f>
+        <v>2750</v>
+      </c>
+      <c r="K51">
+        <f>SUM(K41:K50)</f>
+        <v>12352.4</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>1.0414063150878948E-4</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="11"/>
+        <v>0.28638673664917103</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="12"/>
+        <v>0.2226288008808005</v>
+      </c>
+      <c r="R51">
+        <f>SUM(R41:R50)</f>
+        <v>0.39568345323741005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1BB131-0A76-4A10-B133-5C23DA29BF26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE7728E-CE3E-4800-97F1-9B1A2E50A994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
@@ -9802,7 +9802,7 @@
   <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,218 +8,270 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE7728E-CE3E-4800-97F1-9B1A2E50A994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D551AB-3E12-4174-84D5-3893123B4FC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="PacketDelay" sheetId="4" r:id="rId2"/>
     <sheet name="PacketDelay Ryan" sheetId="6" r:id="rId3"/>
     <sheet name="Optimal" sheetId="8" r:id="rId4"/>
-    <sheet name="Working_EditThis" sheetId="9" r:id="rId5"/>
+    <sheet name="TempOptimal" sheetId="9" r:id="rId5"/>
+    <sheet name="3-Connected" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'3-Connected'!$L$2:$R$11</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Optimal!$J$2:$P$11</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Working_EditThis!$J$2:$P$11</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">TempOptimal!$L$2:$R$11</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.00001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.00001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.00001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'3-Connected'!$AA$2:$AA$12</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Optimal!$J$2:$P$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Working_EditThis!$J$2:$P$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">TempOptimal!$AA$2:$AA$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'3-Connected'!$L$2:$R$11</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Optimal!$R$2:$R$11</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Working_EditThis!$R$2:$R$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">TempOptimal!$L$2:$R$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'3-Connected'!$T$2:$T$11</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">Optimal!$X$2:$X$11</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">PacketDelay!$J$2:$P$21</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'PacketDelay Ryan'!$J$2:$P$21</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Working_EditThis!$X$2:$X$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">TempOptimal!$T$2:$T$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'3-Connected'!$Z$2:$Z$11</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">PacketDelay!$K$2:$L$21</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'PacketDelay Ryan'!$K$2:$L$21</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">TempOptimal!$Z$2:$Z$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'3-Connected'!$AA$2:$AA$12</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">PacketDelay!$R$2:$R$21</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'PacketDelay Ryan'!$R$2:$R$21</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">TempOptimal!$AA$2:$AA$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">'3-Connected'!$AA$2:$AA$12</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">PacketDelay!$U$22</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">'PacketDelay Ryan'!$U$22</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">TempOptimal!$AA$2:$AA$12</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">'3-Connected'!$AA$2:$AA$12</definedName>
     <definedName name="solver_lhs7" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">PacketDelay!$U$3:$U$4</definedName>
     <definedName name="solver_lhs7" localSheetId="2" hidden="1">'PacketDelay Ryan'!$U$3:$U$4</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">TempOptimal!$AA$2:$AA$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="5" hidden="1">'3-Connected'!$AA$2:$AA$12</definedName>
     <definedName name="solver_lhs8" localSheetId="3" hidden="1">Optimal!$Y$2:$Y$12</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">PacketDelay!$V$2:$V$22</definedName>
     <definedName name="solver_lhs8" localSheetId="2" hidden="1">'PacketDelay Ryan'!$V$2:$V$22</definedName>
-    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Working_EditThis!$Y$2:$Y$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">TempOptimal!$AA$2:$AA$12</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'3-Connected'!$Y$42</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Optimal!$X$21</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">PacketDelay!$K$31</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'PacketDelay Ryan'!$K$31</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Working_EditThis!$X$21</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">TempOptimal!$Y$42</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.00001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.00001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.0000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.0000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.00001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">integer</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">integer</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">integer</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">Optimal!$Q$2:$Q$11</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">integer</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Working_EditThis!$Q$2:$Q$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">integer</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'3-Connected'!$S$2:$S$11</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">0.8</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0.8</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">TempOptimal!$S$2:$S$11</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">0.8</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0.8</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">PacketDelay!$Q$2:$Q$21</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">'PacketDelay Ryan'!$Q$2:$Q$21</definedName>
     <definedName name="solver_rhs5" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">0.7</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">0.7</definedName>
     <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">0.5</definedName>
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">0.5</definedName>
     <definedName name="solver_rhs7" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">415</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">415</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">3700000000</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">415</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
@@ -240,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="134">
   <si>
     <t>Source</t>
   </si>
@@ -622,6 +674,27 @@
   <si>
     <t>Weighted Delay:</t>
   </si>
+  <si>
+    <t>RTT</t>
+  </si>
+  <si>
+    <t>Distance to IntelSat @ 21</t>
+  </si>
+  <si>
+    <t>Distance to IntelSat @ 100 (km)</t>
+  </si>
+  <si>
+    <t>RTT (s)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Sat Monthly:</t>
+  </si>
 </sst>
 </file>
 
@@ -631,7 +704,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +732,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1209,7 +1297,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1481,6 +1569,15 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,6 +1608,84 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1829,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB38BFA3-7B04-4BCC-A14E-F4FC4BDCFA79}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,34 +2019,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98" t="s">
+      <c r="A1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="H1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="98" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
+      <c r="H1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
-      <c r="O1" s="97" t="s">
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="O1" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
+      <c r="A2" s="107"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="104"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2139,48 +2314,48 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="H8" s="101" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="H8" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="98" t="s">
+      <c r="A10" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="H10" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="98" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="H10" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2371,7 @@
       <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="104"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="50" t="s">
         <v>2</v>
       </c>
@@ -2433,22 +2608,22 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="H17" s="101" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="H17" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="45"/>
@@ -2606,12 +2781,12 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
@@ -4023,16 +4198,16 @@
       <c r="AF17" s="57"/>
     </row>
     <row r="18" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="98" t="s">
+      <c r="A18" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="55"/>
       <c r="H18" s="61" t="s">
         <v>37</v>
@@ -4099,7 +4274,7 @@
       <c r="AF18" s="57"/>
     </row>
     <row r="19" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -4532,13 +4707,13 @@
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
       <c r="M25" s="57"/>
       <c r="N25" s="57"/>
       <c r="O25" s="57"/>
@@ -4761,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DB1F4E-F21C-41E1-967C-33228DEFDE08}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6144,16 +6319,16 @@
       <c r="AF17" s="57"/>
     </row>
     <row r="18" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="98" t="s">
+      <c r="A18" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="55"/>
       <c r="H18" s="61" t="s">
         <v>37</v>
@@ -6220,7 +6395,7 @@
       <c r="AF18" s="57"/>
     </row>
     <row r="19" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -6670,13 +6845,13 @@
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
       <c r="M25" s="57"/>
       <c r="N25" s="57"/>
       <c r="O25" s="57"/>
@@ -8521,13 +8696,13 @@
       <c r="D15" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="106" t="s">
+      <c r="H15" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
@@ -8626,16 +8801,16 @@
       <c r="AI17" s="57"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="98" t="s">
+      <c r="A18" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="55"/>
       <c r="I18" s="74"/>
       <c r="J18" t="s">
@@ -8656,7 +8831,7 @@
       <c r="AI18" s="57"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -9799,47 +9974,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A92723E-BA3C-4FD0-82AD-CD7446255BB3}">
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4" customWidth="1"/>
-    <col min="28" max="28" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="53" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="53" customFormat="1" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
@@ -9847,78 +10025,78 @@
         <v>35</v>
       </c>
       <c r="D1" s="31"/>
-      <c r="H1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="68" t="s">
+      <c r="J1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="L1" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="M1" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="N1" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="O1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="P1" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="Q1" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="R1" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="S1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="T1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="U1" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="V1" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="W1" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="X1" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="Y1" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="69" t="s">
+      <c r="Z1" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="AA1" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AB1" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
       <c r="AF1" s="31"/>
       <c r="AG1" s="31"/>
       <c r="AH1" s="31"/>
       <c r="AI1" s="31"/>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+    </row>
+    <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
@@ -9926,92 +10104,92 @@
         <v>36</v>
       </c>
       <c r="D2" s="57"/>
-      <c r="H2" s="91" t="s">
+      <c r="J2" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="K2" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="62">
-        <v>0</v>
-      </c>
-      <c r="K2" s="62">
-        <v>0</v>
-      </c>
-      <c r="L2" s="62">
-        <v>0</v>
-      </c>
-      <c r="M2" s="62">
+      <c r="L2" s="116">
+        <v>0</v>
+      </c>
+      <c r="M2" s="116">
+        <v>0</v>
+      </c>
+      <c r="N2" s="116">
+        <v>0</v>
+      </c>
+      <c r="O2" s="116">
         <v>3</v>
       </c>
-      <c r="N2" s="62">
-        <v>0</v>
-      </c>
-      <c r="O2" s="62">
+      <c r="P2" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="116">
         <v>1</v>
       </c>
-      <c r="P2" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="71">
+      <c r="R2" s="116">
+        <v>0</v>
+      </c>
+      <c r="S2" s="117">
         <v>2500</v>
       </c>
-      <c r="R2" s="71">
-        <f t="array" ref="R2">SUMPRODUCT(J2:P2,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+      <c r="T2" s="117">
+        <f t="array" ref="T2">SUMPRODUCT(L2:R2,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
         <v>2551.6799999999998</v>
       </c>
-      <c r="S2" s="61">
-        <f>Q2/(R2-Q2)</f>
+      <c r="U2" s="118">
+        <f>S2/(T2-S2)</f>
         <v>48.37461300309613</v>
       </c>
-      <c r="T2" s="62">
+      <c r="V2" s="116">
         <f>D20*1000/(3*10^8)</f>
         <v>4.6666666666666669E-2</v>
       </c>
-      <c r="U2" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V2" s="62">
-        <f t="array" ref="V2">SUMPRODUCT(M2:P2, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R2</f>
+      <c r="W2" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X2" s="116">
+        <f t="array" ref="X2">SUMPRODUCT(O2:R2, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T2</f>
         <v>1</v>
       </c>
-      <c r="W2" s="62">
-        <f>1/(R2-Q2)+V2*T2+(1-V2)*U2</f>
+      <c r="Y2" s="116">
+        <f>1/(T2-S2)+X2*V2+(1-X2)*W2</f>
         <v>6.6016511867905123E-2</v>
       </c>
-      <c r="X2" s="63">
-        <f t="shared" ref="X2:X12" si="0">Q2/R2</f>
+      <c r="Z2" s="119">
+        <f t="shared" ref="Z2:Z12" si="0">S2/T2</f>
         <v>0.97974667669927273</v>
       </c>
-      <c r="Y2" s="57">
-        <f t="shared" ref="Y2:Y12" si="1">IF(Q2=R2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="57">
-        <f>Q2/($Q$12+$J$51)</f>
+      <c r="AA2" s="120">
+        <f t="shared" ref="AA2:AA12" si="1">IF(S2=T2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="120">
+        <f>S2/($S$12+$L$51)</f>
         <v>0.25773195876288657</v>
       </c>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57" t="s">
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="57" t="s">
+      <c r="AF2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="57" t="s">
+      <c r="AG2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="57" t="s">
+      <c r="AH2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="57" t="s">
+      <c r="AI2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-    </row>
-    <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+    </row>
+    <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
@@ -10019,94 +10197,94 @@
         <v>38</v>
       </c>
       <c r="D3" s="57"/>
-      <c r="H3" s="91" t="s">
+      <c r="J3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="K3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="62">
+      <c r="L3" s="116">
         <v>2</v>
       </c>
-      <c r="K3" s="62">
-        <v>0</v>
-      </c>
-      <c r="L3" s="62">
-        <v>0</v>
-      </c>
-      <c r="M3" s="62">
-        <v>0</v>
-      </c>
-      <c r="N3" s="62">
-        <v>0</v>
-      </c>
-      <c r="O3" s="62">
-        <v>0</v>
-      </c>
-      <c r="P3" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="71">
+      <c r="M3" s="116">
+        <v>0</v>
+      </c>
+      <c r="N3" s="116">
+        <v>0</v>
+      </c>
+      <c r="O3" s="116">
+        <v>0</v>
+      </c>
+      <c r="P3" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="116">
+        <v>0</v>
+      </c>
+      <c r="R3" s="116">
+        <v>0</v>
+      </c>
+      <c r="S3" s="117">
         <v>1000</v>
       </c>
-      <c r="R3" s="71">
-        <f t="array" ref="R3">SUMPRODUCT(J3:P3,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+      <c r="T3" s="117">
+        <f t="array" ref="T3">SUMPRODUCT(L3:R3,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
         <v>2000</v>
       </c>
-      <c r="S3" s="61">
-        <f t="shared" ref="S3:S12" si="2">Q3/(R3-Q3)</f>
+      <c r="U3" s="118">
+        <f t="shared" ref="U3:U12" si="2">S3/(T3-S3)</f>
         <v>1</v>
       </c>
-      <c r="T3" s="62">
+      <c r="V3" s="116">
         <f>E20*1000/(3*10^8)</f>
         <v>2.6333333333333334E-2</v>
       </c>
-      <c r="U3" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V3" s="62">
-        <f t="array" ref="V3">SUMPRODUCT(M3:P3, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="62">
-        <f t="shared" ref="W3:W11" si="3">1/(R3-Q3)+V3*T3+(1-V3)*U3</f>
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="X3" s="63">
+      <c r="W3" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X3" s="116">
+        <f t="array" ref="X3">SUMPRODUCT(O3:R3, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="116">
+        <f>1/(T3-S3)+X3*V3+(1-X3)*W3</f>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Z3" s="119">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="Y3" s="57">
+      <c r="AA3" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="57">
-        <f t="shared" ref="Z3:Z11" si="4">Q3/($Q$12+$J$51)</f>
+      <c r="AB3" s="120">
+        <f t="shared" ref="AB3:AB11" si="3">S3/($S$12+$L$51)</f>
         <v>0.10309278350515463</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57" t="s">
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
+      <c r="AE3" s="121">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
         <v>200</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AG3" s="8">
         <v>2500</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AH3" s="8">
         <v>1000</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AI3" s="9">
         <v>250</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+    </row>
+    <row r="4" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
@@ -10114,94 +10292,3285 @@
         <v>39</v>
       </c>
       <c r="D4" s="57"/>
-      <c r="H4" s="91" t="s">
+      <c r="J4" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="K4" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="62">
-        <v>0</v>
-      </c>
-      <c r="K4" s="62">
-        <v>0</v>
-      </c>
-      <c r="L4" s="62">
-        <v>0</v>
-      </c>
-      <c r="M4" s="62">
-        <v>0</v>
-      </c>
-      <c r="N4" s="62">
-        <v>0</v>
-      </c>
-      <c r="O4" s="62">
-        <v>0</v>
-      </c>
-      <c r="P4" s="62">
+      <c r="L4" s="116">
+        <v>0</v>
+      </c>
+      <c r="M4" s="116">
+        <v>0</v>
+      </c>
+      <c r="N4" s="116">
+        <v>0</v>
+      </c>
+      <c r="O4" s="116">
+        <v>0</v>
+      </c>
+      <c r="P4" s="116">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="116">
+        <v>0</v>
+      </c>
+      <c r="R4" s="116">
+        <v>0</v>
+      </c>
+      <c r="S4" s="117">
+        <v>250</v>
+      </c>
+      <c r="T4" s="117">
+        <f t="array" ref="T4">SUMPRODUCT(L4:R4,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U4" s="118">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="V4" s="116">
+        <f>F20*1000/(3*10^8)</f>
+        <v>0.04</v>
+      </c>
+      <c r="W4" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X4" s="116">
+        <f t="array" ref="X4">SUMPRODUCT(O4:R4, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T4</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="116">
+        <f t="shared" ref="Y4:Y11" si="4">1/(T4-S4)+X4*V4+(1-X4)*W4</f>
+        <v>4.190114068441065E-2</v>
+      </c>
+      <c r="Z4" s="119">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="AA4" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="120">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="122">
+        <v>250</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>500</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>250</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+    </row>
+    <row r="5" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="J5" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="116">
+        <v>0</v>
+      </c>
+      <c r="M5" s="116">
+        <v>0</v>
+      </c>
+      <c r="N5" s="116">
+        <v>0</v>
+      </c>
+      <c r="O5" s="116">
+        <v>1</v>
+      </c>
+      <c r="P5" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="116">
+        <v>0</v>
+      </c>
+      <c r="R5" s="116">
+        <v>0</v>
+      </c>
+      <c r="S5" s="117">
+        <v>250</v>
+      </c>
+      <c r="T5" s="117">
+        <f t="array" ref="T5">SUMPRODUCT(L5:R5,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U5" s="118">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="V5" s="116">
+        <f>B21*1000/(3*10^8)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="W5" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X5" s="116">
+        <f t="array" ref="X5">SUMPRODUCT(O5:R5, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T5</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="116">
+        <f t="shared" si="4"/>
+        <v>1.9901140684410644E-2</v>
+      </c>
+      <c r="Z5" s="119">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="AA5" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="120">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="123">
+        <v>250</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>250</v>
+      </c>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+    </row>
+    <row r="6" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="J6" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="116">
+        <v>0</v>
+      </c>
+      <c r="M6" s="116">
+        <v>0</v>
+      </c>
+      <c r="N6" s="116">
+        <v>0</v>
+      </c>
+      <c r="O6" s="116">
+        <v>0</v>
+      </c>
+      <c r="P6" s="116">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="116">
+        <v>0</v>
+      </c>
+      <c r="R6" s="116">
+        <v>0</v>
+      </c>
+      <c r="S6" s="117">
+        <v>500</v>
+      </c>
+      <c r="T6" s="117">
+        <f t="array" ref="T6">SUMPRODUCT(L6:R6,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U6" s="118">
+        <f t="shared" si="2"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="V6" s="116">
+        <f>D21*1000/(3*10^8)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="W6" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X6" s="116">
+        <f t="array" ref="X6">SUMPRODUCT(O6:R6, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T6</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="116">
+        <f t="shared" si="4"/>
+        <v>4.5289855072463768E-2</v>
+      </c>
+      <c r="Z6" s="119">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="AA6" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="120">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="123">
+        <v>250</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>500</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+    </row>
+    <row r="7" spans="1:37" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="57"/>
+      <c r="J7" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="116">
+        <v>0</v>
+      </c>
+      <c r="M7" s="116">
+        <v>0</v>
+      </c>
+      <c r="N7" s="116">
+        <v>0</v>
+      </c>
+      <c r="O7" s="116">
+        <v>1</v>
+      </c>
+      <c r="P7" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="116">
+        <v>0</v>
+      </c>
+      <c r="R7" s="116">
+        <v>0</v>
+      </c>
+      <c r="S7" s="117">
+        <v>500</v>
+      </c>
+      <c r="T7" s="117">
+        <f t="array" ref="T7">SUMPRODUCT(L7:R7,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U7" s="118">
+        <f t="shared" si="2"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="V7" s="116">
+        <f>E22*1000/(3*10^8)</f>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="W7" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X7" s="116">
+        <f t="array" ref="X7">SUMPRODUCT(O7:R7, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T7</f>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="116">
+        <f t="shared" si="4"/>
+        <v>4.095652173913044E-2</v>
+      </c>
+      <c r="Z7" s="119">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="AA7" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="120">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="124">
+        <v>250</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+    </row>
+    <row r="8" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="116">
+        <v>0</v>
+      </c>
+      <c r="M8" s="116">
+        <v>0</v>
+      </c>
+      <c r="N8" s="116">
+        <v>0</v>
+      </c>
+      <c r="O8" s="116">
+        <v>0</v>
+      </c>
+      <c r="P8" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="116">
         <v>2</v>
       </c>
-      <c r="Q4" s="71">
+      <c r="R8" s="116">
+        <v>0</v>
+      </c>
+      <c r="S8" s="117">
         <v>250</v>
       </c>
-      <c r="R4" s="71">
-        <f t="array" ref="R4">SUMPRODUCT(J4:P4,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
+      <c r="T8" s="117">
+        <f t="array" ref="T8">SUMPRODUCT(L8:R8,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
         <v>447.36</v>
       </c>
-      <c r="S4" s="61">
+      <c r="U8" s="118">
         <f t="shared" si="2"/>
         <v>1.2667207134171057</v>
       </c>
-      <c r="T4" s="62">
+      <c r="V8" s="116">
+        <f>F22*1000/(3*10^8)</f>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="W8" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X8" s="116">
+        <f t="array" ref="X8">SUMPRODUCT(O8:R8, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T8</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="116">
+        <f t="shared" si="4"/>
+        <v>2.0400216187001757E-2</v>
+      </c>
+      <c r="Z8" s="119">
+        <f t="shared" si="0"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="AA8" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="120">
+        <f t="shared" si="3"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+    </row>
+    <row r="9" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="116">
+        <v>0</v>
+      </c>
+      <c r="M9" s="116">
+        <v>0</v>
+      </c>
+      <c r="N9" s="116">
+        <v>0</v>
+      </c>
+      <c r="O9" s="116">
+        <v>1</v>
+      </c>
+      <c r="P9" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="116">
+        <v>0</v>
+      </c>
+      <c r="R9" s="116">
+        <v>0</v>
+      </c>
+      <c r="S9" s="117">
+        <v>500</v>
+      </c>
+      <c r="T9" s="117">
+        <f t="array" ref="T9">SUMPRODUCT(L9:R9,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U9" s="118">
+        <f t="shared" si="2"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="V9" s="116">
+        <f>C23*1000/(3*10^8)</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="W9" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X9" s="116">
+        <f t="array" ref="X9">SUMPRODUCT(O9:R9, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T9</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="116">
+        <f t="shared" si="4"/>
+        <v>1.1956521739130435E-2</v>
+      </c>
+      <c r="Z9" s="119">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="AA9" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="120">
+        <f t="shared" si="3"/>
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="AC9" s="120"/>
+      <c r="AD9" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+    </row>
+    <row r="10" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="116">
+        <v>0</v>
+      </c>
+      <c r="M10" s="116">
+        <v>0</v>
+      </c>
+      <c r="N10" s="116">
+        <v>0</v>
+      </c>
+      <c r="O10" s="116">
+        <v>0</v>
+      </c>
+      <c r="P10" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="116">
+        <v>0</v>
+      </c>
+      <c r="R10" s="116">
+        <v>1</v>
+      </c>
+      <c r="S10" s="117">
+        <v>200</v>
+      </c>
+      <c r="T10" s="117">
+        <f t="array" ref="T10">SUMPRODUCT(L10:R10,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>223.68</v>
+      </c>
+      <c r="U10" s="118">
+        <f t="shared" si="2"/>
+        <v>8.4459459459459438</v>
+      </c>
+      <c r="V10" s="116">
+        <f>C24*1000/(3*10^8)</f>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="W10" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X10" s="116">
+        <f t="array" ref="X10">SUMPRODUCT(O10:R10, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T10</f>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="116">
+        <f t="shared" si="4"/>
+        <v>6.9563063063063049E-2</v>
+      </c>
+      <c r="Z10" s="119">
+        <f t="shared" si="0"/>
+        <v>0.89413447782546496</v>
+      </c>
+      <c r="AA10" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="120">
+        <f t="shared" si="3"/>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="125">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+    </row>
+    <row r="11" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="116">
+        <v>2</v>
+      </c>
+      <c r="M11" s="116">
+        <v>0</v>
+      </c>
+      <c r="N11" s="116">
+        <v>0</v>
+      </c>
+      <c r="O11" s="116">
+        <v>0</v>
+      </c>
+      <c r="P11" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="116">
+        <v>0</v>
+      </c>
+      <c r="R11" s="116">
+        <v>0</v>
+      </c>
+      <c r="S11" s="117">
+        <v>1000</v>
+      </c>
+      <c r="T11" s="117">
+        <f t="array" ref="T11">SUMPRODUCT(L11:R11,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>2000</v>
+      </c>
+      <c r="U11" s="118">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="116">
+        <f>E24*1000/(3*10^8)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="W11" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="X11" s="116">
+        <f t="array" ref="X11">SUMPRODUCT(O11:R11, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="116">
+        <f t="shared" si="4"/>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Z11" s="119">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA11" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="120">
+        <f t="shared" si="3"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE11" s="125">
+        <v>20</v>
+      </c>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+    </row>
+    <row r="12" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>15.52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="130">
+        <f>SUM(S2:S11)</f>
+        <v>6950</v>
+      </c>
+      <c r="T12" s="130">
+        <f>SUM(T2:T11)</f>
+        <v>11102.720000000001</v>
+      </c>
+      <c r="U12" s="128">
+        <f t="shared" si="2"/>
+        <v>1.67360188021345</v>
+      </c>
+      <c r="V12" s="116"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="129">
+        <f>1/(T12-S12)</f>
+        <v>2.4080602592999281E-4</v>
+      </c>
+      <c r="Z12" s="131">
+        <f t="shared" si="0"/>
+        <v>0.6259727346091768</v>
+      </c>
+      <c r="AA12" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="125">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+    </row>
+    <row r="13" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>15.52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="120">
+        <f t="shared" ref="L13:R13" si="5">SUM(L2:L11)</f>
+        <v>4</v>
+      </c>
+      <c r="M13" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="120">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P13" s="120">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="120">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R13" s="120">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="120"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="125">
+        <v>15.52</v>
+      </c>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+    </row>
+    <row r="14" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="125">
+        <v>15.52</v>
+      </c>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+    </row>
+    <row r="15" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z15" s="120">
+        <f>SUMPRODUCT(AB2:AB11,Y2:Y11)+SUMPRODUCT(R41:R50,T41:T50)</f>
+        <v>0.10394177361755327</v>
+      </c>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE15" s="125">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+    </row>
+    <row r="16" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="57"/>
+      <c r="J16" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="133">
+        <f>SUM(L2:L11)*60000000*0+SUM(M2:M11)*40000000</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="133">
+        <f>L13*8000+M13*8000+N13*500000+O13*5000+P13*700000+Q13*5000+R13*500000</f>
+        <v>1977000</v>
+      </c>
+      <c r="N16" s="134"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="120">
+        <f>Z15*1000</f>
+        <v>103.94177361755327</v>
+      </c>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="120"/>
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE16" s="125">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+    </row>
+    <row r="17" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="57"/>
+      <c r="J17" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="133">
+        <f>3*8000+N13*500000</f>
+        <v>24000</v>
+      </c>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
+      <c r="Z17" s="134"/>
+      <c r="AA17" s="134"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+    </row>
+    <row r="18" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="135">
+        <f>SUM(L2:R11)*20000</f>
+        <v>320000</v>
+      </c>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="134"/>
+      <c r="Y18" s="134"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+    </row>
+    <row r="19" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="108"/>
+      <c r="B19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+    </row>
+    <row r="20" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D20" s="8">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+    </row>
+    <row r="21" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8200</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="134"/>
+      <c r="Y21" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z21" s="136">
+        <f>N35/6000000</f>
+        <v>150.78666666666666</v>
+      </c>
+      <c r="AA21" s="134"/>
+      <c r="AB21" s="134">
+        <v>197.59333333333333</v>
+      </c>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="57"/>
+    </row>
+    <row r="22" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z22" s="134">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="134">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+    </row>
+    <row r="23" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z23" s="134">
+        <f>Z16*0.1</f>
+        <v>10.394177361755327</v>
+      </c>
+      <c r="AA23" s="134"/>
+      <c r="AB23" s="134">
+        <v>26.992846461027423</v>
+      </c>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="57"/>
+    </row>
+    <row r="24" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8200</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="N24" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="135">
+        <f>P13*700000+R13*500000</f>
+        <v>1900000</v>
+      </c>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z24" s="138">
+        <f>SUM(Z21:Z23)</f>
+        <v>161.180844028422</v>
+      </c>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134">
+        <v>224.58617979436076</v>
+      </c>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+    </row>
+    <row r="25" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="120">
+        <f>IF(NOT((O2+Q2)=0), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="139">
+        <f>10000*$D$20*K25</f>
+        <v>140000000</v>
+      </c>
+      <c r="M25" s="139">
+        <f>((O2*4000+Q2*2000)*$D$20)</f>
+        <v>196000000</v>
+      </c>
+      <c r="N25" s="135" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="135">
+        <f>O13*5000+Q13*5000</f>
+        <v>45000</v>
+      </c>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+    </row>
+    <row r="26" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="120">
+        <f t="shared" ref="K26:K34" si="6">IF(NOT((O3+Q3)=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="139">
+        <f>K26*10000*$E$20</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="139">
+        <f>((O3*4000+Q3*2000)*E20)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="135">
+        <f>SUM(L13:R13)*2*20000</f>
+        <v>640000</v>
+      </c>
+      <c r="P26" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="134"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+    </row>
+    <row r="27" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="139">
+        <f>K27*10000*$F$20</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="139">
+        <f>((O4*4000+Q4*2000)*F20)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="134"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+    </row>
+    <row r="28" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>21.33</v>
+      </c>
+      <c r="E28">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="J28" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="120">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="139">
+        <f>K28*10000*$B$21</f>
+        <v>54000000</v>
+      </c>
+      <c r="M28" s="139">
+        <f>((O5*4000+Q5*2000)*$B$21)</f>
+        <v>21600000</v>
+      </c>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="134"/>
+      <c r="AC28" s="134"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="134"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+    </row>
+    <row r="29" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>38.82</v>
+      </c>
+      <c r="E29">
+        <v>104.72</v>
+      </c>
+      <c r="J29" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="139">
+        <f>K29*10000*$D$21</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="139">
+        <f>(O6*4000+Q6*2000)*$D$21</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+    </row>
+    <row r="30" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>25.3</v>
+      </c>
+      <c r="E30">
+        <v>51.52</v>
+      </c>
+      <c r="J30" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="120">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="139">
+        <f>K30*10000*$E$22</f>
+        <v>112000000</v>
+      </c>
+      <c r="M30" s="139">
+        <f>(O7*4000+Q7*2000)*$E$22</f>
+        <v>44800000</v>
+      </c>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+    </row>
+    <row r="31" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>36.9</v>
+      </c>
+      <c r="E31">
+        <v>76.2</v>
+      </c>
+      <c r="J31" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="120">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="139">
+        <f>K31*10000*$F$22</f>
+        <v>46000000</v>
+      </c>
+      <c r="M31" s="139">
+        <f>(O8*4000+Q8*2000)*$F$22</f>
+        <v>18400000</v>
+      </c>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+    </row>
+    <row r="32" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>49.57</v>
+      </c>
+      <c r="E32">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="J32" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="120">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="139">
+        <f>K32*10000*$C$23</f>
+        <v>25000000</v>
+      </c>
+      <c r="M32" s="139">
+        <f>(O9*4000+Q9*2000)*$C$23</f>
+        <v>10000000</v>
+      </c>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="134"/>
+    </row>
+    <row r="33" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="139">
+        <f>K33*10000*$C$24</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="139">
+        <f>(O10*4000+Q10*2000)*$C$24</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="134"/>
+    </row>
+    <row r="34" spans="1:31" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="139">
+        <f>K34*10000*$E$24</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="139">
+        <f>(O11*4000+Q11*2000)*$E$24</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="134"/>
+      <c r="S34" s="134"/>
+      <c r="T34" s="134"/>
+      <c r="U34" s="134"/>
+      <c r="V34" s="134"/>
+      <c r="W34" s="134"/>
+      <c r="X34" s="134"/>
+      <c r="Y34" s="134"/>
+      <c r="Z34" s="134"/>
+      <c r="AA34" s="134"/>
+      <c r="AB34" s="134"/>
+      <c r="AC34" s="134"/>
+      <c r="AD34" s="134"/>
+      <c r="AE34" s="134"/>
+    </row>
+    <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>21.33</v>
+      </c>
+      <c r="D35">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="E35">
+        <v>39400</v>
+      </c>
+      <c r="F35">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G35">
+        <v>46738</v>
+      </c>
+      <c r="H35">
+        <v>0.312</v>
+      </c>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" s="139">
+        <f>K37+SUM(O24:O25)*120+O26+K17*120</f>
+        <v>904720000</v>
+      </c>
+      <c r="O35" s="134"/>
+      <c r="P35" s="134"/>
+      <c r="Q35" s="134"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="134"/>
+      <c r="T35" s="134"/>
+      <c r="U35" s="134"/>
+      <c r="V35" s="134"/>
+      <c r="W35" s="134"/>
+      <c r="X35" s="134"/>
+      <c r="Y35" s="134"/>
+      <c r="Z35" s="134"/>
+      <c r="AA35" s="134"/>
+      <c r="AB35" s="134"/>
+      <c r="AC35" s="134"/>
+      <c r="AD35" s="134"/>
+      <c r="AE35" s="134"/>
+    </row>
+    <row r="36" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>38.82</v>
+      </c>
+      <c r="D36">
+        <v>104.72</v>
+      </c>
+      <c r="E36">
+        <v>37428</v>
+      </c>
+      <c r="F36">
+        <v>0.249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="120"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="134"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="134"/>
+      <c r="Y36" s="134"/>
+      <c r="Z36" s="134"/>
+      <c r="AA36" s="134"/>
+      <c r="AB36" s="134"/>
+      <c r="AC36" s="134"/>
+      <c r="AD36" s="134"/>
+      <c r="AE36" s="134"/>
+    </row>
+    <row r="37" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>25.3</v>
+      </c>
+      <c r="D37">
+        <v>51.52</v>
+      </c>
+      <c r="E37">
+        <v>38680</v>
+      </c>
+      <c r="F37">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G37">
+        <v>37411</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="J37" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="139">
+        <f>SUM(L25:M34)+K16</f>
+        <v>667800000</v>
+      </c>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="134"/>
+      <c r="W37" s="134"/>
+      <c r="X37" s="134"/>
+      <c r="Y37" s="134"/>
+      <c r="Z37" s="134"/>
+      <c r="AA37" s="134"/>
+      <c r="AB37" s="134"/>
+      <c r="AC37" s="134"/>
+      <c r="AD37" s="134"/>
+      <c r="AE37" s="134"/>
+    </row>
+    <row r="38" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>36.9</v>
+      </c>
+      <c r="D38">
+        <v>76.2</v>
+      </c>
+      <c r="E38">
+        <v>37748</v>
+      </c>
+      <c r="F38">
+        <v>0.252</v>
+      </c>
+      <c r="G38">
+        <v>39661</v>
+      </c>
+      <c r="H38">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J38" s="120"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="134"/>
+      <c r="X38" s="134"/>
+      <c r="Y38" s="134"/>
+      <c r="Z38" s="134"/>
+      <c r="AA38" s="134"/>
+      <c r="AB38" s="134"/>
+      <c r="AC38" s="134"/>
+      <c r="AD38" s="134"/>
+      <c r="AE38" s="134"/>
+    </row>
+    <row r="39" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>49.57</v>
+      </c>
+      <c r="D39">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39">
+        <v>38444</v>
+      </c>
+      <c r="H39">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J39" s="120"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="134"/>
+      <c r="X39" s="134"/>
+      <c r="Y39" s="134"/>
+      <c r="Z39" s="134"/>
+      <c r="AA39" s="134"/>
+      <c r="AB39" s="134"/>
+      <c r="AC39" s="134"/>
+      <c r="AD39" s="134"/>
+      <c r="AE39" s="134"/>
+    </row>
+    <row r="40" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J40" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="134" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q40" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="R40" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="S40" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" s="134"/>
+      <c r="V40" s="134"/>
+      <c r="W40" s="134"/>
+      <c r="X40" s="134"/>
+      <c r="Y40" s="134"/>
+      <c r="Z40" s="134"/>
+      <c r="AA40" s="134"/>
+      <c r="AB40" s="134"/>
+      <c r="AC40" s="134"/>
+      <c r="AD40" s="134"/>
+      <c r="AE40" s="134"/>
+    </row>
+    <row r="41" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="J41" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="134">
+        <v>250</v>
+      </c>
+      <c r="M41" s="134">
+        <f>T2</f>
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="N41" s="134">
+        <f>L41/(M41-L41)</f>
+        <v>0.10861631503944945</v>
+      </c>
+      <c r="O41" s="134">
+        <f>V2</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="P41" s="134">
+        <f t="shared" ref="P41:Q51" si="7">W2</f>
+        <v>0.24</v>
+      </c>
+      <c r="Q41" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="134">
+        <f>1/(M41-L41)+Q41*O41+(1-Q41)*P41</f>
+        <v>4.7101131926824469E-2</v>
+      </c>
+      <c r="S41" s="134">
+        <f>L41/M41</f>
+        <v>9.7974667669927268E-2</v>
+      </c>
+      <c r="T41" s="134">
+        <f>L41/(L451+$S$12)</f>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="U41" s="134"/>
+      <c r="V41" s="134"/>
+      <c r="W41" s="134"/>
+      <c r="X41" s="134"/>
+      <c r="Y41" s="134"/>
+      <c r="Z41" s="134"/>
+      <c r="AA41" s="134"/>
+      <c r="AB41" s="134"/>
+      <c r="AC41" s="134"/>
+      <c r="AD41" s="134"/>
+      <c r="AE41" s="134"/>
+    </row>
+    <row r="42" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J42" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="134">
+        <v>250</v>
+      </c>
+      <c r="M42" s="134">
+        <f t="shared" ref="M42:M50" si="8">T3</f>
+        <v>2000</v>
+      </c>
+      <c r="N42" s="134">
+        <f t="shared" ref="N42:N51" si="9">L42/(M42-L42)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O42" s="134">
+        <f t="shared" ref="O42:O51" si="10">V3</f>
+        <v>2.6333333333333334E-2</v>
+      </c>
+      <c r="P42" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q42" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="134">
+        <f t="shared" ref="R42:R51" si="11">1/(M42-L42)+Q42*O42+(1-Q42)*P42</f>
+        <v>0.24057142857142857</v>
+      </c>
+      <c r="S42" s="134">
+        <f t="shared" ref="S42:S51" si="12">L42/M42</f>
+        <v>0.125</v>
+      </c>
+      <c r="T42" s="134">
+        <f t="shared" ref="T42:T50" si="13">L42/(L452+$S$12)</f>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="U42" s="134"/>
+      <c r="V42" s="134"/>
+      <c r="W42" s="134"/>
+      <c r="X42" s="134"/>
+      <c r="Y42" s="134"/>
+      <c r="Z42" s="134"/>
+      <c r="AA42" s="134"/>
+      <c r="AB42" s="134"/>
+      <c r="AC42" s="134"/>
+      <c r="AD42" s="134"/>
+      <c r="AE42" s="134"/>
+    </row>
+    <row r="43" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J43" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="134">
+        <v>250</v>
+      </c>
+      <c r="M43" s="134">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="N43" s="134">
+        <f t="shared" si="9"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="O43" s="134">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="P43" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q43" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="134">
+        <f t="shared" si="11"/>
+        <v>4.190114068441065E-2</v>
+      </c>
+      <c r="S43" s="134">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="T43" s="134">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="U43" s="134"/>
+      <c r="V43" s="134"/>
+      <c r="W43" s="134"/>
+      <c r="X43" s="134"/>
+      <c r="Y43" s="134"/>
+      <c r="Z43" s="134"/>
+      <c r="AA43" s="134"/>
+      <c r="AB43" s="134"/>
+      <c r="AC43" s="134"/>
+      <c r="AD43" s="134"/>
+      <c r="AE43" s="134"/>
+    </row>
+    <row r="44" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J44" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="134">
+        <v>200</v>
+      </c>
+      <c r="M44" s="134">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="N44" s="134">
+        <f t="shared" si="9"/>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="O44" s="134">
+        <f t="shared" si="10"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P44" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q44" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="134">
+        <f t="shared" si="11"/>
+        <v>1.9736111111111111E-2</v>
+      </c>
+      <c r="S44" s="134">
+        <f t="shared" si="12"/>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="T44" s="134">
+        <f t="shared" si="13"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="134"/>
+      <c r="X44" s="134"/>
+      <c r="Y44" s="134"/>
+      <c r="Z44" s="134"/>
+      <c r="AA44" s="134"/>
+      <c r="AB44" s="134"/>
+      <c r="AC44" s="134"/>
+      <c r="AD44" s="134"/>
+      <c r="AE44" s="134"/>
+    </row>
+    <row r="45" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J45" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="134">
+        <v>500</v>
+      </c>
+      <c r="M45" s="134">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="N45" s="134">
+        <f t="shared" si="9"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="O45" s="134">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P45" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q45" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="134">
+        <f t="shared" si="11"/>
+        <v>4.5289855072463768E-2</v>
+      </c>
+      <c r="S45" s="134">
+        <f t="shared" si="12"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="T45" s="134">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="U45" s="134"/>
+      <c r="V45" s="134"/>
+      <c r="W45" s="134"/>
+      <c r="X45" s="134"/>
+      <c r="Y45" s="134"/>
+      <c r="Z45" s="134"/>
+      <c r="AA45" s="134"/>
+      <c r="AB45" s="134"/>
+      <c r="AC45" s="134"/>
+      <c r="AD45" s="134"/>
+      <c r="AE45" s="134"/>
+    </row>
+    <row r="46" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J46" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="134">
+        <v>500</v>
+      </c>
+      <c r="M46" s="134">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="N46" s="134">
+        <f t="shared" si="9"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="O46" s="134">
+        <f t="shared" si="10"/>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="P46" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q46" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="134">
+        <f t="shared" si="11"/>
+        <v>4.095652173913044E-2</v>
+      </c>
+      <c r="S46" s="134">
+        <f t="shared" si="12"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="T46" s="134">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="U46" s="134"/>
+      <c r="V46" s="134"/>
+      <c r="W46" s="134"/>
+      <c r="X46" s="134"/>
+      <c r="Y46" s="134"/>
+      <c r="Z46" s="134"/>
+      <c r="AA46" s="134"/>
+      <c r="AB46" s="134"/>
+      <c r="AC46" s="134"/>
+      <c r="AD46" s="134"/>
+      <c r="AE46" s="134"/>
+    </row>
+    <row r="47" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J47" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" s="134">
+        <v>250</v>
+      </c>
+      <c r="M47" s="134">
+        <f t="shared" si="8"/>
+        <v>447.36</v>
+      </c>
+      <c r="N47" s="134">
+        <f t="shared" si="9"/>
+        <v>1.2667207134171057</v>
+      </c>
+      <c r="O47" s="134">
+        <f t="shared" si="10"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="P47" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q47" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R47" s="134">
+        <f t="shared" si="11"/>
+        <v>2.0400216187001757E-2</v>
+      </c>
+      <c r="S47" s="134">
+        <f t="shared" si="12"/>
+        <v>0.55883404864091557</v>
+      </c>
+      <c r="T47" s="134">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="U47" s="134"/>
+      <c r="V47" s="134"/>
+      <c r="W47" s="134"/>
+      <c r="X47" s="134"/>
+      <c r="Y47" s="134"/>
+      <c r="Z47" s="134"/>
+      <c r="AA47" s="134"/>
+      <c r="AB47" s="134"/>
+      <c r="AC47" s="134"/>
+      <c r="AD47" s="134"/>
+      <c r="AE47" s="134"/>
+    </row>
+    <row r="48" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J48" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="134">
+        <v>250</v>
+      </c>
+      <c r="M48" s="134">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="N48" s="134">
+        <f t="shared" si="9"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="O48" s="134">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="P48" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q48" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R48" s="134">
+        <f t="shared" si="11"/>
+        <v>1.023447401774398E-2</v>
+      </c>
+      <c r="S48" s="134">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="T48" s="134">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="U48" s="134"/>
+      <c r="V48" s="134"/>
+      <c r="W48" s="134"/>
+      <c r="X48" s="134"/>
+      <c r="Y48" s="134"/>
+      <c r="Z48" s="134"/>
+      <c r="AA48" s="134"/>
+      <c r="AB48" s="134"/>
+      <c r="AC48" s="134"/>
+      <c r="AD48" s="134"/>
+      <c r="AE48" s="134"/>
+    </row>
+    <row r="49" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J49" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="134">
+        <v>50</v>
+      </c>
+      <c r="M49" s="134">
+        <f t="shared" si="8"/>
+        <v>223.68</v>
+      </c>
+      <c r="N49" s="134">
+        <f t="shared" si="9"/>
+        <v>0.28788576692768308</v>
+      </c>
+      <c r="O49" s="134">
+        <f t="shared" si="10"/>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="P49" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q49" s="134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="134">
+        <f t="shared" si="11"/>
+        <v>3.3091048671886995E-2</v>
+      </c>
+      <c r="S49" s="134">
+        <f t="shared" si="12"/>
+        <v>0.22353361945636624</v>
+      </c>
+      <c r="T49" s="134">
+        <f t="shared" si="13"/>
+        <v>7.1942446043165471E-3</v>
+      </c>
+      <c r="U49" s="134"/>
+      <c r="V49" s="134"/>
+      <c r="W49" s="134"/>
+      <c r="X49" s="134"/>
+      <c r="Y49" s="134"/>
+      <c r="Z49" s="134"/>
+      <c r="AA49" s="134"/>
+      <c r="AB49" s="134"/>
+      <c r="AC49" s="134"/>
+      <c r="AD49" s="134"/>
+      <c r="AE49" s="134"/>
+    </row>
+    <row r="50" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J50" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="134">
+        <v>250</v>
+      </c>
+      <c r="M50" s="134">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="N50" s="134">
+        <f t="shared" si="9"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O50" s="134">
+        <f t="shared" si="10"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P50" s="134">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q50" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="134">
+        <f t="shared" si="11"/>
+        <v>0.24057142857142857</v>
+      </c>
+      <c r="S50" s="134">
+        <f t="shared" si="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="T50" s="134">
+        <f t="shared" si="13"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="U50" s="134"/>
+      <c r="V50" s="134"/>
+      <c r="W50" s="134"/>
+      <c r="X50" s="134"/>
+      <c r="Y50" s="134"/>
+      <c r="Z50" s="134"/>
+      <c r="AA50" s="134"/>
+      <c r="AB50" s="134"/>
+      <c r="AC50" s="134"/>
+      <c r="AD50" s="134"/>
+      <c r="AE50" s="134"/>
+    </row>
+    <row r="51" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134">
+        <f>SUM(L41:L50)</f>
+        <v>2750</v>
+      </c>
+      <c r="M51" s="134">
+        <f>SUM(M41:M50)</f>
+        <v>11102.720000000001</v>
+      </c>
+      <c r="N51" s="134">
+        <f t="shared" si="9"/>
+        <v>0.32923406985987791</v>
+      </c>
+      <c r="O51" s="134">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="134">
+        <f t="shared" si="11"/>
+        <v>1.1972147994904652E-4</v>
+      </c>
+      <c r="S51" s="134">
+        <f t="shared" si="12"/>
+        <v>0.24768705326262391</v>
+      </c>
+      <c r="T51" s="134">
+        <f>SUM(T41:T50)</f>
+        <v>0.39568345323741005</v>
+      </c>
+      <c r="U51" s="134"/>
+      <c r="V51" s="134"/>
+      <c r="W51" s="134"/>
+      <c r="X51" s="134"/>
+      <c r="Y51" s="134"/>
+      <c r="Z51" s="134"/>
+      <c r="AA51" s="134"/>
+      <c r="AB51" s="134"/>
+      <c r="AC51" s="134"/>
+      <c r="AD51" s="134"/>
+      <c r="AE51" s="134"/>
+    </row>
+    <row r="56" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
+    </row>
+    <row r="58" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="82"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="84"/>
+    </row>
+    <row r="59" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84"/>
+    </row>
+    <row r="60" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="82"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="84"/>
+    </row>
+    <row r="61" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="85"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="87"/>
+    </row>
+    <row r="62" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Z2:Z12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEFF1FD-2D58-4EC4-935B-23EC7B50B19C}">
+  <dimension ref="A1:AL62"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="53" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="J1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+    </row>
+    <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="J2" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="116">
+        <v>0</v>
+      </c>
+      <c r="M2" s="116">
+        <v>0</v>
+      </c>
+      <c r="N2" s="116">
+        <v>0</v>
+      </c>
+      <c r="O2" s="116">
+        <v>3</v>
+      </c>
+      <c r="P2" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="116">
+        <v>1</v>
+      </c>
+      <c r="R2" s="116">
+        <v>0</v>
+      </c>
+      <c r="S2" s="71">
+        <v>2500</v>
+      </c>
+      <c r="T2" s="71">
+        <f t="array" ref="T2">SUMPRODUCT(L2:R2,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="U2" s="61">
+        <f>S2/(T2-S2)</f>
+        <v>48.37461300309613</v>
+      </c>
+      <c r="V2" s="62">
+        <f>D20*1000/(3*10^8)</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="W2" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X2" s="62">
+        <f t="array" ref="X2">SUMPRODUCT(O2:R2, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T2</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="62">
+        <f>1/(T2-S2)+X2*V2+(1-X2)*W2</f>
+        <v>6.6016511867905123E-2</v>
+      </c>
+      <c r="Z2" s="63">
+        <f t="shared" ref="Z2:Z12" si="0">S2/T2</f>
+        <v>0.97974667669927273</v>
+      </c>
+      <c r="AA2" s="57">
+        <f t="shared" ref="AA2:AA12" si="1">IF(S2=T2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="57">
+        <f>S2/($S$12+$L$51)</f>
+        <v>0.22831050228310501</v>
+      </c>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+    </row>
+    <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="J3" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="116">
+        <v>2</v>
+      </c>
+      <c r="M3" s="116">
+        <v>0</v>
+      </c>
+      <c r="N3" s="116">
+        <v>0</v>
+      </c>
+      <c r="O3" s="116">
+        <v>0</v>
+      </c>
+      <c r="P3" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="116">
+        <v>0</v>
+      </c>
+      <c r="R3" s="116">
+        <v>0</v>
+      </c>
+      <c r="S3" s="71">
+        <v>1000</v>
+      </c>
+      <c r="T3" s="71">
+        <f t="array" ref="T3">SUMPRODUCT(L3:R3,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>2000</v>
+      </c>
+      <c r="U3" s="61">
+        <f t="shared" ref="U3:U12" si="2">S3/(T3-S3)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="62">
+        <f>E20*1000/(3*10^8)</f>
+        <v>2.6333333333333334E-2</v>
+      </c>
+      <c r="W3" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X3" s="62">
+        <f t="array" ref="X3">SUMPRODUCT(O3:R3, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="62">
+        <f>1/(T3-S3)+X3*V3+(1-X3)*W3</f>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Z3" s="63">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="57">
+        <f t="shared" ref="AB3:AB11" si="3">S3/($S$12+$L$51)</f>
+        <v>9.1324200913242004E-2</v>
+      </c>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>200</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>250</v>
+      </c>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+    </row>
+    <row r="4" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="J4" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="116">
+        <v>0</v>
+      </c>
+      <c r="M4" s="116">
+        <v>0</v>
+      </c>
+      <c r="N4" s="116">
+        <v>0</v>
+      </c>
+      <c r="O4" s="116">
+        <v>0</v>
+      </c>
+      <c r="P4" s="116">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="116">
+        <v>0</v>
+      </c>
+      <c r="R4" s="116">
+        <v>0</v>
+      </c>
+      <c r="S4" s="71">
+        <v>250</v>
+      </c>
+      <c r="T4" s="71">
+        <f t="array" ref="T4">SUMPRODUCT(L4:R4,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U4" s="61">
+        <f t="shared" si="2"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="V4" s="62">
         <f>F20*1000/(3*10^8)</f>
         <v>0.04</v>
       </c>
-      <c r="U4" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V4" s="62">
-        <f t="array" ref="V4">SUMPRODUCT(M4:P4, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R4</f>
+      <c r="W4" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X4" s="62">
+        <f t="array" ref="X4">SUMPRODUCT(O4:R4, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T4</f>
         <v>1</v>
       </c>
-      <c r="W4" s="62">
+      <c r="Y4" s="62">
+        <f t="shared" ref="Y4:Y11" si="4">1/(T4-S4)+X4*V4+(1-X4)*W4</f>
+        <v>4.190114068441065E-2</v>
+      </c>
+      <c r="Z4" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="AA4" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="57">
         <f t="shared" si="3"/>
-        <v>4.5066882853668423E-2</v>
-      </c>
-      <c r="X4" s="63">
-        <f t="shared" si="0"/>
-        <v>0.55883404864091557</v>
-      </c>
-      <c r="Y4" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="57">
-        <f t="shared" si="4"/>
-        <v>2.5773195876288658E-2</v>
-      </c>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57" t="s">
+        <v>2.2831050228310501E-2</v>
+      </c>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AE4" s="6">
         <v>250</v>
       </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
         <v>500</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AH4" s="1">
         <v>250</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AI4" s="1">
         <v>50</v>
       </c>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+    </row>
+    <row r="5" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
@@ -10209,94 +13578,94 @@
         <v>40</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="H5" s="91" t="s">
+      <c r="J5" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="K5" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="62">
-        <v>0</v>
-      </c>
-      <c r="K5" s="62">
-        <v>0</v>
-      </c>
-      <c r="L5" s="62">
-        <v>0</v>
-      </c>
-      <c r="M5" s="62">
-        <v>0</v>
-      </c>
-      <c r="N5" s="62">
-        <v>0</v>
-      </c>
-      <c r="O5" s="62">
-        <v>2</v>
-      </c>
-      <c r="P5" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="71">
+      <c r="L5" s="116">
+        <v>0</v>
+      </c>
+      <c r="M5" s="116">
+        <v>0</v>
+      </c>
+      <c r="N5" s="116">
+        <v>0</v>
+      </c>
+      <c r="O5" s="116">
+        <v>1</v>
+      </c>
+      <c r="P5" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="116">
+        <v>0</v>
+      </c>
+      <c r="R5" s="116">
+        <v>0</v>
+      </c>
+      <c r="S5" s="71">
         <v>250</v>
       </c>
-      <c r="R5" s="71">
-        <f t="array" ref="R5">SUMPRODUCT(J5:P5,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
-        <v>447.36</v>
-      </c>
-      <c r="S5" s="61">
+      <c r="T5" s="71">
+        <f t="array" ref="T5">SUMPRODUCT(L5:R5,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U5" s="61">
         <f t="shared" si="2"/>
-        <v>1.2667207134171057</v>
-      </c>
-      <c r="T5" s="62">
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="V5" s="62">
         <f>B21*1000/(3*10^8)</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="U5" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V5" s="62">
-        <f t="array" ref="V5">SUMPRODUCT(M5:P5, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R5</f>
+      <c r="W5" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X5" s="62">
+        <f t="array" ref="X5">SUMPRODUCT(O5:R5, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T5</f>
         <v>1</v>
       </c>
-      <c r="W5" s="62">
+      <c r="Y5" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9901140684410644E-2</v>
+      </c>
+      <c r="Z5" s="63">
+        <f t="shared" si="0"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="AA5" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="57">
         <f t="shared" si="3"/>
-        <v>2.3066882853668421E-2</v>
-      </c>
-      <c r="X5" s="63">
-        <f t="shared" si="0"/>
-        <v>0.55883404864091557</v>
-      </c>
-      <c r="Y5" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="57">
-        <f t="shared" si="4"/>
-        <v>2.5773195876288658E-2</v>
-      </c>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57" t="s">
+        <v>2.2831050228310501E-2</v>
+      </c>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AE5" s="1">
         <v>250</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>500</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
       </c>
       <c r="AF5" s="1">
         <v>500</v>
       </c>
       <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AI5" s="1">
         <v>250</v>
       </c>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-    </row>
-    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+    </row>
+    <row r="6" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
@@ -10304,262 +13673,253 @@
         <v>37</v>
       </c>
       <c r="D6" s="57"/>
-      <c r="H6" s="91" t="s">
+      <c r="J6" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="K6" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="62">
+      <c r="L6" s="116">
+        <v>0</v>
+      </c>
+      <c r="M6" s="116">
+        <v>0</v>
+      </c>
+      <c r="N6" s="116">
+        <v>0</v>
+      </c>
+      <c r="O6" s="116">
+        <v>0</v>
+      </c>
+      <c r="P6" s="116">
         <v>2</v>
       </c>
-      <c r="K6" s="62">
-        <v>0</v>
-      </c>
-      <c r="L6" s="62">
-        <v>0</v>
-      </c>
-      <c r="M6" s="62">
-        <v>0</v>
-      </c>
-      <c r="N6" s="62">
-        <v>0</v>
-      </c>
-      <c r="O6" s="62">
-        <v>0</v>
-      </c>
-      <c r="P6" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="71">
-        <v>500</v>
-      </c>
-      <c r="R6" s="71">
-        <f t="array" ref="R6">SUMPRODUCT(J6:P6,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
-        <v>2000</v>
-      </c>
-      <c r="S6" s="61">
+      <c r="Q6" s="116">
+        <v>0</v>
+      </c>
+      <c r="R6" s="116">
+        <v>0</v>
+      </c>
+      <c r="S6" s="71">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="71">
+        <f t="array" ref="T6">SUMPRODUCT(L6:R6,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>1552</v>
+      </c>
+      <c r="U6" s="61">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T6" s="62">
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="V6" s="62">
         <f>D21*1000/(3*10^8)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="U6" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V6" s="62">
-        <f t="array" ref="V6">SUMPRODUCT(M6:P6, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R6</f>
-        <v>0</v>
-      </c>
       <c r="W6" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X6" s="62">
+        <f t="array" ref="X6">SUMPRODUCT(O6:R6, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T6</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="62">
+        <f t="shared" si="4"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="Z6" s="63">
+        <f t="shared" si="0"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="AA6" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="57">
         <f t="shared" si="3"/>
-        <v>0.54066666666666674</v>
-      </c>
-      <c r="X6" s="63">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="Y6" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="57">
-        <f t="shared" si="4"/>
-        <v>5.1546391752577317E-2</v>
-      </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57" t="s">
+        <v>9.1324200913242004E-2</v>
+      </c>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <v>250</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <v>500</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AG6" s="1">
         <v>500</v>
       </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
         <v>250</v>
       </c>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-    </row>
-    <row r="7" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+    </row>
+    <row r="7" spans="1:37" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="57"/>
-      <c r="H7" s="91" t="s">
+      <c r="J7" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="K7" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="62">
-        <v>0</v>
-      </c>
-      <c r="K7" s="62">
-        <v>0</v>
-      </c>
-      <c r="L7" s="62">
-        <v>0</v>
-      </c>
-      <c r="M7" s="62">
-        <v>2</v>
-      </c>
-      <c r="N7" s="62">
-        <v>0</v>
-      </c>
-      <c r="O7" s="62">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="71">
-        <v>500</v>
-      </c>
-      <c r="R7" s="71">
-        <f t="array" ref="R7">SUMPRODUCT(J7:P7,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
-        <v>1552</v>
-      </c>
-      <c r="S7" s="61">
+      <c r="L7" s="116">
+        <v>0</v>
+      </c>
+      <c r="M7" s="116">
+        <v>0</v>
+      </c>
+      <c r="N7" s="116">
+        <v>0</v>
+      </c>
+      <c r="O7" s="116">
+        <v>0</v>
+      </c>
+      <c r="P7" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="116">
+        <v>0</v>
+      </c>
+      <c r="R7" s="116">
+        <v>0</v>
+      </c>
+      <c r="S7" s="71">
+        <v>0</v>
+      </c>
+      <c r="T7" s="71">
+        <v>0</v>
+      </c>
+      <c r="U7" s="61">
+        <v>0</v>
+      </c>
+      <c r="V7" s="62">
+        <v>0</v>
+      </c>
+      <c r="W7" s="62">
+        <v>0</v>
+      </c>
+      <c r="X7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="57">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>250</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+    </row>
+    <row r="8" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="116">
+        <v>0</v>
+      </c>
+      <c r="M8" s="116">
+        <v>0</v>
+      </c>
+      <c r="N8" s="116">
+        <v>0</v>
+      </c>
+      <c r="O8" s="116">
+        <v>1</v>
+      </c>
+      <c r="P8" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="116">
+        <v>0</v>
+      </c>
+      <c r="R8" s="116">
+        <v>0</v>
+      </c>
+      <c r="S8" s="71">
+        <v>250</v>
+      </c>
+      <c r="T8" s="71">
+        <f t="array" ref="T8">SUMPRODUCT(L8:R8,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>776</v>
+      </c>
+      <c r="U8" s="61">
         <f t="shared" si="2"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="T7" s="62">
-        <f>E22*1000/(3*10^8)</f>
-        <v>3.7333333333333336E-2</v>
-      </c>
-      <c r="U7" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V7" s="62">
-        <f t="array" ref="V7">SUMPRODUCT(M7:P7, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R7</f>
+      <c r="V8" s="62">
+        <f>F22*1000/(3*10^8)</f>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="W8" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X8" s="62">
+        <f t="array" ref="X8">SUMPRODUCT(O8:R8, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T8</f>
         <v>1</v>
       </c>
-      <c r="W7" s="62">
-        <f t="shared" si="3"/>
-        <v>3.8283903675538661E-2</v>
-      </c>
-      <c r="X7" s="63">
+      <c r="Y8" s="62">
+        <f t="shared" si="4"/>
+        <v>1.723447401774398E-2</v>
+      </c>
+      <c r="Z8" s="63">
         <f t="shared" si="0"/>
         <v>0.32216494845360827</v>
       </c>
-      <c r="Y7" s="57">
+      <c r="AA8" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="57">
-        <f t="shared" si="4"/>
-        <v>5.1546391752577317E-2</v>
-      </c>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>250</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>250</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-    </row>
-    <row r="8" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="62">
-        <v>0</v>
-      </c>
-      <c r="K8" s="62">
-        <v>0</v>
-      </c>
-      <c r="L8" s="62">
-        <v>0</v>
-      </c>
-      <c r="M8" s="62">
-        <v>1</v>
-      </c>
-      <c r="N8" s="62">
-        <v>0</v>
-      </c>
-      <c r="O8" s="62">
-        <v>0</v>
-      </c>
-      <c r="P8" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="71">
-        <v>250</v>
-      </c>
-      <c r="R8" s="71">
-        <f t="array" ref="R8">SUMPRODUCT(J8:P8,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
-        <v>776</v>
-      </c>
-      <c r="S8" s="61">
-        <f t="shared" si="2"/>
-        <v>0.47528517110266161</v>
-      </c>
-      <c r="T8" s="62">
-        <f>F22*1000/(3*10^8)</f>
-        <v>1.5333333333333332E-2</v>
-      </c>
-      <c r="U8" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V8" s="62">
-        <f t="array" ref="V8">SUMPRODUCT(M8:P8, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R8</f>
-        <v>1</v>
-      </c>
-      <c r="W8" s="62">
+      <c r="AB8" s="57">
         <f t="shared" si="3"/>
-        <v>1.723447401774398E-2</v>
-      </c>
-      <c r="X8" s="63">
-        <f t="shared" si="0"/>
-        <v>0.32216494845360827</v>
-      </c>
-      <c r="Y8" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="57">
-        <f t="shared" si="4"/>
-        <v>2.5773195876288658E-2</v>
-      </c>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
+        <v>2.2831050228310501E-2</v>
+      </c>
       <c r="AC8" s="57"/>
       <c r="AD8" s="57"/>
       <c r="AE8" s="57"/>
@@ -10567,8 +13927,10 @@
       <c r="AG8" s="57"/>
       <c r="AH8" s="57"/>
       <c r="AI8" s="57"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+    </row>
+    <row r="9" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -10581,86 +13943,86 @@
       <c r="D9" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="J9" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="K9" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="62">
-        <v>0</v>
-      </c>
-      <c r="K9" s="62">
-        <v>0</v>
-      </c>
-      <c r="L9" s="62">
-        <v>0</v>
-      </c>
-      <c r="M9" s="62">
-        <v>1</v>
-      </c>
-      <c r="N9" s="62">
-        <v>0</v>
-      </c>
-      <c r="O9" s="62">
-        <v>0</v>
-      </c>
-      <c r="P9" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="71">
-        <v>500</v>
-      </c>
-      <c r="R9" s="71">
-        <f t="array" ref="R9">SUMPRODUCT(J9:P9,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
-        <v>776</v>
-      </c>
-      <c r="S9" s="61">
+      <c r="L9" s="116">
+        <v>0</v>
+      </c>
+      <c r="M9" s="116">
+        <v>0</v>
+      </c>
+      <c r="N9" s="116">
+        <v>0</v>
+      </c>
+      <c r="O9" s="116">
+        <v>2</v>
+      </c>
+      <c r="P9" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="116">
+        <v>0</v>
+      </c>
+      <c r="R9" s="116">
+        <v>0</v>
+      </c>
+      <c r="S9" s="71">
+        <v>1200</v>
+      </c>
+      <c r="T9" s="71">
+        <f t="array" ref="T9">SUMPRODUCT(L9:R9,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>1552</v>
+      </c>
+      <c r="U9" s="61">
         <f t="shared" si="2"/>
-        <v>1.8115942028985508</v>
-      </c>
-      <c r="T9" s="62">
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="V9" s="62">
         <f>C23*1000/(3*10^8)</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="U9" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V9" s="62">
-        <f t="array" ref="V9">SUMPRODUCT(M9:P9, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R9</f>
+      <c r="W9" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X9" s="62">
+        <f t="array" ref="X9">SUMPRODUCT(O9:R9, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T9</f>
         <v>1</v>
       </c>
-      <c r="W9" s="62">
+      <c r="Y9" s="62">
+        <f t="shared" si="4"/>
+        <v>1.1174242424242423E-2</v>
+      </c>
+      <c r="Z9" s="63">
+        <f t="shared" si="0"/>
+        <v>0.77319587628865982</v>
+      </c>
+      <c r="AA9" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="57">
         <f t="shared" si="3"/>
-        <v>1.1956521739130435E-2</v>
-      </c>
-      <c r="X9" s="63">
-        <f t="shared" si="0"/>
-        <v>0.64432989690721654</v>
-      </c>
-      <c r="Y9" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="57">
-        <f t="shared" si="4"/>
-        <v>5.1546391752577317E-2</v>
-      </c>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57" t="s">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AC9" s="57" t="s">
+      <c r="AE9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
       <c r="AF9" s="57"/>
       <c r="AG9" s="57"/>
       <c r="AH9" s="57"/>
       <c r="AI9" s="57"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+    </row>
+    <row r="10" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -10673,86 +14035,81 @@
       <c r="D10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="J10" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="K10" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="62">
-        <v>0</v>
-      </c>
-      <c r="K10" s="62">
-        <v>0</v>
-      </c>
-      <c r="L10" s="62">
+      <c r="L10" s="116">
+        <v>0</v>
+      </c>
+      <c r="M10" s="116">
+        <v>0</v>
+      </c>
+      <c r="N10" s="116">
+        <v>0</v>
+      </c>
+      <c r="O10" s="116">
+        <v>0</v>
+      </c>
+      <c r="P10" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="116">
+        <v>0</v>
+      </c>
+      <c r="R10" s="116">
+        <v>0</v>
+      </c>
+      <c r="S10" s="71">
+        <v>0</v>
+      </c>
+      <c r="T10" s="71">
+        <f t="array" ref="T10">SUMPRODUCT(L10:R10,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="61">
+        <v>0</v>
+      </c>
+      <c r="V10" s="62">
+        <v>0</v>
+      </c>
+      <c r="W10" s="62">
+        <v>0</v>
+      </c>
+      <c r="X10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="57">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M10" s="62">
-        <v>0</v>
-      </c>
-      <c r="N10" s="62">
-        <v>0</v>
-      </c>
-      <c r="O10" s="62">
-        <v>0</v>
-      </c>
-      <c r="P10" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="71">
-        <v>200</v>
-      </c>
-      <c r="R10" s="71">
-        <f t="array" ref="R10">SUMPRODUCT(J10:P10,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
-        <v>250</v>
-      </c>
-      <c r="S10" s="61">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="T10" s="62">
-        <f>C24*1000/(3*10^8)</f>
-        <v>2.7333333333333334E-2</v>
-      </c>
-      <c r="U10" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V10" s="62">
-        <f t="array" ref="V10">SUMPRODUCT(M10:P10, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R10</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="62">
+      <c r="AB10" s="57">
         <f t="shared" si="3"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="X10" s="63">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="Y10" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="57">
-        <f t="shared" si="4"/>
-        <v>2.0618556701030927E-2</v>
-      </c>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="54">
+      <c r="AE10" s="54">
         <v>20</v>
       </c>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
       <c r="AF10" s="57"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="57"/>
       <c r="AI10" s="57"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+    </row>
+    <row r="11" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -10765,86 +14122,86 @@
       <c r="D11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="J11" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="K11" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="62">
-        <v>0</v>
-      </c>
-      <c r="K11" s="62">
-        <v>0</v>
-      </c>
-      <c r="L11" s="62">
-        <v>0</v>
-      </c>
-      <c r="M11" s="62">
+      <c r="L11" s="116">
         <v>2</v>
       </c>
-      <c r="N11" s="62">
-        <v>0</v>
-      </c>
-      <c r="O11" s="62">
-        <v>0</v>
-      </c>
-      <c r="P11" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="71">
-        <v>1000</v>
-      </c>
-      <c r="R11" s="71">
-        <f t="array" ref="R11">SUMPRODUCT(J11:P11,TRANSPOSE($AC$10:$AC$16))*1000000/20000</f>
-        <v>1552</v>
-      </c>
-      <c r="S11" s="61">
+      <c r="M11" s="116">
+        <v>0</v>
+      </c>
+      <c r="N11" s="116">
+        <v>0</v>
+      </c>
+      <c r="O11" s="116">
+        <v>0</v>
+      </c>
+      <c r="P11" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="116">
+        <v>0</v>
+      </c>
+      <c r="R11" s="116">
+        <v>0</v>
+      </c>
+      <c r="S11" s="71">
+        <v>1200</v>
+      </c>
+      <c r="T11" s="71">
+        <f t="array" ref="T11">SUMPRODUCT(L11:R11,TRANSPOSE($AE$10:$AE$16))*1000000/20000</f>
+        <v>2000</v>
+      </c>
+      <c r="U11" s="61">
         <f t="shared" si="2"/>
-        <v>1.8115942028985508</v>
-      </c>
-      <c r="T11" s="62">
+        <v>1.5</v>
+      </c>
+      <c r="V11" s="62">
         <f>E24*1000/(3*10^8)</f>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="U11" s="62">
-        <v>0.54</v>
-      </c>
-      <c r="V11" s="62">
-        <f t="array" ref="V11">SUMPRODUCT(M11:P11, TRANSPOSE($AC$13:$AC$16))*(1000000/20000)/R11</f>
-        <v>1</v>
-      </c>
       <c r="W11" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="X11" s="62">
+        <f t="array" ref="X11">SUMPRODUCT(O11:R11, TRANSPOSE($AE$13:$AE$16))*(1000000/20000)/T11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="62">
+        <f t="shared" si="4"/>
+        <v>0.24124999999999999</v>
+      </c>
+      <c r="Z11" s="63">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA11" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="57">
         <f t="shared" si="3"/>
-        <v>2.3811594202898551E-2</v>
-      </c>
-      <c r="X11" s="63">
-        <f t="shared" si="0"/>
-        <v>0.64432989690721654</v>
-      </c>
-      <c r="Y11" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="57">
-        <f t="shared" si="4"/>
-        <v>0.10309278350515463</v>
-      </c>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57" t="s">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AC11" s="54">
+      <c r="AE11" s="54">
         <v>20</v>
       </c>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
       <c r="AF11" s="57"/>
       <c r="AG11" s="57"/>
       <c r="AH11" s="57"/>
       <c r="AI11" s="57"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -10857,58 +14214,58 @@
       <c r="D12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="65"/>
       <c r="L12" s="65"/>
       <c r="M12" s="65"/>
       <c r="N12" s="65"/>
       <c r="O12" s="65"/>
       <c r="P12" s="65"/>
-      <c r="Q12" s="72">
-        <f>SUM(Q2:Q11)</f>
-        <v>6950</v>
-      </c>
-      <c r="R12" s="72">
-        <f>SUM(R2:R11)</f>
-        <v>12352.4</v>
-      </c>
-      <c r="S12" s="64">
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="72">
+        <f>SUM(S2:S11)</f>
+        <v>7650</v>
+      </c>
+      <c r="T12" s="72">
+        <f>SUM(T2:T11)</f>
+        <v>11983.68</v>
+      </c>
+      <c r="U12" s="64">
         <f t="shared" si="2"/>
-        <v>1.2864652746927292</v>
-      </c>
-      <c r="T12" s="62"/>
-      <c r="U12" s="65"/>
+        <v>1.7652433959129423</v>
+      </c>
       <c r="V12" s="62"/>
-      <c r="W12" s="65">
-        <f>1/(R12-Q12)</f>
-        <v>1.8510291722197543E-4</v>
-      </c>
-      <c r="X12" s="66">
+      <c r="W12" s="65"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="65">
+        <f>1/(T12-S12)</f>
+        <v>2.3075077070757415E-4</v>
+      </c>
+      <c r="Z12" s="66">
         <f t="shared" si="0"/>
-        <v>0.56264369677147763</v>
-      </c>
-      <c r="Y12" s="57">
+        <v>0.63836818072578705</v>
+      </c>
+      <c r="AA12" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57" t="s">
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AC12" s="54">
+      <c r="AE12" s="54">
         <v>5</v>
       </c>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
       <c r="AF12" s="57"/>
       <c r="AG12" s="57"/>
       <c r="AH12" s="57"/>
       <c r="AI12" s="57"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -10921,40 +14278,38 @@
       <c r="D13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="57">
-        <f t="shared" ref="J13:P13" si="5">SUM(J2:J11)</f>
+      <c r="L13" s="57">
+        <f t="shared" ref="L13:R13" si="5">SUM(L2:L11)</f>
         <v>4</v>
       </c>
-      <c r="K13" s="57">
+      <c r="M13" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L13" s="57">
+      <c r="N13" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="57">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="P13" s="57">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="57">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M13" s="57">
+      <c r="R13" s="57">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="N13" s="57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="57">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P13" s="57">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
+        <v>0</v>
+      </c>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
       <c r="U13" s="57"/>
@@ -10964,20 +14319,22 @@
       <c r="Y13" s="57"/>
       <c r="Z13" s="57"/>
       <c r="AA13" s="57"/>
-      <c r="AB13" s="57" t="s">
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="54">
+      <c r="AE13" s="54">
         <v>15.52</v>
       </c>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
       <c r="AF13" s="57"/>
       <c r="AG13" s="57"/>
       <c r="AH13" s="57"/>
       <c r="AI13" s="57"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -10990,8 +14347,6 @@
       <c r="D14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
       <c r="L14" s="57"/>
@@ -11010,20 +14365,22 @@
       <c r="Y14" s="57"/>
       <c r="Z14" s="57"/>
       <c r="AA14" s="57"/>
-      <c r="AB14" s="57" t="s">
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="54">
+      <c r="AE14" s="54">
         <v>15.52</v>
       </c>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
       <c r="AF14" s="57"/>
       <c r="AG14" s="57"/>
       <c r="AH14" s="57"/>
       <c r="AI14" s="57"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -11036,15 +14393,13 @@
       <c r="D15" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="106" t="s">
+      <c r="J15" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
@@ -11053,47 +14408,47 @@
       <c r="T15" s="57"/>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
-      <c r="W15" s="57" t="s">
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="X15" s="57">
-        <f>SUMPRODUCT(Z2:Z11,W2:W11)+SUMPRODUCT(P41:P50,R41:R50)</f>
-        <v>0.36852183435804931</v>
-      </c>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
+      <c r="Z15" s="57">
+        <f>SUMPRODUCT(AB2:AB11,Y2:Y11)+SUMPRODUCT(R41:R50,T41:T50)</f>
+        <v>9.8497800863518531E-2</v>
+      </c>
       <c r="AA15" s="57"/>
-      <c r="AB15" s="57" t="s">
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AC15" s="54">
+      <c r="AE15" s="54">
         <v>4.4736000000000002</v>
       </c>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
       <c r="AF15" s="57"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D16" s="57"/>
-      <c r="H16" s="57" t="s">
+      <c r="J16" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="74">
-        <f>SUM(J2:J11)*60000000*0+SUM(K2:K11)*40000000</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="74" t="s">
+      <c r="K16" s="74">
+        <f>SUM(L2:L11)*60000000*0+SUM(M2:M11)*40000000</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="74">
-        <f>J13*8000+K13*8000+L13*500000+M13*5000+N13*700000+O13*5000+P13*500000</f>
-        <v>1592000</v>
-      </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="M16" s="74">
+        <f>L13*8000+M13*8000+N13*500000+O13*5000+P13*700000+Q13*5000+R13*500000</f>
+        <v>2172000</v>
+      </c>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
       <c r="Q16" s="57"/>
@@ -11102,36 +14457,41 @@
       <c r="T16" s="57"/>
       <c r="U16" s="57"/>
       <c r="V16" s="57"/>
-      <c r="W16" s="57" t="s">
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="57">
-        <f>X15*1000</f>
-        <v>368.52183435804932</v>
-      </c>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="Z16" s="57">
+        <f>Z15*1000</f>
+        <v>98.497800863518535</v>
+      </c>
       <c r="AA16" s="57"/>
-      <c r="AB16" s="57" t="s">
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AC16" s="54">
+      <c r="AE16" s="54">
         <v>4.4736000000000002</v>
       </c>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
       <c r="AF16" s="57"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="57"/>
       <c r="AI16" s="57"/>
-    </row>
-    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+    </row>
+    <row r="17" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="74"/>
-      <c r="L17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
+      <c r="J17" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="74">
+        <f>3*8000+N13*500000</f>
+        <v>24000</v>
+      </c>
+      <c r="N17" s="57"/>
       <c r="AC17" s="57"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
@@ -11139,29 +14499,31 @@
       <c r="AG17" s="57"/>
       <c r="AH17" s="57"/>
       <c r="AI17" s="57"/>
-    </row>
-    <row r="18" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="98" t="s">
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+    </row>
+    <row r="18" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="55"/>
-      <c r="I18" s="74"/>
-      <c r="J18" t="s">
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="K18" s="74"/>
+      <c r="L18" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="75">
-        <f>SUM(J2:P11)*20000</f>
-        <v>380000</v>
-      </c>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
+      <c r="M18" s="75">
+        <f>SUM(L2:R11)*20000</f>
+        <v>300000</v>
+      </c>
       <c r="AC18" s="57"/>
       <c r="AD18" s="57"/>
       <c r="AE18" s="57"/>
@@ -11169,9 +14531,11 @@
       <c r="AG18" s="57"/>
       <c r="AH18" s="57"/>
       <c r="AI18" s="57"/>
-    </row>
-    <row r="19" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+    </row>
+    <row r="19" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="108"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -11188,10 +14552,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="55"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="74"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="74"/>
       <c r="AC19" s="57"/>
       <c r="AD19" s="57"/>
       <c r="AE19" s="57"/>
@@ -11199,8 +14563,10 @@
       <c r="AG19" s="57"/>
       <c r="AH19" s="57"/>
       <c r="AI19" s="57"/>
-    </row>
-    <row r="20" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+    </row>
+    <row r="20" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
@@ -11219,14 +14585,17 @@
       <c r="F20" s="9">
         <v>12000</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="74"/>
-      <c r="W20" t="s">
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="74"/>
+      <c r="Y20" t="s">
         <v>81</v>
       </c>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
+      <c r="AB20" t="s">
+        <v>132</v>
+      </c>
       <c r="AC20" s="57"/>
       <c r="AD20" s="57"/>
       <c r="AE20" s="57"/>
@@ -11234,8 +14603,10 @@
       <c r="AG20" s="57"/>
       <c r="AH20" s="57"/>
       <c r="AI20" s="57"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -11255,18 +14626,21 @@
         <v>8200</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="74"/>
-      <c r="K21" s="75"/>
-      <c r="W21" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="Y21" t="s">
         <v>82</v>
       </c>
-      <c r="X21" s="96">
-        <f>L35/6000000</f>
-        <v>159.89333333333335</v>
-      </c>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
+      <c r="Z21" s="96">
+        <f>N35/6000000</f>
+        <v>130.21333333333334</v>
+      </c>
+      <c r="AB21">
+        <v>197.59333333333333</v>
+      </c>
       <c r="AC21" s="57"/>
       <c r="AD21" s="57"/>
       <c r="AE21" s="57"/>
@@ -11274,8 +14648,10 @@
       <c r="AG21" s="57"/>
       <c r="AH21" s="57"/>
       <c r="AI21" s="57"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="57"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>4</v>
       </c>
@@ -11295,14 +14671,17 @@
         <v>4600</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="W22" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Y22" t="s">
         <v>83</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
       <c r="AC22" s="57"/>
       <c r="AD22" s="57"/>
       <c r="AE22" s="57"/>
@@ -11310,8 +14689,10 @@
       <c r="AG22" s="57"/>
       <c r="AH22" s="57"/>
       <c r="AI22" s="57"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>5</v>
       </c>
@@ -11331,16 +14712,19 @@
         <v>6600</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="L23" s="95"/>
-      <c r="W23" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="N23" s="95"/>
+      <c r="Y23" t="s">
         <v>126</v>
       </c>
-      <c r="X23">
-        <f>X16*0.1</f>
-        <v>36.852183435804932</v>
-      </c>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
+      <c r="Z23">
+        <f>Z16*0.1</f>
+        <v>9.8497800863518545</v>
+      </c>
+      <c r="AB23">
+        <v>26.992846461027423</v>
+      </c>
       <c r="AC23" s="57"/>
       <c r="AD23" s="57"/>
       <c r="AE23" s="57"/>
@@ -11348,8 +14732,10 @@
       <c r="AG23" s="57"/>
       <c r="AH23" s="57"/>
       <c r="AI23" s="57"/>
-    </row>
-    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="57"/>
+    </row>
+    <row r="24" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -11368,32 +14754,35 @@
       <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" t="s">
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" t="s">
         <v>88</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>123</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>118</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>120</v>
       </c>
-      <c r="M24" s="75">
-        <f>N13*700000+P13*500000</f>
-        <v>1000000</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="O24" s="75">
+        <f>P13*700000+R13*500000</f>
+        <v>2100000</v>
+      </c>
+      <c r="Y24" t="s">
         <v>85</v>
       </c>
-      <c r="X24" s="76">
-        <f>SUM(X21:X23)</f>
-        <v>196.74551676913828</v>
-      </c>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="57"/>
+      <c r="Z24" s="76">
+        <f>SUM(Z21:Z23)</f>
+        <v>160.06311341968518</v>
+      </c>
+      <c r="AB24">
+        <v>224.58617979436076</v>
+      </c>
       <c r="AC24" s="57"/>
       <c r="AD24" s="57"/>
       <c r="AE24" s="57"/>
@@ -11401,36 +14790,38 @@
       <c r="AG24" s="57"/>
       <c r="AH24" s="57"/>
       <c r="AI24" s="57"/>
-    </row>
-    <row r="25" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+    </row>
+    <row r="25" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="57">
-        <f>IF(NOT((M2+O2)=0), 1, 0)</f>
+      <c r="K25" s="57">
+        <f>IF(NOT((O2+Q2)=0), 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="J25" s="78">
-        <f>10000*$D$20*I25</f>
+      <c r="L25" s="78">
+        <f>10000*$D$20*K25</f>
         <v>140000000</v>
       </c>
-      <c r="K25" s="78">
-        <f>((M2*4000+O2*2000)*$D$20)</f>
+      <c r="M25" s="78">
+        <f>((O2*4000+Q2*2000)*$D$20)</f>
         <v>196000000</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="N25" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="M25" s="75">
-        <f>M13*5000+O13*5000</f>
-        <v>60000</v>
-      </c>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
+      <c r="O25" s="75">
+        <f>O13*5000+Q13*5000</f>
+        <v>40000</v>
+      </c>
       <c r="AD25" s="57"/>
       <c r="AE25" s="57"/>
       <c r="AF25" s="57"/>
@@ -11438,39 +14829,41 @@
       <c r="AH25" s="57"/>
       <c r="AI25" s="57"/>
       <c r="AJ25" s="57"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="57">
-        <f t="shared" ref="I26:I34" si="6">IF(NOT((M3+O3)=0), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="78">
-        <f>I26*10000*$E$20</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="78">
-        <f>((M3*4000+O3*2000)*E20)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="K26" s="57">
+        <f t="shared" ref="K26:K34" si="6">IF(NOT((O3+Q3)=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="78">
+        <f>K26*10000*$E$20</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="78">
+        <f>((O3*4000+Q3*2000)*E20)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="75">
-        <f>SUM(J13:P13)*2*20000</f>
-        <v>760000</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" s="75">
+        <f>SUM(L13:R13)*2*20000</f>
+        <v>600000</v>
+      </c>
+      <c r="P26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
       <c r="AD26" s="57"/>
       <c r="AE26" s="57"/>
       <c r="AF26" s="57"/>
@@ -11478,27 +14871,29 @@
       <c r="AH26" s="57"/>
       <c r="AI26" s="57"/>
       <c r="AJ26" s="57"/>
-    </row>
-    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="57" t="s">
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+    </row>
+    <row r="27" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="57">
+      <c r="K27" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J27" s="78">
-        <f>I27*10000*$F$20</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="78">
-        <f>((M4*4000+O4*2000)*F20)</f>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-    </row>
-    <row r="28" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="78">
+        <f>K27*10000*$F$20</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="78">
+        <f>((O4*4000+Q4*2000)*F20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+    </row>
+    <row r="28" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="79" t="s">
         <v>2</v>
       </c>
@@ -11514,25 +14909,25 @@
       <c r="E28">
         <v>157.91999999999999</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="J28" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="57">
+      <c r="K28" s="57">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J28" s="78">
-        <f>I28*10000*$B$21</f>
+      <c r="L28" s="78">
+        <f>K28*10000*$B$21</f>
         <v>54000000</v>
       </c>
-      <c r="K28" s="78">
-        <f>((M5*4000+O5*2000)*$B$21)</f>
+      <c r="M28" s="78">
+        <f>((O5*4000+Q5*2000)*$B$21)</f>
         <v>21600000</v>
       </c>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-    </row>
-    <row r="29" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+    </row>
+    <row r="29" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="82" t="s">
         <v>3</v>
       </c>
@@ -11548,25 +14943,25 @@
       <c r="E29">
         <v>104.72</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="J29" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="57">
+      <c r="K29" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J29" s="78">
-        <f>I29*10000*$D$21</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="78">
-        <f>(M6*4000+O6*2000)*$D$21</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-    </row>
-    <row r="30" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="78">
+        <f>K29*10000*$D$21</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="78">
+        <f>(O6*4000+Q6*2000)*$D$21</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+    </row>
+    <row r="30" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="82" t="s">
         <v>4</v>
       </c>
@@ -11582,137 +14977,143 @@
       <c r="E30">
         <v>51.52</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="J30" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="57">
+      <c r="K30" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="78">
+        <f>K30*10000*$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="78">
+        <f>(O7*4000+Q7*2000)*$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+    </row>
+    <row r="31" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>36.9</v>
+      </c>
+      <c r="E31">
+        <v>76.2</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="57">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J30" s="78">
-        <f>I30*10000*$E$22</f>
-        <v>112000000</v>
-      </c>
-      <c r="K30" s="78">
-        <f>(M7*4000+O7*2000)*$E$22</f>
-        <v>89600000</v>
-      </c>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-    </row>
-    <row r="31" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31">
-        <v>36.9</v>
-      </c>
-      <c r="E31">
-        <v>76.2</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="57">
+      <c r="L31" s="78">
+        <f>K31*10000*$F$22</f>
+        <v>46000000</v>
+      </c>
+      <c r="M31" s="78">
+        <f>(O8*4000+Q8*2000)*$F$22</f>
+        <v>18400000</v>
+      </c>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+    </row>
+    <row r="32" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>49.57</v>
+      </c>
+      <c r="E32">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="57">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J31" s="78">
-        <f>I31*10000*$F$22</f>
-        <v>46000000</v>
-      </c>
-      <c r="K31" s="78">
-        <f>(M8*4000+O8*2000)*$F$22</f>
-        <v>18400000</v>
-      </c>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-    </row>
-    <row r="32" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32">
-        <v>49.57</v>
-      </c>
-      <c r="E32">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="57">
+      <c r="L32" s="78">
+        <f>K32*10000*$C$23</f>
+        <v>25000000</v>
+      </c>
+      <c r="M32" s="78">
+        <f>(O9*4000+Q9*2000)*$C$23</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="57">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="78">
-        <f>I32*10000*$C$23</f>
-        <v>25000000</v>
-      </c>
-      <c r="K32" s="78">
-        <f>(M9*4000+O9*2000)*$C$23</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="78">
-        <f>I33*10000*$C$24</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="78">
-        <f>(M10*4000+O10*2000)*$C$24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="78">
+        <f>K33*10000*$C$24</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="78">
+        <f>(O10*4000+Q10*2000)*$C$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="88" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="57" t="s">
+      <c r="E34" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="I34" s="57">
+      <c r="K34" s="57">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="78">
-        <f>I34*10000*$E$24</f>
-        <v>66000000</v>
-      </c>
-      <c r="K34" s="78">
-        <f>(M11*4000+O11*2000)*$E$24</f>
-        <v>52800000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L34" s="78">
+        <f>K34*10000*$E$24</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="78">
+        <f>(O11*4000+Q11*2000)*$E$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>2</v>
       </c>
@@ -11720,20 +15121,32 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>21.33</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
+        <v>157.91999999999999</v>
+      </c>
+      <c r="E35">
+        <v>39400</v>
+      </c>
+      <c r="F35">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G35">
+        <v>46738</v>
+      </c>
+      <c r="H35">
+        <v>0.312</v>
+      </c>
+      <c r="M35" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="78">
-        <f>I37+SUM(M24:M25)*120+M26</f>
-        <v>959360000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N35" s="78">
+        <f>K37+SUM(O24:O25)*120+O26+K17*120</f>
+        <v>781280000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>3</v>
       </c>
@@ -11741,14 +15154,26 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>38.82</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="H36" s="57"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>104.72</v>
+      </c>
+      <c r="E36">
+        <v>37428</v>
+      </c>
+      <c r="F36">
+        <v>0.249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="57"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>4</v>
       </c>
@@ -11756,20 +15181,32 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>25.3</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="57" t="s">
+        <v>51.52</v>
+      </c>
+      <c r="E37">
+        <v>38680</v>
+      </c>
+      <c r="F37">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G37">
+        <v>37411</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="J37" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="I37" s="78">
-        <f>SUM(J25:K34)+I16</f>
-        <v>831400000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K37" s="78">
+        <f>SUM(L25:M34)+K16</f>
+        <v>521000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>5</v>
       </c>
@@ -11777,14 +15214,26 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>36.9</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="H38" s="57"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76.2</v>
+      </c>
+      <c r="E38">
+        <v>37748</v>
+      </c>
+      <c r="F38">
+        <v>0.252</v>
+      </c>
+      <c r="G38">
+        <v>39661</v>
+      </c>
+      <c r="H38">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J38" s="57"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>6</v>
       </c>
@@ -11792,522 +15241,560 @@
         <v>37</v>
       </c>
       <c r="C39">
+        <v>49.57</v>
+      </c>
+      <c r="D39">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39">
+        <v>38444</v>
+      </c>
+      <c r="H39">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J39" s="57"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>65</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
         <v>66</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>42</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" t="s">
         <v>124</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
         <v>112</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>113</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>125</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>41</v>
       </c>
-      <c r="R40" t="s">
+      <c r="T40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H41" s="91" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="J41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="92" t="s">
+      <c r="K41" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>250</v>
-      </c>
-      <c r="K41">
-        <f>R2</f>
-        <v>2551.6799999999998</v>
-      </c>
-      <c r="L41">
-        <f>1/(K41-J41)</f>
-        <v>4.3446526015779779E-4</v>
       </c>
       <c r="M41">
         <f>T2</f>
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="N41">
+        <f>L41/(M41-L41)</f>
+        <v>0.10861631503944945</v>
+      </c>
+      <c r="O41">
+        <f>V2</f>
         <v>4.6666666666666669E-2</v>
       </c>
-      <c r="N41">
-        <f t="shared" ref="N41:O51" si="7">U2</f>
-        <v>0.54</v>
-      </c>
-      <c r="O41">
+      <c r="P41">
+        <f t="shared" ref="P41:Q51" si="7">W2</f>
+        <v>0.24</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P41">
-        <f>J41/(K41-J41)+O41*M41+(1-O41)*N41</f>
-        <v>0.15528298170611612</v>
-      </c>
-      <c r="Q41">
-        <f>J41/K41</f>
+      <c r="R41">
+        <f>1/(M41-L41)+Q41*O41+(1-Q41)*P41</f>
+        <v>4.7101131926824469E-2</v>
+      </c>
+      <c r="S41">
+        <f>L41/M41</f>
         <v>9.7974667669927268E-2</v>
       </c>
-      <c r="R41">
-        <f>J41/(J451+$Q$12)</f>
-        <v>3.5971223021582732E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H42" s="91" t="s">
+      <c r="T41">
+        <f>L41/(L451+$S$12)</f>
+        <v>3.2679738562091505E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J42" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="92" t="s">
+      <c r="K42" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>250</v>
       </c>
-      <c r="K42">
-        <f t="shared" ref="K42:K50" si="8">R3</f>
+      <c r="M42">
+        <f t="shared" ref="M42:M50" si="8">T3</f>
         <v>2000</v>
       </c>
-      <c r="L42">
-        <f t="shared" ref="L42:L51" si="9">1/(K42-J42)</f>
-        <v>5.7142857142857147E-4</v>
-      </c>
-      <c r="M42">
-        <f t="shared" ref="M42:M51" si="10">T3</f>
+      <c r="N42">
+        <f t="shared" ref="N42:N51" si="9">L42/(M42-L42)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O51" si="10">V3</f>
         <v>2.6333333333333334E-2</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O42">
+        <v>0.24</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P42">
-        <f t="shared" ref="P42:P51" si="11">J42/(K42-J42)+O42*M42+(1-O42)*N42</f>
-        <v>0.68285714285714283</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" ref="Q42:Q51" si="12">J42/K42</f>
+      <c r="R42">
+        <f t="shared" ref="R42:R51" si="11">1/(M42-L42)+Q42*O42+(1-Q42)*P42</f>
+        <v>0.24057142857142857</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S51" si="12">L42/M42</f>
         <v>0.125</v>
       </c>
-      <c r="R42">
-        <f t="shared" ref="R42:R50" si="13">J42/(J452+$Q$12)</f>
-        <v>3.5971223021582732E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H43" s="91" t="s">
+      <c r="T42">
+        <f t="shared" ref="T42:T50" si="13">L42/(L452+$S$12)</f>
+        <v>3.2679738562091505E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J43" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="I43" s="92" t="s">
+      <c r="K43" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>250</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <f t="shared" si="8"/>
-        <v>447.36</v>
-      </c>
-      <c r="L43">
+        <v>776</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="9"/>
-        <v>5.0668828536684233E-3</v>
-      </c>
-      <c r="M43">
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O43">
+        <v>0.24</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <f t="shared" si="11"/>
-        <v>1.3067207134171057</v>
-      </c>
-      <c r="Q43">
+        <v>4.190114068441065E-2</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="12"/>
-        <v>0.55883404864091557</v>
-      </c>
-      <c r="R43">
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="13"/>
-        <v>3.5971223021582732E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H44" s="91" t="s">
+        <v>3.2679738562091505E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J44" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="92" t="s">
+      <c r="K44" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>200</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <f t="shared" si="8"/>
-        <v>447.36</v>
-      </c>
-      <c r="L44">
+        <v>776</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="9"/>
-        <v>4.0426908150064684E-3</v>
-      </c>
-      <c r="M44">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O44">
+        <v>0.24</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <f t="shared" si="11"/>
-        <v>0.82653816300129368</v>
-      </c>
-      <c r="Q44">
+        <v>1.9736111111111111E-2</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="12"/>
-        <v>0.44706723891273248</v>
-      </c>
-      <c r="R44">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="13"/>
-        <v>2.8776978417266189E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H45" s="91" t="s">
+        <v>2.6143790849673203E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J45" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="92" t="s">
+      <c r="K45" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="J45">
-        <v>500</v>
-      </c>
-      <c r="K45">
+      <c r="L45">
+        <v>1000</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="8"/>
+        <v>1552</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="11"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="12"/>
+        <v>0.64432989690721654</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="13"/>
+        <v>0.13071895424836602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J46" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J47" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47">
+        <v>250</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="8"/>
+        <v>776</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>0.47528517110266161</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="10"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="11"/>
+        <v>1.723447401774398E-2</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="12"/>
+        <v>0.32216494845360827</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="13"/>
+        <v>3.2679738562091505E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J48" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>800</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="8"/>
+        <v>1552</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="9"/>
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="11"/>
+        <v>9.6631205673758866E-3</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="12"/>
+        <v>0.51546391752577314</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="13"/>
+        <v>0.10457516339869281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J49" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J50" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50">
+        <v>300</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="L45">
+      <c r="N50">
         <f t="shared" si="9"/>
-        <v>6.6666666666666664E-4</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="10"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="11"/>
-        <v>0.87333333333333329</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="13"/>
-        <v>7.1942446043165464E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H46" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46">
-        <v>500</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="8"/>
-        <v>1552</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="9"/>
-        <v>9.5057034220532319E-4</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="10"/>
-        <v>3.7333333333333336E-2</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="11"/>
-        <v>0.51261850443599499</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="12"/>
-        <v>0.32216494845360827</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="13"/>
-        <v>7.1942446043165464E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H47" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47">
-        <v>250</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="8"/>
-        <v>776</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="9"/>
-        <v>1.9011406844106464E-3</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="10"/>
-        <v>1.5333333333333332E-2</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="11"/>
-        <v>0.49061850443599492</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="12"/>
-        <v>0.32216494845360827</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="13"/>
-        <v>3.5971223021582732E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H48" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48">
-        <v>250</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="8"/>
-        <v>776</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="9"/>
-        <v>1.9011406844106464E-3</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="10"/>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="11"/>
-        <v>0.48361850443599497</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="12"/>
-        <v>0.32216494845360827</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="13"/>
-        <v>3.5971223021582732E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H49" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49">
-        <v>50</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="8"/>
-        <v>250</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="9"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="10"/>
-        <v>2.7333333333333334E-2</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="11"/>
-        <v>0.79</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="13"/>
-        <v>7.1942446043165471E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H50" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50">
-        <v>250</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="8"/>
-        <v>1552</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="9"/>
-        <v>7.6804915514592934E-4</v>
-      </c>
-      <c r="M50">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="10"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="O50">
+        <v>0.24</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="11"/>
-        <v>0.21401228878648232</v>
-      </c>
-      <c r="Q50">
+        <v>0.24058823529411763</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="12"/>
-        <v>0.16108247422680413</v>
-      </c>
-      <c r="R50">
+        <v>0.15</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="13"/>
-        <v>3.5971223021582732E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="J51">
-        <f>SUM(J41:J50)</f>
-        <v>2750</v>
-      </c>
-      <c r="K51">
-        <f>SUM(K41:K50)</f>
-        <v>12352.4</v>
-      </c>
+        <v>3.9215686274509803E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L51">
+        <f>SUM(L41:L50)</f>
+        <v>3300</v>
+      </c>
+      <c r="M51">
+        <f>SUM(M41:M50)</f>
+        <v>11983.68</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="9"/>
-        <v>1.0414063150878948E-4</v>
-      </c>
-      <c r="M51">
+        <v>0.38002321596373884</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <f t="shared" si="11"/>
-        <v>0.28638673664917103</v>
-      </c>
-      <c r="Q51">
+        <v>1.1515855029204207E-4</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="12"/>
-        <v>0.2226288008808005</v>
-      </c>
-      <c r="R51">
-        <f>SUM(R41:R50)</f>
-        <v>0.39568345323741005</v>
-      </c>
-    </row>
+        <v>0.27537450933269247</v>
+      </c>
+      <c r="T51">
+        <f>SUM(T41:T50)</f>
+        <v>0.43137254901960786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
+    </row>
+    <row r="58" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="82"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="84"/>
+    </row>
+    <row r="59" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84"/>
+    </row>
+    <row r="60" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="82"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="84"/>
+    </row>
+    <row r="61" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="85"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="87"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="J15:N15"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:F18"/>
   </mergeCells>
+  <conditionalFormatting sqref="Z2:Z12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA2F23-93F6-4CEF-8E0E-0810B94198B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91D6CF9-B979-4C5B-B1A5-FEE62AE587AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="700" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Optimal" sheetId="12" r:id="rId1"/>
     <sheet name="3-Connected" sheetId="10" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Probabilities" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'3-Connected'!$L$2:$R$11</definedName>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="131">
   <si>
     <t>Source</t>
   </si>
@@ -517,15 +518,29 @@
   </si>
   <si>
     <t>Owned Link Install:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Conditional:</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>Service Time:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -598,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1616,13 +1631,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2190,75 +2225,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2274,6 +2240,139 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2595,8 +2694,8 @@
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,28 +2740,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="225" t="s">
+      <c r="J1" s="244" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
     </row>
     <row r="2" spans="1:38" s="116" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
@@ -2782,7 +2881,7 @@
         <f>S3/(T3-S3)</f>
         <v>48.37461300309613</v>
       </c>
-      <c r="V3" s="176">
+      <c r="V3" s="267">
         <f>D21*1000/(3*10^8)</f>
         <v>4.6666666666666669E-2</v>
       </c>
@@ -2806,7 +2905,7 @@
         <v>0.97974667669927273</v>
       </c>
       <c r="AB3" s="176">
-        <f t="shared" ref="AB3:AB13" si="0">IF(S3=T3,1,0)</f>
+        <f t="shared" ref="AB3:AB12" si="0">IF(S3=T3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="188">
@@ -2860,10 +2959,10 @@
         <v>2000</v>
       </c>
       <c r="U4" s="169">
-        <f t="shared" ref="U4:U13" si="2">S4/(T4-S4)</f>
+        <f t="shared" ref="U4:U12" si="2">S4/(T4-S4)</f>
         <v>1</v>
       </c>
-      <c r="V4" s="169">
+      <c r="V4" s="268">
         <f>E21*1000/(3*10^8)</f>
         <v>2.6333333333333334E-2</v>
       </c>
@@ -2883,7 +2982,7 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="AA4" s="169">
-        <f t="shared" ref="AA4:AA13" si="3">S4/T4</f>
+        <f t="shared" ref="AA4:AA12" si="3">S4/T4</f>
         <v>0.5</v>
       </c>
       <c r="AB4" s="169">
@@ -2944,7 +3043,7 @@
         <f t="shared" si="2"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="V5" s="170">
+      <c r="V5" s="269">
         <f>F21*1000/(3*10^8)</f>
         <v>0.04</v>
       </c>
@@ -3025,7 +3124,7 @@
         <f t="shared" si="2"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="V6" s="169">
+      <c r="V6" s="268">
         <f>B22*1000/(3*10^8)</f>
         <v>1.7999999999999999E-2</v>
       </c>
@@ -3106,7 +3205,7 @@
         <f t="shared" si="2"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="V7" s="170">
+      <c r="V7" s="269">
         <f>D22*1000/(3*10^8)</f>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3181,7 +3280,7 @@
         <f t="shared" si="2"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="V8" s="169">
+      <c r="V8" s="268">
         <f>E23*1000/(3*10^8)</f>
         <v>3.7333333333333336E-2</v>
       </c>
@@ -3267,7 +3366,7 @@
         <f t="shared" si="2"/>
         <v>1.2667207134171057</v>
       </c>
-      <c r="V9" s="170">
+      <c r="V9" s="269">
         <f>F23*1000/(3*10^8)</f>
         <v>1.5333333333333332E-2</v>
       </c>
@@ -3359,7 +3458,7 @@
         <f t="shared" si="2"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="V10" s="169">
+      <c r="V10" s="268">
         <f>C24*1000/(3*10^8)</f>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -3455,7 +3554,7 @@
         <f t="shared" si="2"/>
         <v>8.4459459459459438</v>
       </c>
-      <c r="V11" s="203">
+      <c r="V11" s="270">
         <f>C25*1000/(3*10^8)</f>
         <v>2.7333333333333334E-2</v>
       </c>
@@ -3550,7 +3649,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V12" s="209">
+      <c r="V12" s="271">
         <f>E25*1000/(3*10^8)</f>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3635,7 +3734,7 @@
       <c r="Z13" s="199"/>
       <c r="AA13" s="199"/>
       <c r="AB13" s="199"/>
-      <c r="AC13" s="238">
+      <c r="AC13" s="215">
         <f>SUM(AC3:AC12)</f>
         <v>0.71649484536082475</v>
       </c>
@@ -3888,16 +3987,16 @@
         <f>L18/(M18-L18)</f>
         <v>0.10861631503944945</v>
       </c>
-      <c r="O18" s="194">
-        <f t="shared" ref="O18:O28" si="7">V3</f>
+      <c r="O18" s="272">
+        <f t="shared" ref="O18:O27" si="7">V3</f>
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="P18" s="194">
-        <f t="shared" ref="P18:P28" si="8">W3</f>
+        <f t="shared" ref="P18:P27" si="8">W3</f>
         <v>0.26</v>
       </c>
       <c r="Q18" s="194">
-        <f t="shared" ref="Q18:Q28" si="9">Y3</f>
+        <f t="shared" ref="Q18:Q27" si="9">Y3</f>
         <v>1</v>
       </c>
       <c r="R18" s="194">
@@ -3923,16 +4022,16 @@
       <c r="AL18" s="119"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="228" t="s">
+      <c r="A19" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="230"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="250"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
@@ -3950,10 +4049,10 @@
         <v>2000</v>
       </c>
       <c r="N19" s="105">
-        <f t="shared" ref="N19:N28" si="10">L19/(M19-L19)</f>
+        <f t="shared" ref="N19:N27" si="10">L19/(M19-L19)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="273">
         <f t="shared" si="7"/>
         <v>2.6333333333333334E-2</v>
       </c>
@@ -3970,7 +4069,7 @@
         <v>0.25814285714285717</v>
       </c>
       <c r="S19" s="105">
-        <f t="shared" ref="S19:S28" si="11">L19/M19</f>
+        <f t="shared" ref="S19:S27" si="11">L19/M19</f>
         <v>0.125</v>
       </c>
       <c r="T19" s="195">
@@ -3988,7 +4087,7 @@
       <c r="AL19" s="119"/>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="227"/>
+      <c r="A20" s="247"/>
       <c r="B20" s="98" t="s">
         <v>2</v>
       </c>
@@ -4024,7 +4123,7 @@
         <f t="shared" si="10"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="O20" s="194">
+      <c r="O20" s="272">
         <f t="shared" si="7"/>
         <v>0.04</v>
       </c>
@@ -4097,7 +4196,7 @@
         <f t="shared" si="10"/>
         <v>0.34722222222222221</v>
       </c>
-      <c r="O21" s="105">
+      <c r="O21" s="273">
         <f t="shared" si="7"/>
         <v>1.7999999999999999E-2</v>
       </c>
@@ -4121,10 +4220,10 @@
         <f t="shared" si="12"/>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="Z21" s="236" t="s">
+      <c r="Z21" s="256" t="s">
         <v>70</v>
       </c>
-      <c r="AA21" s="237"/>
+      <c r="AA21" s="257"/>
       <c r="AD21" s="119"/>
       <c r="AF21" s="119"/>
       <c r="AG21" s="119"/>
@@ -4173,7 +4272,7 @@
         <f t="shared" si="10"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="O22" s="194">
+      <c r="O22" s="272">
         <f t="shared" si="7"/>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4252,7 +4351,7 @@
         <f t="shared" si="10"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="O23" s="105">
+      <c r="O23" s="273">
         <f t="shared" si="7"/>
         <v>3.7333333333333336E-2</v>
       </c>
@@ -4330,7 +4429,7 @@
         <f t="shared" si="10"/>
         <v>1.2667207134171057</v>
       </c>
-      <c r="O24" s="194">
+      <c r="O24" s="272">
         <f t="shared" si="7"/>
         <v>1.5333333333333332E-2</v>
       </c>
@@ -4409,7 +4508,7 @@
         <f t="shared" si="10"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="O25" s="105">
+      <c r="O25" s="273">
         <f t="shared" si="7"/>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -4473,7 +4572,7 @@
         <f t="shared" si="10"/>
         <v>0.28788576692768308</v>
       </c>
-      <c r="O26" s="194">
+      <c r="O26" s="272">
         <f t="shared" si="7"/>
         <v>2.7333333333333334E-2</v>
       </c>
@@ -4526,7 +4625,7 @@
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O27" s="124">
+      <c r="O27" s="274">
         <f t="shared" si="7"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4561,16 +4660,16 @@
       <c r="AM27" s="119"/>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="231" t="s">
+      <c r="A28" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="232"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="232"/>
-      <c r="F28" s="233"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="253"/>
       <c r="K28" s="143" t="s">
         <v>121</v>
       </c>
@@ -4588,7 +4687,7 @@
       <c r="Q28" s="184"/>
       <c r="R28" s="184"/>
       <c r="S28" s="184"/>
-      <c r="T28" s="239">
+      <c r="T28" s="216">
         <f>SUM(T18:T27)</f>
         <v>0.28350515463917525</v>
       </c>
@@ -4596,7 +4695,7 @@
       <c r="AH28" s="119"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="235"/>
+      <c r="A29" s="255"/>
       <c r="B29" s="139" t="s">
         <v>2</v>
       </c>
@@ -4656,13 +4755,13 @@
       <c r="F31" s="113">
         <v>50</v>
       </c>
-      <c r="K31" s="224" t="s">
+      <c r="K31" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="245"/>
+      <c r="O31" s="245"/>
       <c r="P31" s="119"/>
       <c r="Q31" s="119"/>
       <c r="AG31" s="119"/>
@@ -4806,13 +4905,13 @@
       <c r="L36" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="240" t="s">
+      <c r="M36" s="217" t="s">
         <v>125</v>
       </c>
       <c r="N36" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="O36" s="241" t="s">
+      <c r="O36" s="218" t="s">
         <v>100</v>
       </c>
       <c r="P36" s="70">
@@ -4863,7 +4962,7 @@
         <f>((O3*4000+Q3*2000)*$D$21)</f>
         <v>196000000</v>
       </c>
-      <c r="O37" s="242" t="s">
+      <c r="O37" s="219" t="s">
         <v>101</v>
       </c>
       <c r="P37" s="70">
@@ -4914,7 +5013,7 @@
         <f>((O4*4000+Q4*2000)*E21)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="241" t="s">
+      <c r="O38" s="218" t="s">
         <v>61</v>
       </c>
       <c r="P38" s="70">
@@ -5080,6 +5179,7 @@
       <c r="B43" s="55"/>
       <c r="C43" s="134"/>
       <c r="D43" s="134"/>
+      <c r="G43" s="275"/>
       <c r="K43" s="119" t="s">
         <v>80</v>
       </c>
@@ -5167,7 +5267,7 @@
       <c r="N47" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="O47" s="244">
+      <c r="O47" s="221">
         <f>L49+SUM(P36:P37)*120+P38+L33*120</f>
         <v>904720000</v>
       </c>
@@ -5184,10 +5284,10 @@
       <c r="B49" s="134"/>
       <c r="C49" s="134"/>
       <c r="D49" s="134"/>
-      <c r="K49" s="243" t="s">
+      <c r="K49" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="244">
+      <c r="L49" s="221">
         <f>SUM(M37:N46)+L32</f>
         <v>667800000</v>
       </c>
@@ -6577,13 +6677,13 @@
       <c r="D15" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="224" t="s">
+      <c r="J15" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="245"/>
       <c r="O15" s="56"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="56"/>
@@ -6689,16 +6789,16 @@
       <c r="AL17" s="56"/>
     </row>
     <row r="18" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="216" t="s">
+      <c r="A18" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="218"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -6721,7 +6821,7 @@
       <c r="AL18" s="56"/>
     </row>
     <row r="19" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="223"/>
+      <c r="A19" s="259"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -7990,7 +8090,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8004,34 +8104,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="216" t="s">
+      <c r="A1" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="218"/>
-      <c r="H1" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="216" t="s">
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="262"/>
+      <c r="H1" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="218"/>
-      <c r="O1" s="215" t="s">
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="262"/>
+      <c r="O1" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="222"/>
+      <c r="A2" s="266"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -8048,7 +8148,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="222"/>
+      <c r="H2" s="266"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8092,7 +8192,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="36">
-        <f t="shared" ref="I3:M7" si="0">B3/$I$20</f>
+        <f t="shared" ref="I3:M7" si="0">B3/$I$22</f>
         <v>0</v>
       </c>
       <c r="J3" s="36">
@@ -8111,6 +8211,10 @@
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="N3" s="223">
+        <f>SUM(I3:M3)</f>
+        <v>0.40721649484536082</v>
+      </c>
       <c r="O3" t="s">
         <v>47</v>
       </c>
@@ -8158,7 +8262,10 @@
         <f t="shared" si="0"/>
         <v>5.1546391752577319E-3</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="223">
+        <f t="shared" ref="N4:N7" si="1">SUM(I4:M4)</f>
+        <v>0.10824742268041236</v>
+      </c>
       <c r="O4" t="s">
         <v>49</v>
       </c>
@@ -8206,6 +8313,10 @@
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="N5" s="223">
+        <f t="shared" si="1"/>
+        <v>0.15463917525773194</v>
+      </c>
       <c r="O5" t="s">
         <v>50</v>
       </c>
@@ -8253,6 +8364,10 @@
         <f t="shared" si="0"/>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="N6" s="223">
+        <f t="shared" si="1"/>
+        <v>0.15463917525773194</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -8297,50 +8412,79 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N7" s="223">
+        <f t="shared" si="1"/>
+        <v>0.17525773195876287</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="219" t="s">
+      <c r="A8" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="H8" s="219" t="s">
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8">
+        <f>SUM(B3:F7)</f>
+        <v>9700</v>
+      </c>
+      <c r="H8" s="264" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>1/G8*1000</f>
+        <v>0.10309278350515465</v>
+      </c>
+      <c r="I9" s="223">
+        <f>SUM(I3:I7)</f>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="J9" s="223">
+        <f t="shared" ref="J9:M9" si="2">SUM(J3:J7)</f>
+        <v>0.14432989690721648</v>
+      </c>
+      <c r="K9" s="223">
+        <f t="shared" si="2"/>
+        <v>0.38659793814432986</v>
+      </c>
+      <c r="L9" s="223">
+        <f t="shared" si="2"/>
+        <v>0.28350515463917525</v>
+      </c>
+      <c r="M9" s="223">
+        <f t="shared" si="2"/>
+        <v>8.2474226804123696E-2</v>
+      </c>
+      <c r="N9" s="223"/>
+    </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="216" t="s">
+      <c r="A10" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="H10" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="216" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="262"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="223"/>
+      <c r="A11" s="259"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -8356,24 +8500,13 @@
       <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="222"/>
-      <c r="I11" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -8392,31 +8525,18 @@
       <c r="F12" s="9">
         <v>12000</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="45">
-        <f>B3*$I$19/(1000000)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="45">
-        <f t="shared" ref="J12:M12" si="1">C3*$I$19/(1000000)</f>
-        <v>4</v>
-      </c>
-      <c r="K12" s="45">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="L12" s="45">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M12" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H12" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="260" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="261"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="262"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -8436,31 +8556,24 @@
         <v>8200</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="266"/>
+      <c r="I13" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="45">
-        <f t="shared" ref="I13:I16" si="2">B4*$I$19/(1000000)</f>
+      <c r="K13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="45">
-        <f t="shared" ref="J13:J16" si="3">C4*$I$19/(1000000)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="45">
-        <f t="shared" ref="K13:K16" si="4">D4*$I$19/(1000000)</f>
-        <v>10</v>
-      </c>
-      <c r="L13" s="45">
-        <f t="shared" ref="L13:L16" si="5">E4*$I$19/(1000000)</f>
-        <v>5</v>
-      </c>
-      <c r="M13" s="16">
-        <f t="shared" ref="M13:M16" si="6">F4*$I$19/(1000000)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
@@ -8481,26 +8594,26 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="45">
+        <f>B3*$I$21/(1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="45">
+        <f t="shared" ref="J14:M14" si="3">C3*$I$21/(1000000)</f>
         <v>4</v>
       </c>
-      <c r="I14" s="45">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J14" s="45">
+      <c r="K14" s="45">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K14" s="45">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L14" s="45">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8525,27 +8638,27 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="45">
+        <f t="shared" ref="I15:I18" si="4">B4*$I$21/(1000000)</f>
         <v>5</v>
       </c>
-      <c r="I15" s="45">
-        <f t="shared" si="2"/>
+      <c r="J15" s="45">
+        <f t="shared" ref="J15:J18" si="5">C4*$I$21/(1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="45">
+        <f t="shared" ref="K15:K18" si="6">D4*$I$21/(1000000)</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="45">
+        <f t="shared" ref="L15:L18" si="7">E4*$I$21/(1000000)</f>
         <v>5</v>
       </c>
-      <c r="J15" s="45">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K15" s="45">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="M15" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" ref="M15:M18" si="8">F4*$I$21/(1000000)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8569,54 +8682,86 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="45">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J16" s="45">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K16" s="45">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="J16" s="45">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L16" s="45">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="H17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="45">
         <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K17" s="45">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L17" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="45">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K18" s="45">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="45">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="M16" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="219" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="H17" s="219" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
-      <c r="M17" s="219"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
+      <c r="M18" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -8632,18 +8777,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="H19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="15">
-        <v>20000</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="H19" s="264" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="264"/>
+      <c r="J19" s="264"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="264"/>
+      <c r="M19" s="264"/>
     </row>
     <row r="20" spans="1:13" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -8661,16 +8802,12 @@
       <c r="E20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="1">
-        <f>SUM(B3:F7)</f>
-        <v>9700</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>45</v>
-      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -8688,6 +8825,18 @@
       <c r="E21" s="48" t="s">
         <v>24</v>
       </c>
+      <c r="H21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="15">
+        <v>20000</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
@@ -8706,7 +8855,16 @@
         <v>24</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="I22" s="46"/>
+      <c r="H22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1">
+        <f>SUM(B3:F7)</f>
+        <v>9700</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
@@ -8735,6 +8893,7 @@
       <c r="D24" s="30" t="s">
         <v>33</v>
       </c>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -8766,12 +8925,12 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="219" t="s">
+      <c r="A27" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="219"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="219"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
@@ -8788,10 +8947,676 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="H19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0DBAA6-739A-4660-96E4-A6E1D48EB2A8}">
+  <dimension ref="D2:K36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="224" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="224" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="224"/>
+      <c r="E3" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="224" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="224" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="224" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="224"/>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="226">
+        <v>0</v>
+      </c>
+      <c r="F4" s="227">
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="G4" s="227">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="H4" s="227">
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="I4" s="228">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="J4" s="224">
+        <v>0.40721649484536082</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="224" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="229">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35">
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="H5" s="35">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="I5" s="230">
+        <v>5.1546391752577319E-3</v>
+      </c>
+      <c r="J5" s="224">
+        <v>0.10824742268041236</v>
+      </c>
+      <c r="K5" s="243">
+        <f>J4+J5</f>
+        <v>0.51546391752577314</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="224" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="229">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35">
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="I6" s="230">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="J6" s="224">
+        <v>0.15463917525773194</v>
+      </c>
+      <c r="K6" s="223">
+        <f>K5+J6</f>
+        <v>0.67010309278350511</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="229">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="F7" s="35">
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="G7" s="35">
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="230">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="J7" s="224">
+        <v>0.15463917525773194</v>
+      </c>
+      <c r="K7" s="223">
+        <f t="shared" ref="K7:K8" si="0">K6+J7</f>
+        <v>0.82474226804123707</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="231">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="F8" s="225">
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="G8" s="225">
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="H8" s="225">
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="I8" s="232">
+        <v>0</v>
+      </c>
+      <c r="J8" s="224">
+        <v>0.17525773195876287</v>
+      </c>
+      <c r="K8" s="223">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="242" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="233">
+        <f>E4/$J4</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="234">
+        <f t="shared" ref="F13:I13" si="1">F4/$J4</f>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G13" s="234">
+        <f t="shared" si="1"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="H13" s="234">
+        <f t="shared" si="1"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="I13" s="235">
+        <f t="shared" si="1"/>
+        <v>6.3291139240506319E-2</v>
+      </c>
+      <c r="J13" s="223">
+        <f>SUM(E13:I13)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="236">
+        <f t="shared" ref="E14:I14" si="2">E5/$J5</f>
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="F14" s="237">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="237">
+        <f t="shared" si="2"/>
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="H14" s="237">
+        <f t="shared" si="2"/>
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="I14" s="238">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047623E-2</v>
+      </c>
+      <c r="J14" s="223">
+        <f t="shared" ref="J14:J17" si="3">SUM(E14:I14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="236">
+        <f t="shared" ref="E15:I15" si="4">E6/$J6</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F15" s="237">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G15" s="237">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="237">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="I15" s="238">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="J15" s="223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="236">
+        <f t="shared" ref="E16:I16" si="5">E7/$J7</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F16" s="237">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G16" s="237">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="H16" s="237">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="238">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="J16" s="223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="239">
+        <f t="shared" ref="E17:I17" si="6">E8/$J8</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F17" s="240">
+        <f t="shared" si="6"/>
+        <v>0.11764705882352942</v>
+      </c>
+      <c r="G17" s="240">
+        <f t="shared" si="6"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H17" s="240">
+        <f t="shared" si="6"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="I17" s="241">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="223">
+        <f>E13</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="223">
+        <f>$E13+$F13</f>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G19" s="223">
+        <f>G13+F19</f>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="H19" s="223">
+        <f t="shared" ref="H19:I19" si="7">H13+G19</f>
+        <v>0.93670886075949356</v>
+      </c>
+      <c r="I19" s="223">
+        <f t="shared" si="7"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="223">
+        <f t="shared" ref="E20:E23" si="8">E14</f>
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="F20" s="223">
+        <f>E20+F14</f>
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="G20" s="223">
+        <f t="shared" ref="G20:I20" si="9">F20+G14</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H20" s="223">
+        <f t="shared" si="9"/>
+        <v>0.95238095238095244</v>
+      </c>
+      <c r="I20" s="223">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="223">
+        <f>E15</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F21" s="223">
+        <f t="shared" ref="F21:I21" si="10">E21+F15</f>
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="223">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="223">
+        <f t="shared" si="10"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I21" s="223">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="223">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F22" s="223">
+        <f t="shared" ref="F22:I22" si="11">E22+F16</f>
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="223">
+        <f t="shared" si="11"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H22" s="223">
+        <f t="shared" si="11"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I22" s="223">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="223">
+        <f t="shared" si="8"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F23" s="223">
+        <f t="shared" ref="F23:I23" si="12">E23+F17</f>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="G23" s="223">
+        <f t="shared" si="12"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="H23" s="223">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="223">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="222" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="180" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="217" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="190" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="194">
+        <v>2551.6799999999998</v>
+      </c>
+      <c r="G27" s="276">
+        <f>1/F27*1000</f>
+        <v>0.39189867067970907</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="105">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="276">
+        <f t="shared" ref="G28:G36" si="13">1/F28*1000</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="189" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="190" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="194">
+        <v>776</v>
+      </c>
+      <c r="G29" s="276">
+        <f t="shared" si="13"/>
+        <v>1.2886597938144331</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="105">
+        <v>776</v>
+      </c>
+      <c r="G30" s="276">
+        <f t="shared" si="13"/>
+        <v>1.2886597938144331</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="194">
+        <v>776</v>
+      </c>
+      <c r="G31" s="276">
+        <f t="shared" si="13"/>
+        <v>1.2886597938144331</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="105">
+        <v>776</v>
+      </c>
+      <c r="G32" s="276">
+        <f t="shared" si="13"/>
+        <v>1.2886597938144331</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="189" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="194">
+        <v>447.36</v>
+      </c>
+      <c r="G33" s="276">
+        <f t="shared" si="13"/>
+        <v>2.2353361945636623</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="105">
+        <v>776</v>
+      </c>
+      <c r="G34" s="276">
+        <f t="shared" si="13"/>
+        <v>1.2886597938144331</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="190" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="194">
+        <v>223.68</v>
+      </c>
+      <c r="G35" s="276">
+        <f t="shared" si="13"/>
+        <v>4.4706723891273246</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="124">
+        <v>2000</v>
+      </c>
+      <c r="G36" s="276">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91D6CF9-B979-4C5B-B1A5-FEE62AE587AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A6114-BA6E-4262-98C9-4D4AB5A85842}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="700" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="700" activeTab="3" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal" sheetId="12" r:id="rId1"/>
@@ -540,7 +540,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1657,7 +1657,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2284,75 +2284,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2372,7 +2303,85 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2694,8 +2703,8 @@
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,28 +2749,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="244" t="s">
+      <c r="J1" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="244"/>
-      <c r="AA1" s="244"/>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="244"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="254"/>
     </row>
     <row r="2" spans="1:38" s="116" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
@@ -2881,7 +2890,7 @@
         <f>S3/(T3-S3)</f>
         <v>48.37461300309613</v>
       </c>
-      <c r="V3" s="267">
+      <c r="V3" s="244">
         <f>D21*1000/(3*10^8)</f>
         <v>4.6666666666666669E-2</v>
       </c>
@@ -2962,7 +2971,7 @@
         <f t="shared" ref="U4:U12" si="2">S4/(T4-S4)</f>
         <v>1</v>
       </c>
-      <c r="V4" s="268">
+      <c r="V4" s="245">
         <f>E21*1000/(3*10^8)</f>
         <v>2.6333333333333334E-2</v>
       </c>
@@ -3043,7 +3052,7 @@
         <f t="shared" si="2"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="V5" s="269">
+      <c r="V5" s="246">
         <f>F21*1000/(3*10^8)</f>
         <v>0.04</v>
       </c>
@@ -3124,7 +3133,7 @@
         <f t="shared" si="2"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="V6" s="268">
+      <c r="V6" s="245">
         <f>B22*1000/(3*10^8)</f>
         <v>1.7999999999999999E-2</v>
       </c>
@@ -3205,7 +3214,7 @@
         <f t="shared" si="2"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="V7" s="269">
+      <c r="V7" s="246">
         <f>D22*1000/(3*10^8)</f>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3280,7 +3289,7 @@
         <f t="shared" si="2"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="V8" s="268">
+      <c r="V8" s="245">
         <f>E23*1000/(3*10^8)</f>
         <v>3.7333333333333336E-2</v>
       </c>
@@ -3366,7 +3375,7 @@
         <f t="shared" si="2"/>
         <v>1.2667207134171057</v>
       </c>
-      <c r="V9" s="269">
+      <c r="V9" s="246">
         <f>F23*1000/(3*10^8)</f>
         <v>1.5333333333333332E-2</v>
       </c>
@@ -3458,7 +3467,7 @@
         <f t="shared" si="2"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="V10" s="268">
+      <c r="V10" s="245">
         <f>C24*1000/(3*10^8)</f>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -3554,7 +3563,7 @@
         <f t="shared" si="2"/>
         <v>8.4459459459459438</v>
       </c>
-      <c r="V11" s="270">
+      <c r="V11" s="247">
         <f>C25*1000/(3*10^8)</f>
         <v>2.7333333333333334E-2</v>
       </c>
@@ -3649,7 +3658,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V12" s="271">
+      <c r="V12" s="248">
         <f>E25*1000/(3*10^8)</f>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3987,7 +3996,7 @@
         <f>L18/(M18-L18)</f>
         <v>0.10861631503944945</v>
       </c>
-      <c r="O18" s="272">
+      <c r="O18" s="249">
         <f t="shared" ref="O18:O27" si="7">V3</f>
         <v>4.6666666666666669E-2</v>
       </c>
@@ -4022,16 +4031,16 @@
       <c r="AL18" s="119"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="248" t="s">
+      <c r="A19" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="258" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="249"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="250"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
@@ -4052,7 +4061,7 @@
         <f t="shared" ref="N19:N27" si="10">L19/(M19-L19)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O19" s="273">
+      <c r="O19" s="250">
         <f t="shared" si="7"/>
         <v>2.6333333333333334E-2</v>
       </c>
@@ -4087,7 +4096,7 @@
       <c r="AL19" s="119"/>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="247"/>
+      <c r="A20" s="257"/>
       <c r="B20" s="98" t="s">
         <v>2</v>
       </c>
@@ -4123,7 +4132,7 @@
         <f t="shared" si="10"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="O20" s="272">
+      <c r="O20" s="249">
         <f t="shared" si="7"/>
         <v>0.04</v>
       </c>
@@ -4196,7 +4205,7 @@
         <f t="shared" si="10"/>
         <v>0.34722222222222221</v>
       </c>
-      <c r="O21" s="273">
+      <c r="O21" s="250">
         <f t="shared" si="7"/>
         <v>1.7999999999999999E-2</v>
       </c>
@@ -4220,10 +4229,10 @@
         <f t="shared" si="12"/>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="Z21" s="256" t="s">
+      <c r="Z21" s="266" t="s">
         <v>70</v>
       </c>
-      <c r="AA21" s="257"/>
+      <c r="AA21" s="267"/>
       <c r="AD21" s="119"/>
       <c r="AF21" s="119"/>
       <c r="AG21" s="119"/>
@@ -4272,7 +4281,7 @@
         <f t="shared" si="10"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="O22" s="272">
+      <c r="O22" s="249">
         <f t="shared" si="7"/>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4351,7 +4360,7 @@
         <f t="shared" si="10"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="O23" s="273">
+      <c r="O23" s="250">
         <f t="shared" si="7"/>
         <v>3.7333333333333336E-2</v>
       </c>
@@ -4429,7 +4438,7 @@
         <f t="shared" si="10"/>
         <v>1.2667207134171057</v>
       </c>
-      <c r="O24" s="272">
+      <c r="O24" s="249">
         <f t="shared" si="7"/>
         <v>1.5333333333333332E-2</v>
       </c>
@@ -4508,7 +4517,7 @@
         <f t="shared" si="10"/>
         <v>0.47528517110266161</v>
       </c>
-      <c r="O25" s="273">
+      <c r="O25" s="250">
         <f t="shared" si="7"/>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -4572,7 +4581,7 @@
         <f t="shared" si="10"/>
         <v>0.28788576692768308</v>
       </c>
-      <c r="O26" s="272">
+      <c r="O26" s="249">
         <f t="shared" si="7"/>
         <v>2.7333333333333334E-2</v>
       </c>
@@ -4625,7 +4634,7 @@
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O27" s="274">
+      <c r="O27" s="251">
         <f t="shared" si="7"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4660,16 +4669,16 @@
       <c r="AM27" s="119"/>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="251" t="s">
+      <c r="A28" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="252"/>
-      <c r="D28" s="252"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="253"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="262"/>
+      <c r="F28" s="263"/>
       <c r="K28" s="143" t="s">
         <v>121</v>
       </c>
@@ -4695,7 +4704,7 @@
       <c r="AH28" s="119"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="255"/>
+      <c r="A29" s="265"/>
       <c r="B29" s="139" t="s">
         <v>2</v>
       </c>
@@ -4755,13 +4764,13 @@
       <c r="F31" s="113">
         <v>50</v>
       </c>
-      <c r="K31" s="245" t="s">
+      <c r="K31" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="245"/>
-      <c r="M31" s="245"/>
-      <c r="N31" s="245"/>
-      <c r="O31" s="245"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="255"/>
+      <c r="O31" s="255"/>
       <c r="P31" s="119"/>
       <c r="Q31" s="119"/>
       <c r="AG31" s="119"/>
@@ -5179,7 +5188,7 @@
       <c r="B43" s="55"/>
       <c r="C43" s="134"/>
       <c r="D43" s="134"/>
-      <c r="G43" s="275"/>
+      <c r="G43" s="252"/>
       <c r="K43" s="119" t="s">
         <v>80</v>
       </c>
@@ -6677,13 +6686,13 @@
       <c r="D15" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="245" t="s">
+      <c r="J15" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="245"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="245"/>
-      <c r="N15" s="245"/>
+      <c r="K15" s="255"/>
+      <c r="L15" s="255"/>
+      <c r="M15" s="255"/>
+      <c r="N15" s="255"/>
       <c r="O15" s="56"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="56"/>
@@ -6789,16 +6798,16 @@
       <c r="AL17" s="56"/>
     </row>
     <row r="18" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="260" t="s">
+      <c r="A18" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="262"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="272"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -6821,7 +6830,7 @@
       <c r="AL18" s="56"/>
     </row>
     <row r="19" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="259"/>
+      <c r="A19" s="269"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -8104,34 +8113,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="260" t="s">
+      <c r="A1" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="262"/>
-      <c r="H1" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="260" t="s">
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="272"/>
+      <c r="H1" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="262"/>
-      <c r="O1" s="263" t="s">
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="272"/>
+      <c r="O1" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="263"/>
-      <c r="Q1" s="263"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="266"/>
+      <c r="A2" s="276"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -8148,7 +8157,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="266"/>
+      <c r="H2" s="276"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8418,26 +8427,26 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="264" t="s">
+      <c r="A8" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
+      <c r="B8" s="274"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="274"/>
+      <c r="F8" s="274"/>
       <c r="G8">
         <f>SUM(B3:F7)</f>
         <v>9700</v>
       </c>
-      <c r="H8" s="264" t="s">
+      <c r="H8" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="265"/>
-      <c r="M8" s="265"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="275"/>
+      <c r="M8" s="275"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9">
@@ -8467,16 +8476,16 @@
       <c r="N9" s="223"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="260" t="s">
+      <c r="A10" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="262"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="272"/>
       <c r="I10" s="223"/>
       <c r="J10" s="223"/>
       <c r="K10" s="223"/>
@@ -8484,7 +8493,7 @@
       <c r="M10" s="223"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="259"/>
+      <c r="A11" s="269"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -8525,16 +8534,16 @@
       <c r="F12" s="9">
         <v>12000</v>
       </c>
-      <c r="H12" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="260" t="s">
+      <c r="H12" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="261"/>
-      <c r="K12" s="261"/>
-      <c r="L12" s="261"/>
-      <c r="M12" s="262"/>
+      <c r="J12" s="271"/>
+      <c r="K12" s="271"/>
+      <c r="L12" s="271"/>
+      <c r="M12" s="272"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -8556,7 +8565,7 @@
         <v>8200</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="266"/>
+      <c r="H13" s="276"/>
       <c r="I13" s="50" t="s">
         <v>2</v>
       </c>
@@ -8706,14 +8715,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="264" t="s">
+      <c r="A17" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
+      <c r="B17" s="274"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="274"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="274"/>
       <c r="H17" s="10" t="s">
         <v>5</v>
       </c>
@@ -8777,14 +8786,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="H19" s="264" t="s">
+      <c r="H19" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="264"/>
-      <c r="J19" s="264"/>
-      <c r="K19" s="264"/>
-      <c r="L19" s="264"/>
-      <c r="M19" s="264"/>
+      <c r="I19" s="274"/>
+      <c r="J19" s="274"/>
+      <c r="K19" s="274"/>
+      <c r="L19" s="274"/>
+      <c r="M19" s="274"/>
     </row>
     <row r="20" spans="1:13" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -8925,12 +8934,12 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="264" t="s">
+      <c r="A27" s="274" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="264"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="264"/>
+      <c r="B27" s="274"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
@@ -8957,10 +8966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0DBAA6-739A-4660-96E4-A6E1D48EB2A8}">
-  <dimension ref="D2:K36"/>
+  <dimension ref="D2:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8970,9 +8979,11 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D2" s="224" t="s">
         <v>0</v>
       </c>
@@ -8985,7 +8996,7 @@
       <c r="I2" s="224"/>
       <c r="J2" s="224"/>
     </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D3" s="224"/>
       <c r="E3" s="224" t="s">
         <v>2</v>
@@ -9003,8 +9014,10 @@
         <v>6</v>
       </c>
       <c r="J3" s="224"/>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="O3" s="224"/>
+      <c r="P3" s="224"/>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D4" s="224" t="s">
         <v>2</v>
       </c>
@@ -9026,8 +9039,11 @@
       <c r="J4" s="224">
         <v>0.40721649484536082</v>
       </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="O4" s="227"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="243"/>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D5" s="224" t="s">
         <v>3</v>
       </c>
@@ -9053,8 +9069,11 @@
         <f>J4+J5</f>
         <v>0.51546391752577314</v>
       </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="O5" s="35"/>
+      <c r="P5" s="278"/>
+      <c r="Q5" s="243"/>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D6" s="224" t="s">
         <v>4</v>
       </c>
@@ -9080,8 +9099,11 @@
         <f>K5+J6</f>
         <v>0.67010309278350511</v>
       </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="O6" s="35"/>
+      <c r="P6" s="278"/>
+      <c r="Q6" s="243"/>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D7" s="224" t="s">
         <v>5</v>
       </c>
@@ -9107,8 +9129,11 @@
         <f t="shared" ref="K7:K8" si="0">K6+J7</f>
         <v>0.82474226804123707</v>
       </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="O7" s="35"/>
+      <c r="P7" s="278"/>
+      <c r="Q7" s="243"/>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D8" s="224" t="s">
         <v>6</v>
       </c>
@@ -9134,8 +9159,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="O8" s="225"/>
+      <c r="P8" s="279"/>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D9" s="224"/>
       <c r="E9" s="224"/>
       <c r="F9" s="224"/>
@@ -9144,7 +9171,7 @@
       <c r="I9" s="224"/>
       <c r="J9" s="224"/>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D10" s="224"/>
       <c r="E10" s="224"/>
       <c r="F10" s="224"/>
@@ -9153,12 +9180,12 @@
       <c r="I10" s="224"/>
       <c r="J10" s="224"/>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D11" s="242" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>0</v>
       </c>
@@ -9181,7 +9208,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>2</v>
       </c>
@@ -9210,7 +9237,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>3</v>
       </c>
@@ -9239,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -9268,7 +9295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -9476,7 +9503,7 @@
       <c r="F27" s="194">
         <v>2551.6799999999998</v>
       </c>
-      <c r="G27" s="276">
+      <c r="G27" s="253">
         <f>1/F27*1000</f>
         <v>0.39189867067970907</v>
       </c>
@@ -9491,7 +9518,7 @@
       <c r="F28" s="105">
         <v>2000</v>
       </c>
-      <c r="G28" s="276">
+      <c r="G28" s="253">
         <f t="shared" ref="G28:G36" si="13">1/F28*1000</f>
         <v>0.5</v>
       </c>
@@ -9506,7 +9533,7 @@
       <c r="F29" s="194">
         <v>776</v>
       </c>
-      <c r="G29" s="276">
+      <c r="G29" s="253">
         <f t="shared" si="13"/>
         <v>1.2886597938144331</v>
       </c>
@@ -9521,7 +9548,7 @@
       <c r="F30" s="105">
         <v>776</v>
       </c>
-      <c r="G30" s="276">
+      <c r="G30" s="253">
         <f t="shared" si="13"/>
         <v>1.2886597938144331</v>
       </c>
@@ -9536,7 +9563,7 @@
       <c r="F31" s="194">
         <v>776</v>
       </c>
-      <c r="G31" s="276">
+      <c r="G31" s="253">
         <f t="shared" si="13"/>
         <v>1.2886597938144331</v>
       </c>
@@ -9551,7 +9578,7 @@
       <c r="F32" s="105">
         <v>776</v>
       </c>
-      <c r="G32" s="276">
+      <c r="G32" s="253">
         <f t="shared" si="13"/>
         <v>1.2886597938144331</v>
       </c>
@@ -9566,7 +9593,7 @@
       <c r="F33" s="194">
         <v>447.36</v>
       </c>
-      <c r="G33" s="276">
+      <c r="G33" s="253">
         <f t="shared" si="13"/>
         <v>2.2353361945636623</v>
       </c>
@@ -9581,7 +9608,7 @@
       <c r="F34" s="105">
         <v>776</v>
       </c>
-      <c r="G34" s="276">
+      <c r="G34" s="253">
         <f t="shared" si="13"/>
         <v>1.2886597938144331</v>
       </c>
@@ -9596,7 +9623,7 @@
       <c r="F35" s="194">
         <v>223.68</v>
       </c>
-      <c r="G35" s="276">
+      <c r="G35" s="253">
         <f t="shared" si="13"/>
         <v>4.4706723891273246</v>
       </c>
@@ -9611,7 +9638,7 @@
       <c r="F36" s="124">
         <v>2000</v>
       </c>
-      <c r="G36" s="276">
+      <c r="G36" s="253">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>

--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A6114-BA6E-4262-98C9-4D4AB5A85842}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE2A0D8-37C3-4174-A169-928BA097FD96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="700" activeTab="3" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="700" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal" sheetId="12" r:id="rId1"/>
@@ -536,11 +536,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1657,7 +1658,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2304,6 +2305,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2372,15 +2383,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2703,8 +2705,8 @@
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,9 +2737,9 @@
     <col min="25" max="25" width="11.85546875" style="118" customWidth="1"/>
     <col min="26" max="26" width="21.7109375" style="118" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.85546875" style="118" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" style="118" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="118" customWidth="1"/>
-    <col min="30" max="30" width="10" style="118" customWidth="1"/>
+    <col min="28" max="28" width="40.28515625" style="118" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" style="118" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="118" customWidth="1"/>
     <col min="31" max="31" width="34.42578125" style="118" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.5703125" style="118" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.7109375" style="118" bestFit="1" customWidth="1"/>
@@ -2749,28 +2751,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="254" t="s">
+      <c r="J1" s="258" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="254"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="254"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="258"/>
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="258"/>
+      <c r="AB1" s="258"/>
+      <c r="AC1" s="258"/>
     </row>
     <row r="2" spans="1:38" s="116" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
@@ -4020,6 +4022,7 @@
         <f>L18/($L$28+$S$13)</f>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="V18" s="119"/>
       <c r="AD18" s="119"/>
       <c r="AE18" s="119"/>
       <c r="AF18" s="119"/>
@@ -4031,16 +4034,16 @@
       <c r="AL18" s="119"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="258" t="s">
+      <c r="A19" s="260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="262" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="259"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="260"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="264"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
@@ -4085,6 +4088,7 @@
         <f t="shared" ref="T19:T27" si="12">L19/($L$28+$S$13)</f>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="V19" s="119"/>
       <c r="AD19" s="119"/>
       <c r="AE19" s="119"/>
       <c r="AF19" s="119"/>
@@ -4096,7 +4100,7 @@
       <c r="AL19" s="119"/>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="257"/>
+      <c r="A20" s="261"/>
       <c r="B20" s="98" t="s">
         <v>2</v>
       </c>
@@ -4156,6 +4160,7 @@
         <f t="shared" si="12"/>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="V20" s="119"/>
       <c r="AD20" s="119"/>
       <c r="AE20" s="119"/>
       <c r="AF20" s="119"/>
@@ -4229,10 +4234,11 @@
         <f t="shared" si="12"/>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="Z21" s="266" t="s">
+      <c r="V21" s="119"/>
+      <c r="Z21" s="270" t="s">
         <v>70</v>
       </c>
-      <c r="AA21" s="267"/>
+      <c r="AA21" s="271"/>
       <c r="AD21" s="119"/>
       <c r="AF21" s="119"/>
       <c r="AG21" s="119"/>
@@ -4305,6 +4311,7 @@
         <f t="shared" si="12"/>
         <v>5.1546391752577317E-2</v>
       </c>
+      <c r="V22" s="119"/>
       <c r="Z22" s="105" t="s">
         <v>71</v>
       </c>
@@ -4384,6 +4391,7 @@
         <f t="shared" si="12"/>
         <v>5.1546391752577317E-2</v>
       </c>
+      <c r="V23" s="119"/>
       <c r="Z23" s="105" t="s">
         <v>72</v>
       </c>
@@ -4462,6 +4470,7 @@
         <f t="shared" si="12"/>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="V24" s="119"/>
       <c r="Z24" s="105" t="s">
         <v>106</v>
       </c>
@@ -4541,6 +4550,7 @@
         <f t="shared" si="12"/>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="V25" s="119"/>
       <c r="Z25" s="105" t="s">
         <v>73</v>
       </c>
@@ -4605,6 +4615,7 @@
         <f t="shared" si="12"/>
         <v>5.1546391752577319E-3</v>
       </c>
+      <c r="V26" s="119"/>
       <c r="AE26" s="119"/>
       <c r="AF26" s="119"/>
       <c r="AG26" s="119"/>
@@ -4658,6 +4669,7 @@
         <f t="shared" si="12"/>
         <v>2.5773195876288658E-2</v>
       </c>
+      <c r="V27" s="119"/>
       <c r="AE27" s="119"/>
       <c r="AF27" s="119"/>
       <c r="AG27" s="119"/>
@@ -4669,16 +4681,16 @@
       <c r="AM27" s="119"/>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="264" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="261" t="s">
+      <c r="A28" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="262"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="263"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="266"/>
+      <c r="F28" s="267"/>
       <c r="K28" s="143" t="s">
         <v>121</v>
       </c>
@@ -4704,7 +4716,7 @@
       <c r="AH28" s="119"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="265"/>
+      <c r="A29" s="269"/>
       <c r="B29" s="139" t="s">
         <v>2</v>
       </c>
@@ -4720,8 +4732,8 @@
       <c r="F29" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AG29" s="119"/>
-      <c r="AH29" s="119"/>
+      <c r="AE29" s="119"/>
+      <c r="AF29" s="119"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="163" t="s">
@@ -4742,8 +4754,8 @@
       <c r="F30" s="111">
         <v>250</v>
       </c>
+      <c r="AF30" s="119"/>
       <c r="AG30" s="119"/>
-      <c r="AH30" s="119"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="140" t="s">
@@ -4764,17 +4776,17 @@
       <c r="F31" s="113">
         <v>50</v>
       </c>
-      <c r="K31" s="255" t="s">
+      <c r="K31" s="259" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="255"/>
-      <c r="M31" s="255"/>
-      <c r="N31" s="255"/>
-      <c r="O31" s="255"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="259"/>
+      <c r="N31" s="259"/>
+      <c r="O31" s="259"/>
       <c r="P31" s="119"/>
       <c r="Q31" s="119"/>
+      <c r="AF31" s="119"/>
       <c r="AG31" s="119"/>
-      <c r="AH31" s="119"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="140" t="s">
@@ -4811,8 +4823,8 @@
       </c>
       <c r="P32" s="119"/>
       <c r="Q32" s="119"/>
+      <c r="AF32" s="119"/>
       <c r="AG32" s="119"/>
-      <c r="AH32" s="119"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="140" t="s">
@@ -5415,8 +5427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEFF1FD-2D58-4EC4-935B-23EC7B50B19C}">
   <dimension ref="A1:AM62"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView topLeftCell="F1" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6686,13 +6698,13 @@
       <c r="D15" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="255" t="s">
+      <c r="J15" s="259" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="259"/>
+      <c r="N15" s="259"/>
       <c r="O15" s="56"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="56"/>
@@ -6798,16 +6810,16 @@
       <c r="AL17" s="56"/>
     </row>
     <row r="18" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="270" t="s">
+      <c r="A18" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="272"/>
+      <c r="C18" s="275"/>
+      <c r="D18" s="275"/>
+      <c r="E18" s="275"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -6830,7 +6842,7 @@
       <c r="AL18" s="56"/>
     </row>
     <row r="19" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="269"/>
+      <c r="A19" s="273"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -8099,7 +8111,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8113,34 +8125,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="270" t="s">
+      <c r="A1" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="272"/>
-      <c r="H1" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="270" t="s">
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="276"/>
+      <c r="H1" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="272"/>
-      <c r="O1" s="273" t="s">
+      <c r="J1" s="275"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="276"/>
+      <c r="O1" s="277" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
+      <c r="P1" s="277"/>
+      <c r="Q1" s="277"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="276"/>
+      <c r="A2" s="280"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -8157,7 +8169,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="276"/>
+      <c r="H2" s="280"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8427,32 +8439,25 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="274" t="s">
+      <c r="A8" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="274"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="274"/>
-      <c r="E8" s="274"/>
-      <c r="F8" s="274"/>
-      <c r="G8">
-        <f>SUM(B3:F7)</f>
-        <v>9700</v>
-      </c>
-      <c r="H8" s="274" t="s">
+      <c r="B8" s="278"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="H8" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="275"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="275"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="279"/>
+      <c r="M8" s="279"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9">
-        <f>1/G8*1000</f>
-        <v>0.10309278350515465</v>
-      </c>
+      <c r="G9" s="257"/>
       <c r="I9" s="223">
         <f>SUM(I3:I7)</f>
         <v>0.10309278350515463</v>
@@ -8476,16 +8481,17 @@
       <c r="N9" s="223"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="270" t="s">
+      <c r="A10" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="271"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="272"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="257"/>
       <c r="I10" s="223"/>
       <c r="J10" s="223"/>
       <c r="K10" s="223"/>
@@ -8493,7 +8499,7 @@
       <c r="M10" s="223"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="269"/>
+      <c r="A11" s="273"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -8509,6 +8515,7 @@
       <c r="F11" s="19" t="s">
         <v>6</v>
       </c>
+      <c r="G11" s="257"/>
       <c r="I11" s="223"/>
       <c r="J11" s="223"/>
       <c r="K11" s="223"/>
@@ -8534,16 +8541,17 @@
       <c r="F12" s="9">
         <v>12000</v>
       </c>
-      <c r="H12" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="270" t="s">
+      <c r="G12" s="257"/>
+      <c r="H12" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="271"/>
-      <c r="K12" s="271"/>
-      <c r="L12" s="271"/>
-      <c r="M12" s="272"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="275"/>
+      <c r="M12" s="276"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -8564,8 +8572,8 @@
       <c r="F13" s="1">
         <v>8200</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="276"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="280"/>
       <c r="I13" s="50" t="s">
         <v>2</v>
       </c>
@@ -8715,14 +8723,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="274" t="s">
+      <c r="A17" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="274"/>
-      <c r="C17" s="274"/>
-      <c r="D17" s="274"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="274"/>
+      <c r="B17" s="278"/>
+      <c r="C17" s="278"/>
+      <c r="D17" s="278"/>
+      <c r="E17" s="278"/>
+      <c r="F17" s="278"/>
       <c r="H17" s="10" t="s">
         <v>5</v>
       </c>
@@ -8786,14 +8794,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="H19" s="274" t="s">
+      <c r="H19" s="278" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="274"/>
-      <c r="J19" s="274"/>
-      <c r="K19" s="274"/>
-      <c r="L19" s="274"/>
-      <c r="M19" s="274"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="278"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="278"/>
+      <c r="M19" s="278"/>
     </row>
     <row r="20" spans="1:13" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -8934,12 +8942,12 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="274" t="s">
+      <c r="A27" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="274"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="274"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
@@ -8968,7 +8976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0DBAA6-739A-4660-96E4-A6E1D48EB2A8}">
   <dimension ref="D2:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -9040,7 +9048,7 @@
         <v>0.40721649484536082</v>
       </c>
       <c r="O4" s="227"/>
-      <c r="P4" s="277"/>
+      <c r="P4" s="254"/>
       <c r="Q4" s="243"/>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.25">
@@ -9070,7 +9078,7 @@
         <v>0.51546391752577314</v>
       </c>
       <c r="O5" s="35"/>
-      <c r="P5" s="278"/>
+      <c r="P5" s="255"/>
       <c r="Q5" s="243"/>
     </row>
     <row r="6" spans="4:17" x14ac:dyDescent="0.25">
@@ -9100,7 +9108,7 @@
         <v>0.67010309278350511</v>
       </c>
       <c r="O6" s="35"/>
-      <c r="P6" s="278"/>
+      <c r="P6" s="255"/>
       <c r="Q6" s="243"/>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.25">
@@ -9130,7 +9138,7 @@
         <v>0.82474226804123707</v>
       </c>
       <c r="O7" s="35"/>
-      <c r="P7" s="278"/>
+      <c r="P7" s="255"/>
       <c r="Q7" s="243"/>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.25">
@@ -9160,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="225"/>
-      <c r="P8" s="279"/>
+      <c r="P8" s="256"/>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D9" s="224"/>

--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE2A0D8-37C3-4174-A169-928BA097FD96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B79754-9048-4247-82EE-7601276204CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="700" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="700" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal" sheetId="12" r:id="rId1"/>
@@ -1658,7 +1658,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2384,6 +2384,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2705,8 +2706,8 @@
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4826,7 +4827,7 @@
       <c r="AF32" s="119"/>
       <c r="AG32" s="119"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="140" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +4855,7 @@
       </c>
       <c r="O33" s="119"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="141" t="s">
         <v>6</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="142"/>
       <c r="B35" s="127"/>
       <c r="C35" s="127"/>
@@ -4892,7 +4893,7 @@
       <c r="K35" s="119"/>
       <c r="L35" s="69"/>
     </row>
-    <row r="36" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="143" t="s">
         <v>115</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="144" t="s">
         <v>2</v>
       </c>
@@ -4990,8 +4991,9 @@
         <f>O14*5000+Q14*5000</f>
         <v>45000</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T37" s="281"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="147" t="s">
         <v>3</v>
       </c>
@@ -5045,7 +5047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="147" t="s">
         <v>4</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="147" t="s">
         <v>5</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="149" t="s">
         <v>6</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K42" s="119" t="s">
         <v>79</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="134"/>
@@ -5217,7 +5219,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="127"/>
       <c r="B44" s="127"/>
       <c r="C44" s="134"/>
@@ -5238,7 +5240,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="127"/>
       <c r="B45" s="127"/>
       <c r="C45" s="134"/>
@@ -5259,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="127"/>
       <c r="B46" s="127"/>
       <c r="C46" s="134"/>
@@ -5280,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="127"/>
       <c r="B47" s="127"/>
       <c r="C47" s="134"/>
@@ -5293,7 +5295,7 @@
         <v>904720000</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="127"/>
       <c r="B48" s="127"/>
       <c r="C48" s="134"/>

--- a/Assignments/Project4/Expectation Analysis.xlsx
+++ b/Assignments/Project4/Expectation Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B79754-9048-4247-82EE-7601276204CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B92E4-A6DF-49D9-9F2C-FC7D1EE27891}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="700" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="700" xr2:uid="{DFA697D2-2C29-43C4-A322-5A73EA6783C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal" sheetId="12" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="131">
   <si>
     <t>Source</t>
   </si>
@@ -2315,6 +2315,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2384,7 +2385,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2707,7 +2707,7 @@
   <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,28 +2752,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="258" t="s">
+      <c r="J1" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="258"/>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="258"/>
-      <c r="T1" s="258"/>
-      <c r="U1" s="258"/>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="258"/>
-      <c r="Y1" s="258"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="258"/>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="258"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="259"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="259"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="259"/>
     </row>
     <row r="2" spans="1:38" s="116" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
@@ -4035,16 +4035,16 @@
       <c r="AL18" s="119"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="260" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="262" t="s">
+      <c r="A19" s="261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="263" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="263"/>
-      <c r="F19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="265"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
@@ -4101,7 +4101,7 @@
       <c r="AL19" s="119"/>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="261"/>
+      <c r="A20" s="262"/>
       <c r="B20" s="98" t="s">
         <v>2</v>
       </c>
@@ -4236,10 +4236,10 @@
         <v>2.0618556701030927E-2</v>
       </c>
       <c r="V21" s="119"/>
-      <c r="Z21" s="270" t="s">
+      <c r="Z21" s="271" t="s">
         <v>70</v>
       </c>
-      <c r="AA21" s="271"/>
+      <c r="AA21" s="272"/>
       <c r="AD21" s="119"/>
       <c r="AF21" s="119"/>
       <c r="AG21" s="119"/>
@@ -4682,16 +4682,16 @@
       <c r="AM27" s="119"/>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="265" t="s">
+      <c r="A28" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="266" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="266"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="267"/>
+      <c r="C28" s="267"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="267"/>
+      <c r="F28" s="268"/>
       <c r="K28" s="143" t="s">
         <v>121</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="AH28" s="119"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="269"/>
+      <c r="A29" s="270"/>
       <c r="B29" s="139" t="s">
         <v>2</v>
       </c>
@@ -4777,13 +4777,13 @@
       <c r="F31" s="113">
         <v>50</v>
       </c>
-      <c r="K31" s="259" t="s">
+      <c r="K31" s="260" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="259"/>
-      <c r="M31" s="259"/>
-      <c r="N31" s="259"/>
-      <c r="O31" s="259"/>
+      <c r="L31" s="260"/>
+      <c r="M31" s="260"/>
+      <c r="N31" s="260"/>
+      <c r="O31" s="260"/>
       <c r="P31" s="119"/>
       <c r="Q31" s="119"/>
       <c r="AF31" s="119"/>
@@ -4991,7 +4991,7 @@
         <f>O14*5000+Q14*5000</f>
         <v>45000</v>
       </c>
-      <c r="T37" s="281"/>
+      <c r="T37" s="258"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="147" t="s">
@@ -6700,13 +6700,13 @@
       <c r="D15" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="259" t="s">
+      <c r="J15" s="260" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="259"/>
-      <c r="L15" s="259"/>
-      <c r="M15" s="259"/>
-      <c r="N15" s="259"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
       <c r="O15" s="56"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="56"/>
@@ -6812,16 +6812,16 @@
       <c r="AL17" s="56"/>
     </row>
     <row r="18" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="274" t="s">
+      <c r="A18" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="275"/>
-      <c r="D18" s="275"/>
-      <c r="E18" s="275"/>
-      <c r="F18" s="276"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="276"/>
+      <c r="E18" s="276"/>
+      <c r="F18" s="277"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -6844,7 +6844,7 @@
       <c r="AL18" s="56"/>
     </row>
     <row r="19" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="273"/>
+      <c r="A19" s="274"/>
       <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
@@ -8113,7 +8113,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8127,34 +8127,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="274" t="s">
+      <c r="A1" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="276"/>
-      <c r="H1" s="272" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="274" t="s">
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277"/>
+      <c r="H1" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="276"/>
-      <c r="O1" s="277" t="s">
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="277"/>
+      <c r="O1" s="278" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="277"/>
-      <c r="Q1" s="277"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="280"/>
+      <c r="A2" s="281"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="280"/>
+      <c r="H2" s="281"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8441,22 +8441,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="278" t="s">
+      <c r="A8" s="279" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="278"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="H8" s="278" t="s">
+      <c r="B8" s="279"/>
+      <c r="C8" s="279"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="279"/>
+      <c r="H8" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="279"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="257"/>
@@ -8483,16 +8483,16 @@
       <c r="N9" s="223"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="274" t="s">
+      <c r="A10" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="275"/>
-      <c r="D10" s="275"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="277"/>
       <c r="G10" s="257"/>
       <c r="I10" s="223"/>
       <c r="J10" s="223"/>
@@ -8501,7 +8501,7 @@
       <c r="M10" s="223"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="273"/>
+      <c r="A11" s="274"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -8544,16 +8544,16 @@
         <v>12000</v>
       </c>
       <c r="G12" s="257"/>
-      <c r="H12" s="272" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="274" t="s">
+      <c r="H12" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="275"/>
-      <c r="K12" s="275"/>
-      <c r="L12" s="275"/>
-      <c r="M12" s="276"/>
+      <c r="J12" s="276"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="277"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -8575,7 +8575,7 @@
         <v>8200</v>
       </c>
       <c r="G13" s="257"/>
-      <c r="H13" s="280"/>
+      <c r="H13" s="281"/>
       <c r="I13" s="50" t="s">
         <v>2</v>
       </c>
@@ -8725,14 +8725,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="278" t="s">
+      <c r="A17" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="278"/>
-      <c r="C17" s="278"/>
-      <c r="D17" s="278"/>
-      <c r="E17" s="278"/>
-      <c r="F17" s="278"/>
+      <c r="B17" s="279"/>
+      <c r="C17" s="279"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
       <c r="H17" s="10" t="s">
         <v>5</v>
       </c>
@@ -8796,14 +8796,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="H19" s="278" t="s">
+      <c r="H19" s="279" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="278"/>
-      <c r="J19" s="278"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="278"/>
-      <c r="M19" s="278"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="279"/>
+      <c r="M19" s="279"/>
     </row>
     <row r="20" spans="1:13" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -8944,12 +8944,12 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="278" t="s">
+      <c r="A27" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="278"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
@@ -8976,10 +8976,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0DBAA6-739A-4660-96E4-A6E1D48EB2A8}">
-  <dimension ref="D2:Q36"/>
+  <dimension ref="D2:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="D4" sqref="D4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9593,7 +9593,7 @@
         <v>1.2886597938144331</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="189" t="s">
         <v>37</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>2.2353361945636623</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34" s="174" t="s">
         <v>38</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1.2886597938144331</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="189" t="s">
         <v>38</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>4.4706723891273246</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="139" t="s">
         <v>40</v>
       </c>
@@ -9653,7 +9653,190 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="38" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="275" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="276"/>
+      <c r="G39" s="276"/>
+      <c r="H39" s="276"/>
+      <c r="I39" s="277"/>
+    </row>
+    <row r="40" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="281"/>
+      <c r="E40" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>200</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="6">
+        <v>250</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>500</v>
+      </c>
+      <c r="H42" s="1">
+        <v>250</v>
+      </c>
+      <c r="I42" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>250</v>
+      </c>
+      <c r="F43" s="1">
+        <v>500</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>500</v>
+      </c>
+      <c r="I43" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>250</v>
+      </c>
+      <c r="F44" s="1">
+        <v>500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>500</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="11">
+        <v>250</v>
+      </c>
+      <c r="F45" s="1">
+        <v>200</v>
+      </c>
+      <c r="G45" s="1">
+        <v>250</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f>SUM(E41:E45)</f>
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:I46" si="14">SUM(F41:F45)</f>
+        <v>1400</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="14"/>
+        <v>3750</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>2750</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>800</v>
+      </c>
+      <c r="J46">
+        <f>SUM(E46:I46)</f>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="243">
+        <f>E46/$J$46</f>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="F47" s="243">
+        <f t="shared" ref="F47:I47" si="15">F46/$J$46</f>
+        <v>0.14432989690721648</v>
+      </c>
+      <c r="G47" s="243">
+        <f t="shared" si="15"/>
+        <v>0.38659793814432991</v>
+      </c>
+      <c r="H47" s="243">
+        <f t="shared" si="15"/>
+        <v>0.28350515463917525</v>
+      </c>
+      <c r="I47" s="243">
+        <f t="shared" si="15"/>
+        <v>8.247422680412371E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:I39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>